--- a/sequences/12_localizer.xlsx
+++ b/sequences/12_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>car</t>
   </si>
   <si>
-    <t>flower</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>flower/flower013.png</t>
+  </si>
+  <si>
+    <t>dog/dog015.png</t>
+  </si>
+  <si>
+    <t>flower/flower009.png</t>
+  </si>
+  <si>
+    <t>face/face012.png</t>
+  </si>
+  <si>
+    <t>dog/dog009.png</t>
+  </si>
+  <si>
+    <t>car/car002.png</t>
+  </si>
+  <si>
+    <t>car/car011.png</t>
+  </si>
+  <si>
+    <t>flower/flower011.png</t>
+  </si>
+  <si>
+    <t>car/car003.png</t>
+  </si>
+  <si>
+    <t>flower/flower010.png</t>
+  </si>
+  <si>
+    <t>face/face015.png</t>
+  </si>
+  <si>
+    <t>flower/flower004.png</t>
+  </si>
+  <si>
+    <t>face/face010.png</t>
+  </si>
+  <si>
+    <t>car/car015.png</t>
+  </si>
+  <si>
+    <t>car/car001.png</t>
+  </si>
+  <si>
+    <t>face/face008.png</t>
+  </si>
+  <si>
+    <t>flower/flower003.png</t>
+  </si>
+  <si>
+    <t>car/car005.png</t>
+  </si>
+  <si>
+    <t>face/face007.png</t>
+  </si>
+  <si>
+    <t>dog/dog008.png</t>
+  </si>
+  <si>
+    <t>face/face002.png</t>
   </si>
   <si>
     <t>dog/dog011.png</t>
   </si>
   <si>
+    <t>dog/dog001.png</t>
+  </si>
+  <si>
+    <t>face/face013.png</t>
+  </si>
+  <si>
+    <t>car/car006.png</t>
+  </si>
+  <si>
+    <t>dog/dog014.png</t>
+  </si>
+  <si>
+    <t>dog/dog007.png</t>
+  </si>
+  <si>
+    <t>car/car014.png</t>
+  </si>
+  <si>
+    <t>face/face000.png</t>
+  </si>
+  <si>
+    <t>face/face014.png</t>
+  </si>
+  <si>
+    <t>dog/dog006.png</t>
+  </si>
+  <si>
+    <t>flower/flower012.png</t>
+  </si>
+  <si>
+    <t>flower/flower007.png</t>
+  </si>
+  <si>
+    <t>dog/dog005.png</t>
+  </si>
+  <si>
+    <t>car/car008.png</t>
+  </si>
+  <si>
+    <t>flower/flower008.png</t>
+  </si>
+  <si>
+    <t>flower/flower014.png</t>
+  </si>
+  <si>
+    <t>car/car009.png</t>
+  </si>
+  <si>
+    <t>car/car010.png</t>
+  </si>
+  <si>
+    <t>car/car007.png</t>
+  </si>
+  <si>
+    <t>dog/dog012.png</t>
+  </si>
+  <si>
+    <t>face/face001.png</t>
+  </si>
+  <si>
+    <t>flower/flower006.png</t>
+  </si>
+  <si>
+    <t>dog/dog010.png</t>
+  </si>
+  <si>
+    <t>dog/dog013.png</t>
+  </si>
+  <si>
+    <t>dog/dog002.png</t>
+  </si>
+  <si>
+    <t>flower/flower002.png</t>
+  </si>
+  <si>
+    <t>car/car004.png</t>
+  </si>
+  <si>
+    <t>dog/dog003.png</t>
+  </si>
+  <si>
+    <t>car/car013.png</t>
+  </si>
+  <si>
+    <t>dog/dog004.png</t>
+  </si>
+  <si>
+    <t>flower/flower001.png</t>
+  </si>
+  <si>
+    <t>dog/dog000.png</t>
+  </si>
+  <si>
+    <t>face/face004.png</t>
+  </si>
+  <si>
+    <t>face/face003.png</t>
+  </si>
+  <si>
+    <t>flower/flower005.png</t>
+  </si>
+  <si>
+    <t>flower/flower015.png</t>
+  </si>
+  <si>
+    <t>flower/flower000.png</t>
+  </si>
+  <si>
+    <t>face/face006.png</t>
+  </si>
+  <si>
+    <t>face/face011.png</t>
+  </si>
+  <si>
+    <t>face/face005.png</t>
+  </si>
+  <si>
+    <t>car/car000.png</t>
+  </si>
+  <si>
+    <t>face/face009.png</t>
+  </si>
+  <si>
     <t>car/car012.png</t>
   </si>
   <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
+    <t>flower/flower029.png</t>
+  </si>
+  <si>
+    <t>face/face029.png</t>
+  </si>
+  <si>
+    <t>face/face031.png</t>
+  </si>
+  <si>
+    <t>car/car017.png</t>
+  </si>
+  <si>
+    <t>car/car021.png</t>
+  </si>
+  <si>
+    <t>car/car031.png</t>
+  </si>
+  <si>
+    <t>face/face024.png</t>
+  </si>
+  <si>
+    <t>dog/dog021.png</t>
+  </si>
+  <si>
+    <t>dog/dog019.png</t>
+  </si>
+  <si>
+    <t>flower/flower020.png</t>
+  </si>
+  <si>
+    <t>flower/flower016.png</t>
+  </si>
+  <si>
+    <t>car/car025.png</t>
+  </si>
+  <si>
+    <t>face/face019.png</t>
+  </si>
+  <si>
+    <t>car/car020.png</t>
+  </si>
+  <si>
+    <t>dog/dog024.png</t>
+  </si>
+  <si>
+    <t>dog/dog020.png</t>
+  </si>
+  <si>
+    <t>dog/dog022.png</t>
+  </si>
+  <si>
+    <t>car/car027.png</t>
+  </si>
+  <si>
+    <t>dog/dog027.png</t>
+  </si>
+  <si>
+    <t>car/car018.png</t>
+  </si>
+  <si>
+    <t>car/car016.png</t>
+  </si>
+  <si>
+    <t>dog/dog031.png</t>
+  </si>
+  <si>
+    <t>flower/flower026.png</t>
+  </si>
+  <si>
+    <t>face/face025.png</t>
+  </si>
+  <si>
+    <t>car/car030.png</t>
+  </si>
+  <si>
+    <t>face/face018.png</t>
+  </si>
+  <si>
+    <t>flower/flower018.png</t>
+  </si>
+  <si>
+    <t>face/face028.png</t>
+  </si>
+  <si>
+    <t>dog/dog017.png</t>
+  </si>
+  <si>
+    <t>car/car028.png</t>
+  </si>
+  <si>
+    <t>face/face021.png</t>
+  </si>
+  <si>
+    <t>face/face023.png</t>
   </si>
   <si>
     <t>flower/flower017.png</t>
   </si>
   <si>
-    <t>flower/flower020.png</t>
+    <t>dog/dog026.png</t>
+  </si>
+  <si>
+    <t>flower/flower031.png</t>
+  </si>
+  <si>
+    <t>dog/dog025.png</t>
+  </si>
+  <si>
+    <t>car/car026.png</t>
+  </si>
+  <si>
+    <t>flower/flower019.png</t>
+  </si>
+  <si>
+    <t>flower/flower028.png</t>
+  </si>
+  <si>
+    <t>flower/flower024.png</t>
+  </si>
+  <si>
+    <t>face/face022.png</t>
+  </si>
+  <si>
+    <t>flower/flower027.png</t>
+  </si>
+  <si>
+    <t>car/car022.png</t>
+  </si>
+  <si>
+    <t>dog/dog023.png</t>
+  </si>
+  <si>
+    <t>face/face027.png</t>
+  </si>
+  <si>
+    <t>dog/dog029.png</t>
+  </si>
+  <si>
+    <t>flower/flower030.png</t>
+  </si>
+  <si>
+    <t>car/car029.png</t>
+  </si>
+  <si>
+    <t>car/car023.png</t>
+  </si>
+  <si>
+    <t>flower/flower023.png</t>
+  </si>
+  <si>
+    <t>car/car024.png</t>
+  </si>
+  <si>
+    <t>flower/flower021.png</t>
+  </si>
+  <si>
+    <t>dog/dog030.png</t>
+  </si>
+  <si>
+    <t>dog/dog016.png</t>
+  </si>
+  <si>
+    <t>face/face020.png</t>
+  </si>
+  <si>
+    <t>flower/flower022.png</t>
+  </si>
+  <si>
+    <t>flower/flower025.png</t>
+  </si>
+  <si>
+    <t>dog/dog018.png</t>
+  </si>
+  <si>
+    <t>face/face016.png</t>
+  </si>
+  <si>
+    <t>face/face026.png</t>
+  </si>
+  <si>
+    <t>face/face030.png</t>
   </si>
   <si>
     <t>dog/dog028.png</t>
   </si>
   <si>
+    <t>face/face017.png</t>
+  </si>
+  <si>
     <t>car/car019.png</t>
   </si>
   <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
+    <t>flower/flower036.png</t>
+  </si>
+  <si>
+    <t>car/car032.png</t>
+  </si>
+  <si>
+    <t>car/car035.png</t>
+  </si>
+  <si>
+    <t>car/car036.png</t>
+  </si>
+  <si>
+    <t>dog/dog037.png</t>
+  </si>
+  <si>
+    <t>face/face045.png</t>
+  </si>
+  <si>
+    <t>face/face043.png</t>
+  </si>
+  <si>
+    <t>face/face041.png</t>
+  </si>
+  <si>
+    <t>car/car040.png</t>
+  </si>
+  <si>
+    <t>car/car034.png</t>
+  </si>
+  <si>
+    <t>flower/flower043.png</t>
+  </si>
+  <si>
+    <t>car/car037.png</t>
+  </si>
+  <si>
+    <t>face/face036.png</t>
+  </si>
+  <si>
+    <t>car/car038.png</t>
+  </si>
+  <si>
+    <t>flower/flower033.png</t>
+  </si>
+  <si>
+    <t>flower/flower040.png</t>
+  </si>
+  <si>
+    <t>flower/flower044.png</t>
+  </si>
+  <si>
+    <t>dog/dog041.png</t>
+  </si>
+  <si>
+    <t>car/car047.png</t>
+  </si>
+  <si>
+    <t>flower/flower032.png</t>
+  </si>
+  <si>
+    <t>face/face047.png</t>
+  </si>
+  <si>
+    <t>car/car045.png</t>
+  </si>
+  <si>
+    <t>face/face039.png</t>
+  </si>
+  <si>
+    <t>dog/dog038.png</t>
+  </si>
+  <si>
+    <t>flower/flower035.png</t>
+  </si>
+  <si>
+    <t>face/face044.png</t>
+  </si>
+  <si>
+    <t>flower/flower045.png</t>
+  </si>
+  <si>
+    <t>flower/flower034.png</t>
+  </si>
+  <si>
+    <t>car/car044.png</t>
+  </si>
+  <si>
+    <t>dog/dog043.png</t>
+  </si>
+  <si>
+    <t>car/car041.png</t>
+  </si>
+  <si>
+    <t>dog/dog033.png</t>
+  </si>
+  <si>
+    <t>dog/dog040.png</t>
+  </si>
+  <si>
+    <t>car/car033.png</t>
+  </si>
+  <si>
+    <t>car/car042.png</t>
+  </si>
+  <si>
+    <t>face/face033.png</t>
+  </si>
+  <si>
+    <t>face/face037.png</t>
+  </si>
+  <si>
+    <t>flower/flower039.png</t>
+  </si>
+  <si>
+    <t>face/face046.png</t>
+  </si>
+  <si>
+    <t>face/face035.png</t>
+  </si>
+  <si>
+    <t>dog/dog034.png</t>
+  </si>
+  <si>
+    <t>face/face034.png</t>
+  </si>
+  <si>
+    <t>car/car039.png</t>
+  </si>
+  <si>
+    <t>dog/dog035.png</t>
+  </si>
+  <si>
+    <t>flower/flower042.png</t>
+  </si>
+  <si>
+    <t>car/car046.png</t>
+  </si>
+  <si>
+    <t>flower/flower037.png</t>
+  </si>
+  <si>
+    <t>dog/dog032.png</t>
+  </si>
+  <si>
+    <t>face/face040.png</t>
+  </si>
+  <si>
+    <t>dog/dog039.png</t>
+  </si>
+  <si>
+    <t>dog/dog046.png</t>
+  </si>
+  <si>
+    <t>dog/dog042.png</t>
+  </si>
+  <si>
+    <t>face/face042.png</t>
+  </si>
+  <si>
+    <t>flower/flower046.png</t>
   </si>
   <si>
     <t>dog/dog036.png</t>
   </si>
   <si>
+    <t>dog/dog044.png</t>
+  </si>
+  <si>
+    <t>flower/flower047.png</t>
+  </si>
+  <si>
+    <t>dog/dog045.png</t>
+  </si>
+  <si>
+    <t>flower/flower038.png</t>
+  </si>
+  <si>
+    <t>flower/flower041.png</t>
+  </si>
+  <si>
+    <t>face/face032.png</t>
+  </si>
+  <si>
     <t>dog/dog047.png</t>
   </si>
   <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
     <t>car/car043.png</t>
   </si>
   <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
     <t>face/face038.png</t>
   </si>
   <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
+    <t>dog/dog049.png</t>
+  </si>
+  <si>
+    <t>dog/dog054.png</t>
+  </si>
+  <si>
+    <t>dog/dog055.png</t>
+  </si>
+  <si>
+    <t>face/face058.png</t>
+  </si>
+  <si>
+    <t>dog/dog062.png</t>
+  </si>
+  <si>
+    <t>face/face052.png</t>
+  </si>
+  <si>
+    <t>face/face056.png</t>
+  </si>
+  <si>
+    <t>car/car048.png</t>
+  </si>
+  <si>
+    <t>dog/dog056.png</t>
+  </si>
+  <si>
+    <t>dog/dog053.png</t>
+  </si>
+  <si>
+    <t>flower/flower053.png</t>
+  </si>
+  <si>
+    <t>car/car060.png</t>
+  </si>
+  <si>
+    <t>face/face061.png</t>
+  </si>
+  <si>
+    <t>face/face055.png</t>
+  </si>
+  <si>
+    <t>face/face049.png</t>
+  </si>
+  <si>
+    <t>flower/flower056.png</t>
+  </si>
+  <si>
+    <t>flower/flower055.png</t>
+  </si>
+  <si>
+    <t>dog/dog059.png</t>
+  </si>
+  <si>
+    <t>dog/dog048.png</t>
+  </si>
+  <si>
+    <t>car/car059.png</t>
+  </si>
+  <si>
+    <t>face/face054.png</t>
+  </si>
+  <si>
+    <t>car/car052.png</t>
+  </si>
+  <si>
+    <t>flower/flower048.png</t>
+  </si>
+  <si>
+    <t>dog/dog050.png</t>
+  </si>
+  <si>
+    <t>flower/flower051.png</t>
+  </si>
+  <si>
+    <t>dog/dog051.png</t>
+  </si>
+  <si>
+    <t>face/face053.png</t>
+  </si>
+  <si>
+    <t>flower/flower059.png</t>
+  </si>
+  <si>
+    <t>car/car051.png</t>
+  </si>
+  <si>
+    <t>flower/flower052.png</t>
+  </si>
+  <si>
+    <t>face/face059.png</t>
+  </si>
+  <si>
+    <t>dog/dog052.png</t>
+  </si>
+  <si>
+    <t>car/car062.png</t>
+  </si>
+  <si>
+    <t>flower/flower063.png</t>
+  </si>
+  <si>
+    <t>car/car063.png</t>
+  </si>
+  <si>
+    <t>car/car057.png</t>
   </si>
   <si>
     <t>flower/flower050.png</t>
   </si>
   <si>
+    <t>flower/flower061.png</t>
+  </si>
+  <si>
+    <t>face/face062.png</t>
+  </si>
+  <si>
+    <t>car/car056.png</t>
+  </si>
+  <si>
+    <t>face/face063.png</t>
+  </si>
+  <si>
+    <t>flower/flower062.png</t>
+  </si>
+  <si>
+    <t>face/face050.png</t>
+  </si>
+  <si>
+    <t>face/face048.png</t>
+  </si>
+  <si>
+    <t>dog/dog058.png</t>
+  </si>
+  <si>
+    <t>flower/flower057.png</t>
+  </si>
+  <si>
     <t>flower/flower054.png</t>
   </si>
   <si>
-    <t>dog/dog049.png</t>
+    <t>flower/flower060.png</t>
+  </si>
+  <si>
+    <t>car/car058.png</t>
+  </si>
+  <si>
+    <t>dog/dog063.png</t>
   </si>
   <si>
     <t>flower/flower049.png</t>
   </si>
   <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
+    <t>face/face051.png</t>
   </si>
   <si>
     <t>flower/flower058.png</t>
   </si>
   <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
+    <t>dog/dog060.png</t>
+  </si>
+  <si>
+    <t>car/car053.png</t>
+  </si>
+  <si>
+    <t>dog/dog057.png</t>
+  </si>
+  <si>
+    <t>car/car049.png</t>
+  </si>
+  <si>
+    <t>car/car055.png</t>
+  </si>
+  <si>
+    <t>dog/dog061.png</t>
+  </si>
+  <si>
+    <t>face/face057.png</t>
+  </si>
+  <si>
+    <t>car/car050.png</t>
   </si>
   <si>
     <t>car/car054.png</t>
   </si>
   <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
     <t>car/car061.png</t>
   </si>
   <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
     <t>face/face060.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
   </si>
 </sst>
 </file>
@@ -1203,10 +1203,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>1.370398922254824</v>
+        <v>1.686438855307214</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.416847949602146</v>
+        <v>1.370031172028068</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1.336588532590262</v>
+        <v>1.458325006022682</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1.700349791671029</v>
+        <v>1.3762982447683</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.678428658939709</v>
+        <v>1.61781587484846</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.611385619676511</v>
+        <v>1.569584246691298</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.297011240272301</v>
+        <v>1.289368299384281</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.461865343806958</v>
+        <v>1.661856610558906</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.447825890795057</v>
+        <v>1.592703867725767</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.567153387472579</v>
+        <v>1.600793897427492</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.535853661868386</v>
+        <v>1.62627515134856</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.647150762522024</v>
+        <v>1.538846342662176</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.608145284932695</v>
+        <v>1.183885260054403</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.357027513726096</v>
+        <v>1.275479253907282</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.429337365115342</v>
+        <v>1.41502919984049</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.472929533709604</v>
+        <v>1.690515764236055</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1.62582101693334</v>
+        <v>1.642614789913824</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.282418724247831</v>
+        <v>1.19565863553253</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1563,10 +1563,10 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>1.462871493477353</v>
+        <v>1.38517963635604</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.388238215022627</v>
+        <v>1.485324269436973</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.582621359793246</v>
+        <v>1.482651435689795</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.536732792117234</v>
+        <v>1.580900649467661</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.629869136404851</v>
+        <v>1.680830422038963</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.450255223508833</v>
+        <v>1.448526396744509</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.382423010884409</v>
+        <v>1.488515076296402</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.469258509343817</v>
+        <v>1.469775961789121</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.58192865561735</v>
+        <v>1.397916798997635</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.621012245584673</v>
+        <v>1.57549424404077</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.780010663320377</v>
+        <v>1.727144140464013</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31">
-        <v>1.674269443984415</v>
+        <v>1.774695869724551</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.522217589444262</v>
+        <v>1.663967734742422</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.745473452491234</v>
+        <v>1.719298550041965</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.522432651844778</v>
+        <v>1.450578344995787</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.655685262236548</v>
+        <v>1.4606659367687</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.540314993559486</v>
+        <v>1.598111875604524</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.615899219149144</v>
+        <v>1.501725165578486</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.613946971533593</v>
+        <v>1.292941695345871</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.396135769589764</v>
+        <v>1.468397360592088</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40">
-        <v>1.626731361808895</v>
+        <v>1.286293780500012</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.546006543652261</v>
+        <v>1.577487935080863</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.558039185525496</v>
+        <v>1.775184301344838</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F43">
-        <v>1.679968528414995</v>
+        <v>1.170633294088719</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.444148471022788</v>
+        <v>1.417941922806938</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.432574592631943</v>
+        <v>1.148653838996624</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.4085173243929</v>
+        <v>1.580094304082795</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F47">
-        <v>1.434017636878564</v>
+        <v>1.562532178694218</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2123,10 +2123,10 @@
         <v>0</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F48">
-        <v>1.616636574506384</v>
+        <v>1.363227356744747</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.433261716471133</v>
+        <v>1.449807865164375</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.544315759697934</v>
+        <v>1.521975139784734</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.63178962022728</v>
+        <v>1.40161643963267</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.33003007768838</v>
+        <v>1.614154432170158</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.551824438854119</v>
+        <v>1.291548316473732</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.585895511402084</v>
+        <v>1.292104154183612</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.357292168363527</v>
+        <v>1.677222519299882</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.647818764572035</v>
+        <v>1.538648250610168</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.541334469227527</v>
+        <v>1.558734120299104</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.648356570482034</v>
+        <v>1.573491157890651</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.319623908665081</v>
+        <v>1.645146297454075</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.460442818235282</v>
+        <v>1.407388216921373</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>1.566440267411074</v>
+        <v>1.544043005746558</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.489779404888171</v>
+        <v>1.651513508052966</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.477108289420866</v>
+        <v>1.567799906400238</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.335904551046605</v>
+        <v>1.655707452864604</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.741694133666664</v>
+        <v>1.514589554959263</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.35996079938413</v>
+        <v>1.252996514987128</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.369543619520328</v>
+        <v>1.385816095492255</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.308623151183658</v>
+        <v>1.448651412971308</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F69">
-        <v>1.3298890173929</v>
+        <v>1.364803944974438</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>1.624027785649001</v>
+        <v>1.469080040294154</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2583,10 +2583,10 @@
         <v>1</v>
       </c>
       <c r="E71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>1.258111233421974</v>
+        <v>1.648471932166867</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.59455732346196</v>
+        <v>1.489906922677719</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.55907810492869</v>
+        <v>1.58771702504122</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.641787459341896</v>
+        <v>1.560004358112806</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.492418272776818</v>
+        <v>1.517604722060143</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.082907181071258</v>
+        <v>1.701026754610752</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.363498859089121</v>
+        <v>1.449368265726259</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.534949913958279</v>
+        <v>1.461663612383203</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F79">
-        <v>1.538528442804607</v>
+        <v>1.511382825898172</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.456758679578153</v>
+        <v>1.400260004134567</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.403335252601552</v>
+        <v>1.527493647766216</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.28437183971061</v>
+        <v>1.268201049602853</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.492800217600649</v>
+        <v>1.385327267045027</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.601623146666974</v>
+        <v>1.746654280056578</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.436878237484966</v>
+        <v>1.332891730605512</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.487885831812062</v>
+        <v>1.655629106832702</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.499573350338568</v>
+        <v>1.38587453249569</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.488096493763988</v>
+        <v>1.351590100920241</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.396140991917143</v>
+        <v>1.698621443145466</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.50951549833262</v>
+        <v>1.663147722933289</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.458818992039201</v>
+        <v>1.636603551626263</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.487843694433778</v>
+        <v>1.663205504212243</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.62483503110776</v>
+        <v>1.522795701723384</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.38166988064234</v>
+        <v>1.555321717224753</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.361178194931189</v>
+        <v>1.607680995663892</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.461432660790308</v>
+        <v>1.428196778530983</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.619490659534267</v>
+        <v>1.299300322074028</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.36597847745183</v>
+        <v>1.585596426309785</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.882889077055536</v>
+        <v>1.38141627030069</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F100">
-        <v>1.568187502304067</v>
+        <v>1.419439137057573</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.585412099258351</v>
+        <v>1.539840578769511</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.183595028843721</v>
+        <v>1.384447226748967</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.882022330225857</v>
+        <v>1.623485383744731</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.594658265834694</v>
+        <v>1.480900053174778</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.522941216788945</v>
+        <v>1.442389064537757</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.503464676096491</v>
+        <v>1.404344714903178</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.713963402306329</v>
+        <v>1.414760716226054</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.383921822633535</v>
+        <v>1.425296286659746</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.610829222261838</v>
+        <v>1.323448071519598</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.473796723640483</v>
+        <v>1.614646051430016</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F111">
-        <v>1.545713943527199</v>
+        <v>1.761214665221452</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.495692515252917</v>
+        <v>1.444857127460984</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.562924756521497</v>
+        <v>1.460630692626413</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.558619312615774</v>
+        <v>1.540372186767387</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.664154636691818</v>
+        <v>1.394378110882647</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.496240849928601</v>
+        <v>1.602085034074372</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3503,10 +3503,10 @@
         <v>1</v>
       </c>
       <c r="E117">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F117">
-        <v>1.675598740630542</v>
+        <v>1.318394554839399</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.287941445986299</v>
+        <v>1.29240563251477</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.210932437270887</v>
+        <v>1.419222568342851</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F120">
-        <v>1.466187270089237</v>
+        <v>1.450755214566819</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="F121">
-        <v>1.359031116656785</v>
+        <v>1.702959461939514</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.541772399857221</v>
+        <v>1.502989455270261</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.57596494582261</v>
+        <v>1.647030608313709</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.692453056165328</v>
+        <v>1.540613239306269</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.294667039753346</v>
+        <v>1.459647675958673</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.342373353928913</v>
+        <v>1.517049502803875</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.628039570330923</v>
+        <v>1.601218493895135</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.482756802848853</v>
+        <v>1.471328382319839</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.392162183116149</v>
+        <v>1.523832387428755</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3763,10 +3763,10 @@
         <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F130">
-        <v>1.306647321445355</v>
+        <v>1.279735174398558</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.419099746993831</v>
+        <v>1.551651947536735</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F132">
-        <v>1.342603473085826</v>
+        <v>1.370987211080192</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.451666872991085</v>
+        <v>1.298284966498501</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.388087793328118</v>
+        <v>1.585704540942274</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.382098522048825</v>
+        <v>1.649657914212738</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.393217872803234</v>
+        <v>1.76216748207653</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.74974362993446</v>
+        <v>1.703465139094009</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.529889485500719</v>
+        <v>1.730235872589516</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.392047217615057</v>
+        <v>1.364253667952742</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.500907084546239</v>
+        <v>1.588843467276003</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.158424850856309</v>
+        <v>1.629015045012271</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4003,10 +4003,10 @@
         <v>2</v>
       </c>
       <c r="E142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F142">
-        <v>1.448729029833541</v>
+        <v>1.695351953496878</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.414995634857147</v>
+        <v>1.436352131739118</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.657790430654953</v>
+        <v>1.386384496997055</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>1</v>
       </c>
       <c r="F145">
-        <v>1.220054344082518</v>
+        <v>1.600609057731081</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.729606950897807</v>
+        <v>1.499956779145858</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.39635003940434</v>
+        <v>1.6577507777047</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.397542252927078</v>
+        <v>1.314483621236899</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.579838520564835</v>
+        <v>1.491963675724947</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.358586587256471</v>
+        <v>1.658656617252886</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>1.665418296168659</v>
+        <v>1.413811098512157</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.642173735112858</v>
+        <v>1.307164401653081</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.445807372852371</v>
+        <v>1.304711637385342</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="F154">
-        <v>1.417969516280487</v>
+        <v>1.70301818476098</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4263,10 +4263,10 @@
         <v>2</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F155">
-        <v>1.272858010545329</v>
+        <v>1.642931741505215</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.490694828209639</v>
+        <v>1.559088526960082</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.431664108375133</v>
+        <v>1.370337631631931</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F158">
-        <v>1.580962710374261</v>
+        <v>1.275891019910019</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F159">
-        <v>1.477762495525651</v>
+        <v>1.643295927751294</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.178102005434837</v>
+        <v>1.241429492917612</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.652575552424988</v>
+        <v>1.220600722557777</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.402517391828621</v>
+        <v>1.480036799279892</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.572986138557966</v>
+        <v>1.383093073697225</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.553088866052584</v>
+        <v>1.528180866939815</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.425800998446147</v>
+        <v>1.197653304746282</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.531927156528109</v>
+        <v>1.390790890670206</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.551514505565448</v>
+        <v>1.659462463802305</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.491970743183247</v>
+        <v>1.532094149091067</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.304373529825453</v>
+        <v>1.812638126685118</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.519386739486255</v>
+        <v>1.494368610992292</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.576153713836288</v>
+        <v>1.496782698813059</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4603,10 +4603,10 @@
         <v>2</v>
       </c>
       <c r="E172">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F172">
-        <v>1.456482156049664</v>
+        <v>1.504797880247709</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.317445848314445</v>
+        <v>1.339244771145569</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.528531257827298</v>
+        <v>1.310658552095578</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.528219495424513</v>
+        <v>1.703054035204361</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.52954460825997</v>
+        <v>1.523033055069986</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.51501797071301</v>
+        <v>1.314286432606898</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.78546289616392</v>
+        <v>1.603679724705599</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.478877381236565</v>
+        <v>1.528560514694864</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.30404430184072</v>
+        <v>1.45501431100519</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.663116036355795</v>
+        <v>1.514733745682888</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F182">
-        <v>1.462329639412993</v>
+        <v>1.40894146970737</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.585081239408</v>
+        <v>1.568928662260233</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.884518938831799</v>
+        <v>1.471251724118121</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.436320645868951</v>
+        <v>1.673846430630583</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.689296013745993</v>
+        <v>1.745539717034552</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.451556998569291</v>
+        <v>1.511035593495127</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.597750424807413</v>
+        <v>1.539138740514604</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.471184402543714</v>
+        <v>1.461669271402105</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.489114200467949</v>
+        <v>1.668707814434889</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.391705490237565</v>
+        <v>1.631947526458408</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5003,10 +5003,10 @@
         <v>2</v>
       </c>
       <c r="E192">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F192">
-        <v>1.625171204321407</v>
+        <v>1.700369426590054</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.514168236923177</v>
+        <v>1.352792156741317</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.437126965970977</v>
+        <v>1.760014366621651</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.516180093701046</v>
+        <v>1.313703940421566</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.65252903514806</v>
+        <v>1.42101975618851</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.580707961924555</v>
+        <v>1.540951173083627</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.455366900882781</v>
+        <v>1.499216585702897</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.522082663866934</v>
+        <v>1.439079280455371</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.682589866095725</v>
+        <v>1.330966435158922</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.467045621984427</v>
+        <v>1.222653654075903</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.4031780485416</v>
+        <v>1.35655492701364</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.260536707074538</v>
+        <v>1.608267776512148</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.477277072378824</v>
+        <v>1.666531187465469</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.410666433702191</v>
+        <v>1.856328697420424</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F206">
-        <v>1.301263978077999</v>
+        <v>1.205100815827308</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.581213703349261</v>
+        <v>1.428455906558639</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.285877136489549</v>
+        <v>1.491370003490901</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.339899913156097</v>
+        <v>1.447181664540784</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5363,10 +5363,10 @@
         <v>3</v>
       </c>
       <c r="E210">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F210">
-        <v>1.709140412312334</v>
+        <v>1.322364425140453</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.566643069599019</v>
+        <v>1.400394595609403</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.938773436848671</v>
+        <v>1.501521965573995</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.560019504742174</v>
+        <v>1.559550713863569</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.289925420819761</v>
+        <v>1.433426085819313</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.218640745795801</v>
+        <v>1.689479542285475</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.492228926207057</v>
+        <v>1.489433182732747</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.51032554848843</v>
+        <v>1.397830586774887</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5523,10 +5523,10 @@
         <v>3</v>
       </c>
       <c r="E218">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F218">
-        <v>1.674927924314426</v>
+        <v>1.359580750487859</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.270754324300382</v>
+        <v>1.415297957066929</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.455313784586852</v>
+        <v>1.58669124747569</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.746378134344312</v>
+        <v>1.552418845826253</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.251390528812938</v>
+        <v>1.50266792882756</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.478954039732232</v>
+        <v>1.355281694389253</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.460826225514755</v>
+        <v>1.469333773317947</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.64027154853793</v>
+        <v>1.420895706013286</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.505763429432374</v>
+        <v>1.737321276594833</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.313309503709818</v>
+        <v>1.732634653394894</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.559137082079397</v>
+        <v>1.3845311952689</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.479348986565944</v>
+        <v>1.825520165160466</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.319225495725271</v>
+        <v>1.594494981290699</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F231">
-        <v>1.722241280180368</v>
+        <v>1.691072801184749</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.487691220469158</v>
+        <v>1.588270128438891</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.442305479903721</v>
+        <v>1.685035816712101</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.378553196853073</v>
+        <v>1.437698414299797</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.179739769489549</v>
+        <v>1.355094936092374</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5883,10 +5883,10 @@
         <v>3</v>
       </c>
       <c r="E236">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F236">
-        <v>1.834122531248996</v>
+        <v>1.474610017140179</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.495134381563678</v>
+        <v>1.506120295440362</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.419121458432865</v>
+        <v>1.555073763792577</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.611100054828712</v>
+        <v>1.492042400814064</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.641070341147185</v>
+        <v>1.563201946250157</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.403001922397875</v>
+        <v>1.532408363772995</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.599111949443497</v>
+        <v>1.360981398286336</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.42424214059549</v>
+        <v>1.766060896750419</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6043,10 +6043,10 @@
         <v>3</v>
       </c>
       <c r="E244">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F244">
-        <v>1.479474571310663</v>
+        <v>1.489585405804553</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.451043545089191</v>
+        <v>1.303367991141859</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.556649088262981</v>
+        <v>1.544343837834877</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.54428351146544</v>
+        <v>1.522877916960859</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F248">
-        <v>1.365553573363733</v>
+        <v>1.66187978998907</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F249">
-        <v>1.46906409430899</v>
+        <v>1.569233554288228</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.522110500721485</v>
+        <v>1.705440591553418</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.857789266026429</v>
+        <v>1.576440189292065</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.23187318826244</v>
+        <v>1.481146745070673</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.596795410552043</v>
+        <v>1.618968931040939</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.746819181500295</v>
+        <v>1.627715850489325</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.238996449584463</v>
+        <v>1.530924520106541</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.641971962829829</v>
+        <v>1.488455144935846</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.554586262109124</v>
+        <v>1.655620011278567</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/12_localizer.xlsx
+++ b/sequences/12_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>flower</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
     <t>dog</t>
   </si>
   <si>
     <t>face</t>
   </si>
   <si>
-    <t>car</t>
-  </si>
-  <si>
-    <t>flower/flower013.png</t>
-  </si>
-  <si>
-    <t>dog/dog015.png</t>
-  </si>
-  <si>
-    <t>flower/flower009.png</t>
-  </si>
-  <si>
-    <t>face/face012.png</t>
-  </si>
-  <si>
-    <t>dog/dog009.png</t>
-  </si>
-  <si>
-    <t>car/car002.png</t>
-  </si>
-  <si>
-    <t>car/car011.png</t>
-  </si>
-  <si>
-    <t>flower/flower011.png</t>
-  </si>
-  <si>
-    <t>car/car003.png</t>
-  </si>
-  <si>
-    <t>flower/flower010.png</t>
-  </si>
-  <si>
-    <t>face/face015.png</t>
-  </si>
-  <si>
-    <t>flower/flower004.png</t>
-  </si>
-  <si>
-    <t>face/face010.png</t>
-  </si>
-  <si>
-    <t>car/car015.png</t>
-  </si>
-  <si>
-    <t>car/car001.png</t>
-  </si>
-  <si>
-    <t>face/face008.png</t>
-  </si>
-  <si>
-    <t>flower/flower003.png</t>
-  </si>
-  <si>
-    <t>car/car005.png</t>
-  </si>
-  <si>
-    <t>face/face007.png</t>
-  </si>
-  <si>
-    <t>dog/dog008.png</t>
-  </si>
-  <si>
-    <t>face/face002.png</t>
-  </si>
-  <si>
-    <t>dog/dog011.png</t>
-  </si>
-  <si>
-    <t>dog/dog001.png</t>
-  </si>
-  <si>
-    <t>face/face013.png</t>
-  </si>
-  <si>
-    <t>car/car006.png</t>
-  </si>
-  <si>
-    <t>dog/dog014.png</t>
-  </si>
-  <si>
-    <t>dog/dog007.png</t>
-  </si>
-  <si>
-    <t>car/car014.png</t>
-  </si>
-  <si>
-    <t>face/face000.png</t>
-  </si>
-  <si>
-    <t>face/face014.png</t>
-  </si>
-  <si>
-    <t>dog/dog006.png</t>
-  </si>
-  <si>
-    <t>flower/flower012.png</t>
-  </si>
-  <si>
-    <t>flower/flower007.png</t>
-  </si>
-  <si>
-    <t>dog/dog005.png</t>
-  </si>
-  <si>
-    <t>car/car008.png</t>
-  </si>
-  <si>
-    <t>flower/flower008.png</t>
-  </si>
-  <si>
-    <t>flower/flower014.png</t>
-  </si>
-  <si>
-    <t>car/car009.png</t>
-  </si>
-  <si>
-    <t>car/car010.png</t>
-  </si>
-  <si>
-    <t>car/car007.png</t>
-  </si>
-  <si>
-    <t>dog/dog012.png</t>
-  </si>
-  <si>
-    <t>face/face001.png</t>
-  </si>
-  <si>
-    <t>flower/flower006.png</t>
-  </si>
-  <si>
-    <t>dog/dog010.png</t>
-  </si>
-  <si>
-    <t>dog/dog013.png</t>
-  </si>
-  <si>
-    <t>dog/dog002.png</t>
-  </si>
-  <si>
-    <t>flower/flower002.png</t>
-  </si>
-  <si>
-    <t>car/car004.png</t>
-  </si>
-  <si>
-    <t>dog/dog003.png</t>
-  </si>
-  <si>
-    <t>car/car013.png</t>
-  </si>
-  <si>
-    <t>dog/dog004.png</t>
-  </si>
-  <si>
-    <t>flower/flower001.png</t>
-  </si>
-  <si>
-    <t>dog/dog000.png</t>
-  </si>
-  <si>
-    <t>face/face004.png</t>
-  </si>
-  <si>
-    <t>face/face003.png</t>
-  </si>
-  <si>
-    <t>flower/flower005.png</t>
-  </si>
-  <si>
-    <t>flower/flower015.png</t>
-  </si>
-  <si>
-    <t>flower/flower000.png</t>
-  </si>
-  <si>
-    <t>face/face006.png</t>
-  </si>
-  <si>
-    <t>face/face011.png</t>
-  </si>
-  <si>
-    <t>face/face005.png</t>
-  </si>
-  <si>
-    <t>car/car000.png</t>
-  </si>
-  <si>
-    <t>face/face009.png</t>
-  </si>
-  <si>
-    <t>car/car012.png</t>
-  </si>
-  <si>
-    <t>flower/flower029.png</t>
-  </si>
-  <si>
-    <t>face/face029.png</t>
-  </si>
-  <si>
-    <t>face/face031.png</t>
-  </si>
-  <si>
-    <t>car/car017.png</t>
-  </si>
-  <si>
-    <t>car/car021.png</t>
-  </si>
-  <si>
-    <t>car/car031.png</t>
-  </si>
-  <si>
-    <t>face/face024.png</t>
-  </si>
-  <si>
-    <t>dog/dog021.png</t>
-  </si>
-  <si>
-    <t>dog/dog019.png</t>
-  </si>
-  <si>
-    <t>flower/flower020.png</t>
-  </si>
-  <si>
-    <t>flower/flower016.png</t>
-  </si>
-  <si>
-    <t>car/car025.png</t>
-  </si>
-  <si>
-    <t>face/face019.png</t>
-  </si>
-  <si>
-    <t>car/car020.png</t>
-  </si>
-  <si>
-    <t>dog/dog024.png</t>
-  </si>
-  <si>
-    <t>dog/dog020.png</t>
-  </si>
-  <si>
-    <t>dog/dog022.png</t>
-  </si>
-  <si>
-    <t>car/car027.png</t>
-  </si>
-  <si>
-    <t>dog/dog027.png</t>
-  </si>
-  <si>
-    <t>car/car018.png</t>
-  </si>
-  <si>
-    <t>car/car016.png</t>
-  </si>
-  <si>
-    <t>dog/dog031.png</t>
-  </si>
-  <si>
-    <t>flower/flower026.png</t>
-  </si>
-  <si>
-    <t>face/face025.png</t>
-  </si>
-  <si>
-    <t>car/car030.png</t>
-  </si>
-  <si>
-    <t>face/face018.png</t>
-  </si>
-  <si>
-    <t>flower/flower018.png</t>
-  </si>
-  <si>
-    <t>face/face028.png</t>
-  </si>
-  <si>
-    <t>dog/dog017.png</t>
-  </si>
-  <si>
-    <t>car/car028.png</t>
-  </si>
-  <si>
-    <t>face/face021.png</t>
-  </si>
-  <si>
-    <t>face/face023.png</t>
-  </si>
-  <si>
-    <t>flower/flower017.png</t>
-  </si>
-  <si>
-    <t>dog/dog026.png</t>
-  </si>
-  <si>
-    <t>flower/flower031.png</t>
-  </si>
-  <si>
-    <t>dog/dog025.png</t>
-  </si>
-  <si>
-    <t>car/car026.png</t>
-  </si>
-  <si>
-    <t>flower/flower019.png</t>
-  </si>
-  <si>
-    <t>flower/flower028.png</t>
-  </si>
-  <si>
-    <t>flower/flower024.png</t>
-  </si>
-  <si>
-    <t>face/face022.png</t>
-  </si>
-  <si>
-    <t>flower/flower027.png</t>
-  </si>
-  <si>
-    <t>car/car022.png</t>
-  </si>
-  <si>
-    <t>dog/dog023.png</t>
-  </si>
-  <si>
-    <t>face/face027.png</t>
-  </si>
-  <si>
-    <t>dog/dog029.png</t>
-  </si>
-  <si>
-    <t>flower/flower030.png</t>
-  </si>
-  <si>
-    <t>car/car029.png</t>
-  </si>
-  <si>
-    <t>car/car023.png</t>
-  </si>
-  <si>
-    <t>flower/flower023.png</t>
-  </si>
-  <si>
-    <t>car/car024.png</t>
-  </si>
-  <si>
-    <t>flower/flower021.png</t>
-  </si>
-  <si>
-    <t>dog/dog030.png</t>
-  </si>
-  <si>
-    <t>dog/dog016.png</t>
-  </si>
-  <si>
-    <t>face/face020.png</t>
-  </si>
-  <si>
-    <t>flower/flower022.png</t>
-  </si>
-  <si>
-    <t>flower/flower025.png</t>
-  </si>
-  <si>
-    <t>dog/dog018.png</t>
-  </si>
-  <si>
-    <t>face/face016.png</t>
-  </si>
-  <si>
-    <t>face/face026.png</t>
-  </si>
-  <si>
-    <t>face/face030.png</t>
-  </si>
-  <si>
-    <t>dog/dog028.png</t>
-  </si>
-  <si>
-    <t>face/face017.png</t>
-  </si>
-  <si>
-    <t>car/car019.png</t>
-  </si>
-  <si>
-    <t>flower/flower036.png</t>
-  </si>
-  <si>
-    <t>car/car032.png</t>
-  </si>
-  <si>
-    <t>car/car035.png</t>
-  </si>
-  <si>
-    <t>car/car036.png</t>
-  </si>
-  <si>
-    <t>dog/dog037.png</t>
-  </si>
-  <si>
-    <t>face/face045.png</t>
-  </si>
-  <si>
-    <t>face/face043.png</t>
-  </si>
-  <si>
-    <t>face/face041.png</t>
-  </si>
-  <si>
-    <t>car/car040.png</t>
-  </si>
-  <si>
-    <t>car/car034.png</t>
-  </si>
-  <si>
-    <t>flower/flower043.png</t>
-  </si>
-  <si>
-    <t>car/car037.png</t>
-  </si>
-  <si>
-    <t>face/face036.png</t>
-  </si>
-  <si>
-    <t>car/car038.png</t>
-  </si>
-  <si>
-    <t>flower/flower033.png</t>
-  </si>
-  <si>
-    <t>flower/flower040.png</t>
-  </si>
-  <si>
-    <t>flower/flower044.png</t>
-  </si>
-  <si>
-    <t>dog/dog041.png</t>
-  </si>
-  <si>
-    <t>car/car047.png</t>
-  </si>
-  <si>
-    <t>flower/flower032.png</t>
-  </si>
-  <si>
-    <t>face/face047.png</t>
-  </si>
-  <si>
-    <t>car/car045.png</t>
-  </si>
-  <si>
-    <t>face/face039.png</t>
-  </si>
-  <si>
-    <t>dog/dog038.png</t>
-  </si>
-  <si>
-    <t>flower/flower035.png</t>
-  </si>
-  <si>
-    <t>face/face044.png</t>
-  </si>
-  <si>
-    <t>flower/flower045.png</t>
-  </si>
-  <si>
-    <t>flower/flower034.png</t>
-  </si>
-  <si>
-    <t>car/car044.png</t>
-  </si>
-  <si>
-    <t>dog/dog043.png</t>
-  </si>
-  <si>
-    <t>car/car041.png</t>
-  </si>
-  <si>
-    <t>dog/dog033.png</t>
-  </si>
-  <si>
-    <t>dog/dog040.png</t>
-  </si>
-  <si>
-    <t>car/car033.png</t>
-  </si>
-  <si>
-    <t>car/car042.png</t>
-  </si>
-  <si>
-    <t>face/face033.png</t>
-  </si>
-  <si>
-    <t>face/face037.png</t>
-  </si>
-  <si>
-    <t>flower/flower039.png</t>
-  </si>
-  <si>
-    <t>face/face046.png</t>
-  </si>
-  <si>
-    <t>face/face035.png</t>
-  </si>
-  <si>
-    <t>dog/dog034.png</t>
-  </si>
-  <si>
-    <t>face/face034.png</t>
-  </si>
-  <si>
-    <t>car/car039.png</t>
-  </si>
-  <si>
-    <t>dog/dog035.png</t>
-  </si>
-  <si>
-    <t>flower/flower042.png</t>
-  </si>
-  <si>
-    <t>car/car046.png</t>
-  </si>
-  <si>
-    <t>flower/flower037.png</t>
-  </si>
-  <si>
-    <t>dog/dog032.png</t>
-  </si>
-  <si>
-    <t>face/face040.png</t>
-  </si>
-  <si>
-    <t>dog/dog039.png</t>
-  </si>
-  <si>
-    <t>dog/dog046.png</t>
-  </si>
-  <si>
-    <t>dog/dog042.png</t>
-  </si>
-  <si>
-    <t>face/face042.png</t>
-  </si>
-  <si>
-    <t>flower/flower046.png</t>
-  </si>
-  <si>
-    <t>dog/dog036.png</t>
-  </si>
-  <si>
-    <t>dog/dog044.png</t>
-  </si>
-  <si>
-    <t>flower/flower047.png</t>
-  </si>
-  <si>
-    <t>dog/dog045.png</t>
-  </si>
-  <si>
-    <t>flower/flower038.png</t>
-  </si>
-  <si>
-    <t>flower/flower041.png</t>
-  </si>
-  <si>
-    <t>face/face032.png</t>
-  </si>
-  <si>
-    <t>dog/dog047.png</t>
-  </si>
-  <si>
-    <t>car/car043.png</t>
-  </si>
-  <si>
-    <t>face/face038.png</t>
-  </si>
-  <si>
-    <t>dog/dog049.png</t>
-  </si>
-  <si>
-    <t>dog/dog054.png</t>
-  </si>
-  <si>
-    <t>dog/dog055.png</t>
-  </si>
-  <si>
-    <t>face/face058.png</t>
-  </si>
-  <si>
-    <t>dog/dog062.png</t>
-  </si>
-  <si>
-    <t>face/face052.png</t>
-  </si>
-  <si>
-    <t>face/face056.png</t>
-  </si>
-  <si>
-    <t>car/car048.png</t>
-  </si>
-  <si>
-    <t>dog/dog056.png</t>
-  </si>
-  <si>
-    <t>dog/dog053.png</t>
-  </si>
-  <si>
-    <t>flower/flower053.png</t>
-  </si>
-  <si>
-    <t>car/car060.png</t>
-  </si>
-  <si>
-    <t>face/face061.png</t>
-  </si>
-  <si>
-    <t>face/face055.png</t>
-  </si>
-  <si>
-    <t>face/face049.png</t>
-  </si>
-  <si>
-    <t>flower/flower056.png</t>
-  </si>
-  <si>
-    <t>flower/flower055.png</t>
-  </si>
-  <si>
-    <t>dog/dog059.png</t>
-  </si>
-  <si>
-    <t>dog/dog048.png</t>
-  </si>
-  <si>
-    <t>car/car059.png</t>
-  </si>
-  <si>
-    <t>face/face054.png</t>
-  </si>
-  <si>
-    <t>car/car052.png</t>
-  </si>
-  <si>
-    <t>flower/flower048.png</t>
-  </si>
-  <si>
-    <t>dog/dog050.png</t>
-  </si>
-  <si>
-    <t>flower/flower051.png</t>
-  </si>
-  <si>
-    <t>dog/dog051.png</t>
-  </si>
-  <si>
-    <t>face/face053.png</t>
-  </si>
-  <si>
-    <t>flower/flower059.png</t>
-  </si>
-  <si>
-    <t>car/car051.png</t>
-  </si>
-  <si>
-    <t>flower/flower052.png</t>
-  </si>
-  <si>
-    <t>face/face059.png</t>
-  </si>
-  <si>
-    <t>dog/dog052.png</t>
-  </si>
-  <si>
-    <t>car/car062.png</t>
-  </si>
-  <si>
-    <t>flower/flower063.png</t>
-  </si>
-  <si>
-    <t>car/car063.png</t>
-  </si>
-  <si>
-    <t>car/car057.png</t>
-  </si>
-  <si>
-    <t>flower/flower050.png</t>
-  </si>
-  <si>
-    <t>flower/flower061.png</t>
-  </si>
-  <si>
-    <t>face/face062.png</t>
-  </si>
-  <si>
-    <t>car/car056.png</t>
-  </si>
-  <si>
-    <t>face/face063.png</t>
-  </si>
-  <si>
-    <t>flower/flower062.png</t>
-  </si>
-  <si>
-    <t>face/face050.png</t>
-  </si>
-  <si>
-    <t>face/face048.png</t>
-  </si>
-  <si>
-    <t>dog/dog058.png</t>
-  </si>
-  <si>
-    <t>flower/flower057.png</t>
-  </si>
-  <si>
-    <t>flower/flower054.png</t>
-  </si>
-  <si>
-    <t>flower/flower060.png</t>
-  </si>
-  <si>
-    <t>car/car058.png</t>
-  </si>
-  <si>
-    <t>dog/dog063.png</t>
-  </si>
-  <si>
-    <t>flower/flower049.png</t>
-  </si>
-  <si>
-    <t>face/face051.png</t>
-  </si>
-  <si>
-    <t>flower/flower058.png</t>
-  </si>
-  <si>
-    <t>dog/dog060.png</t>
-  </si>
-  <si>
-    <t>car/car053.png</t>
-  </si>
-  <si>
-    <t>dog/dog057.png</t>
-  </si>
-  <si>
-    <t>car/car049.png</t>
-  </si>
-  <si>
-    <t>car/car055.png</t>
-  </si>
-  <si>
-    <t>dog/dog061.png</t>
-  </si>
-  <si>
-    <t>face/face057.png</t>
-  </si>
-  <si>
-    <t>car/car050.png</t>
-  </si>
-  <si>
-    <t>car/car054.png</t>
-  </si>
-  <si>
-    <t>car/car061.png</t>
-  </si>
-  <si>
-    <t>face/face060.png</t>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower033.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.686438855307214</v>
+        <v>1.539237575421959</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.370031172028068</v>
+        <v>1.428130231264607</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>1.458325006022682</v>
+        <v>1.581013543226836</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1263,10 +1263,10 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>1.3762982447683</v>
+        <v>1.527135400419377</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.61781587484846</v>
+        <v>1.34718699667028</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.569584246691298</v>
+        <v>1.380583007983104</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.289368299384281</v>
+        <v>1.188902327355841</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.661856610558906</v>
+        <v>1.3925570525196</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.592703867725767</v>
+        <v>1.574912535914593</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.600793897427492</v>
+        <v>1.44229309405173</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.62627515134856</v>
+        <v>1.484337687661464</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.538846342662176</v>
+        <v>1.382844205664842</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1.183885260054403</v>
+        <v>1.345669978873144</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1.275479253907282</v>
+        <v>1.501548561792098</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1.41502919984049</v>
+        <v>1.555969431667986</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.690515764236055</v>
+        <v>1.425394872413454</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1.642614789913824</v>
+        <v>1.567573313863194</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.19565863553253</v>
+        <v>1.594681975159414</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.38517963635604</v>
+        <v>1.6307014917486</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.485324269436973</v>
+        <v>1.385757202655926</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.482651435689795</v>
+        <v>1.314097927150553</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.580900649467661</v>
+        <v>1.21411260153265</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.680830422038963</v>
+        <v>1.805679935491596</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.448526396744509</v>
+        <v>1.671519724143205</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.488515076296402</v>
+        <v>1.523474788312439</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.469775961789121</v>
+        <v>1.519168290850156</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.397916798997635</v>
+        <v>1.36581778374899</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.57549424404077</v>
+        <v>1.411831706653836</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.727144140464013</v>
+        <v>1.565687287144819</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.774695869724551</v>
+        <v>1.424577923858311</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.663967734742422</v>
+        <v>1.466170307546984</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.719298550041965</v>
+        <v>1.594742825690061</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.450578344995787</v>
+        <v>1.790577332667347</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.4606659367687</v>
+        <v>1.52550487982488</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.598111875604524</v>
+        <v>1.519265240427696</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.501725165578486</v>
+        <v>1.455362151744415</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.292941695345871</v>
+        <v>1.489125625184567</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.468397360592088</v>
+        <v>1.584698611473472</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1963,10 +1963,10 @@
         <v>0</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>1.286293780500012</v>
+        <v>1.315045661445504</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.577487935080863</v>
+        <v>1.324569353908967</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.775184301344838</v>
+        <v>1.425926936873787</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2023,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>1.170633294088719</v>
+        <v>1.827362640171843</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>1.417941922806938</v>
+        <v>1.364939803520555</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.148653838996624</v>
+        <v>1.525846998674223</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.580094304082795</v>
+        <v>1.672613632203571</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="F47">
-        <v>1.562532178694218</v>
+        <v>1.689189020448766</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.363227356744747</v>
+        <v>1.537409063697127</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="F49">
-        <v>1.449807865164375</v>
+        <v>1.481822267712481</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.521975139784734</v>
+        <v>1.801128790312395</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.40161643963267</v>
+        <v>1.49622708542723</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.614154432170158</v>
+        <v>1.68398646491289</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.291548316473732</v>
+        <v>1.582558055254021</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.292104154183612</v>
+        <v>1.472354613146463</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.677222519299882</v>
+        <v>1.475568866899533</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.538648250610168</v>
+        <v>1.426552752920061</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.558734120299104</v>
+        <v>1.619659395012661</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.573491157890651</v>
+        <v>1.309362983014582</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.645146297454075</v>
+        <v>1.343021797696356</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.407388216921373</v>
+        <v>1.665796451372613</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.544043005746558</v>
+        <v>1.557556455058868</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.651513508052966</v>
+        <v>1.429591157918436</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.567799906400238</v>
+        <v>1.274101108526704</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.655707452864604</v>
+        <v>1.481183882516569</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.514589554959263</v>
+        <v>1.435218957808155</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.252996514987128</v>
+        <v>1.414653714890494</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.385816095492255</v>
+        <v>1.282479000075782</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.448651412971308</v>
+        <v>1.55100737442756</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2543,10 +2543,10 @@
         <v>1</v>
       </c>
       <c r="E69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1.364803944974438</v>
+        <v>1.312516961249797</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.469080040294154</v>
+        <v>1.386716151760123</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.648471932166867</v>
+        <v>1.384261275799905</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>1.489906922677719</v>
+        <v>1.510974824857308</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.58771702504122</v>
+        <v>1.575692528810748</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.560004358112806</v>
+        <v>1.37774989979763</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.517604722060143</v>
+        <v>1.568990318650745</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.701026754610752</v>
+        <v>1.495199046821317</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.449368265726259</v>
+        <v>1.546626660028378</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.461663612383203</v>
+        <v>1.57545486484109</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.511382825898172</v>
+        <v>1.291000316259284</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.400260004134567</v>
+        <v>1.533404416461973</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.527493647766216</v>
+        <v>1.326640942671372</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.268201049602853</v>
+        <v>1.394388604708782</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.385327267045027</v>
+        <v>1.376015607789091</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.746654280056578</v>
+        <v>1.556321069649268</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.332891730605512</v>
+        <v>1.304857160052112</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.655629106832702</v>
+        <v>1.27867652156161</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F87">
-        <v>1.38587453249569</v>
+        <v>1.332600489225215</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2914,7 +2914,7 @@
         <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C88" t="s">
         <v>95</v>
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.351590100920241</v>
+        <v>1.714308249668717</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.698621443145466</v>
+        <v>1.273248042818373</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.663147722933289</v>
+        <v>1.581063990134268</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.636603551626263</v>
+        <v>1.939742987633609</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.663205504212243</v>
+        <v>1.792483565604763</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.522795701723384</v>
+        <v>1.537713298348886</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.555321717224753</v>
+        <v>1.363875187183787</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.607680995663892</v>
+        <v>1.33245399605763</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.428196778530983</v>
+        <v>1.431172109122678</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.299300322074028</v>
+        <v>1.511622506023814</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.585596426309785</v>
+        <v>1.398457659792919</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F99">
-        <v>1.38141627030069</v>
+        <v>1.501283468027325</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3163,10 +3163,10 @@
         <v>1</v>
       </c>
       <c r="E100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F100">
-        <v>1.419439137057573</v>
+        <v>1.373448432652371</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F101">
-        <v>1.539840578769511</v>
+        <v>1.389117682759815</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.384447226748967</v>
+        <v>1.526981666978874</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.623485383744731</v>
+        <v>1.350582548412996</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.480900053174778</v>
+        <v>1.33080551576344</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.442389064537757</v>
+        <v>1.453677915683543</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.404344714903178</v>
+        <v>1.649109307399322</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.414760716226054</v>
+        <v>1.449399576569608</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.425296286659746</v>
+        <v>1.442229733817622</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.323448071519598</v>
+        <v>1.361414341305717</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.614646051430016</v>
+        <v>1.475145236079188</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3383,10 +3383,10 @@
         <v>1</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F111">
-        <v>1.761214665221452</v>
+        <v>1.531555772523242</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.444857127460984</v>
+        <v>1.4969624539678</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.460630692626413</v>
+        <v>1.667050179467429</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.540372186767387</v>
+        <v>1.696812311063137</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.394378110882647</v>
+        <v>1.348560717114661</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.602085034074372</v>
+        <v>1.527950664159781</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.318394554839399</v>
+        <v>1.785183250125798</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.29240563251477</v>
+        <v>1.178838146074</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.419222568342851</v>
+        <v>1.708458494867018</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E120">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F120">
-        <v>1.450755214566819</v>
+        <v>1.477234528735868</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F121">
-        <v>1.702959461939514</v>
+        <v>1.371327006476727</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.502989455270261</v>
+        <v>1.398273743355067</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.647030608313709</v>
+        <v>1.599614589989303</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.540613239306269</v>
+        <v>1.486003472141813</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F125">
-        <v>1.459647675958673</v>
+        <v>1.611972014621668</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.517049502803875</v>
+        <v>1.533823564334265</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.601218493895135</v>
+        <v>1.51263459841164</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.471328382319839</v>
+        <v>1.532644990933214</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.523832387428755</v>
+        <v>1.504390328639616</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.279735174398558</v>
+        <v>1.546360971901039</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.551651947536735</v>
+        <v>1.563303425489782</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3803,10 +3803,10 @@
         <v>2</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F132">
-        <v>1.370987211080192</v>
+        <v>1.474348522946619</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.298284966498501</v>
+        <v>1.390225661914572</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.585704540942274</v>
+        <v>1.334871092190365</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.649657914212738</v>
+        <v>1.776440753551775</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.76216748207653</v>
+        <v>1.557813513717881</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.703465139094009</v>
+        <v>1.762825815779078</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.730235872589516</v>
+        <v>1.414058842991462</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.364253667952742</v>
+        <v>1.717364489054854</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.588843467276003</v>
+        <v>1.859046101761274</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.629015045012271</v>
+        <v>1.308144494787328</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.695351953496878</v>
+        <v>1.241374486481102</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.436352131739118</v>
+        <v>1.509385872301452</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.386384496997055</v>
+        <v>1.542437415348334</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.600609057731081</v>
+        <v>1.593768025248167</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.499956779145858</v>
+        <v>1.471852588671227</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.6577507777047</v>
+        <v>1.514615927490146</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.314483621236899</v>
+        <v>1.672530500467033</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.491963675724947</v>
+        <v>1.723009361984362</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.658656617252886</v>
+        <v>1.216834395808001</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F151">
-        <v>1.413811098512157</v>
+        <v>1.49162178211396</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.307164401653081</v>
+        <v>1.521857326004072</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.304711637385342</v>
+        <v>1.493568239511786</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.70301818476098</v>
+        <v>1.486529550862647</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.642931741505215</v>
+        <v>1.431562397268862</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.559088526960082</v>
+        <v>1.629384867514542</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1.370337631631931</v>
+        <v>1.487239884188557</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F158">
-        <v>1.275891019910019</v>
+        <v>1.614180735330807</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4343,10 +4343,10 @@
         <v>2</v>
       </c>
       <c r="E159">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F159">
-        <v>1.643295927751294</v>
+        <v>1.424518155056651</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F160">
-        <v>1.241429492917612</v>
+        <v>1.303831089063762</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.220600722557777</v>
+        <v>1.454442640317066</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.480036799279892</v>
+        <v>1.293383213644066</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.383093073697225</v>
+        <v>1.3828341804383</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.528180866939815</v>
+        <v>1.568465989155931</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.197653304746282</v>
+        <v>1.736405627194639</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.390790890670206</v>
+        <v>1.250140174779139</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F167">
-        <v>1.659462463802305</v>
+        <v>1.459015805232867</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.532094149091067</v>
+        <v>1.680243384915304</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.812638126685118</v>
+        <v>1.482512617771152</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.494368610992292</v>
+        <v>1.353264986346882</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.496782698813059</v>
+        <v>1.373873542197722</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.504797880247709</v>
+        <v>1.313685915575494</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.339244771145569</v>
+        <v>1.658493213961263</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F174">
-        <v>1.310658552095578</v>
+        <v>1.225283376382485</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.703054035204361</v>
+        <v>1.400560534193734</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.523033055069986</v>
+        <v>1.498008056607959</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.314286432606898</v>
+        <v>1.639244609811749</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.603679724705599</v>
+        <v>1.317754164024111</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.528560514694864</v>
+        <v>1.623986525150258</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.45501431100519</v>
+        <v>1.600617646821701</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.514733745682888</v>
+        <v>1.727771389159896</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="F182">
-        <v>1.40894146970737</v>
+        <v>1.330951163595237</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.568928662260233</v>
+        <v>1.417951268544607</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.471251724118121</v>
+        <v>1.539922680633302</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.673846430630583</v>
+        <v>1.643495682659443</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.745539717034552</v>
+        <v>1.288915401213352</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.511035593495127</v>
+        <v>1.310921794963514</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.539138740514604</v>
+        <v>1.551047715644236</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.461669271402105</v>
+        <v>1.284039211314693</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.668707814434889</v>
+        <v>1.404354183206319</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.631947526458408</v>
+        <v>1.517965208888837</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.700369426590054</v>
+        <v>1.480817907600525</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.352792156741317</v>
+        <v>1.481104078832215</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.760014366621651</v>
+        <v>1.441856462630371</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.313703940421566</v>
+        <v>1.668540975072857</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.42101975618851</v>
+        <v>1.781537546786216</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.540951173083627</v>
+        <v>1.708881371857684</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.499216585702897</v>
+        <v>1.234406913515953</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.439079280455371</v>
+        <v>1.522280810113602</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F200">
-        <v>1.330966435158922</v>
+        <v>1.352313705027783</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.222653654075903</v>
+        <v>1.460270297348061</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F202">
-        <v>1.35655492701364</v>
+        <v>1.457784510912566</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.608267776512148</v>
+        <v>1.366771964615907</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F204">
-        <v>1.666531187465469</v>
+        <v>1.526657462947707</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.856328697420424</v>
+        <v>1.360263967022921</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5283,10 +5283,10 @@
         <v>3</v>
       </c>
       <c r="E206">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206">
-        <v>1.205100815827308</v>
+        <v>1.40532322904318</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.428455906558639</v>
+        <v>1.283481453660633</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.491370003490901</v>
+        <v>1.653451975459091</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.447181664540784</v>
+        <v>1.371707659102951</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.322364425140453</v>
+        <v>1.646052262921875</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F211">
-        <v>1.400394595609403</v>
+        <v>1.725943320785577</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.501521965573995</v>
+        <v>1.412307224877959</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.559550713863569</v>
+        <v>1.36760085958085</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5446,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="F214">
-        <v>1.433426085819313</v>
+        <v>1.490779982870667</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.689479542285475</v>
+        <v>1.550708125849799</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.489433182732747</v>
+        <v>1.563179402834681</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.397830586774887</v>
+        <v>1.470851743758197</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.359580750487859</v>
+        <v>1.292205107834391</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.415297957066929</v>
+        <v>1.332807014775478</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.58669124747569</v>
+        <v>1.550818446071433</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.552418845826253</v>
+        <v>1.78330424785183</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F222">
-        <v>1.50266792882756</v>
+        <v>1.400302101231207</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.355281694389253</v>
+        <v>1.450065874663968</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.469333773317947</v>
+        <v>1.610408513387537</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.420895706013286</v>
+        <v>1.48981110587157</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.737321276594833</v>
+        <v>1.558868753490898</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.732634653394894</v>
+        <v>1.619435709680527</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.3845311952689</v>
+        <v>1.37448270255055</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.825520165160466</v>
+        <v>1.397056718329249</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.594494981290699</v>
+        <v>1.619095208366423</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5783,10 +5783,10 @@
         <v>3</v>
       </c>
       <c r="E231">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231">
-        <v>1.691072801184749</v>
+        <v>1.320390355145707</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.588270128438891</v>
+        <v>1.598898102774383</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.685035816712101</v>
+        <v>1.617692516101496</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.437698414299797</v>
+        <v>1.334167531283767</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F235">
-        <v>1.355094936092374</v>
+        <v>1.449198314935286</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.474610017140179</v>
+        <v>1.578689213821053</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.506120295440362</v>
+        <v>1.555617762618017</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.555073763792577</v>
+        <v>1.620162183528599</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.492042400814064</v>
+        <v>1.760721890193744</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.563201946250157</v>
+        <v>1.562832019330474</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.532408363772995</v>
+        <v>1.527970195219052</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.360981398286336</v>
+        <v>1.677936625622997</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.766060896750419</v>
+        <v>1.535470492268034</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.489585405804553</v>
+        <v>1.533938258748536</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.303367991141859</v>
+        <v>1.49298447856247</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.544343837834877</v>
+        <v>1.606422437108382</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
-        <v>1.522877916960859</v>
+        <v>1.435039212143318</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6123,10 +6123,10 @@
         <v>3</v>
       </c>
       <c r="E248">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F248">
-        <v>1.66187978998907</v>
+        <v>1.43443057600786</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6143,10 +6143,10 @@
         <v>3</v>
       </c>
       <c r="E249">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F249">
-        <v>1.569233554288228</v>
+        <v>1.54507634497511</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.705440591553418</v>
+        <v>1.364369774455711</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.576440189292065</v>
+        <v>1.407421046439294</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.481146745070673</v>
+        <v>1.536072749894493</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.618968931040939</v>
+        <v>1.347349547715112</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.627715850489325</v>
+        <v>1.213457997944877</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.530924520106541</v>
+        <v>1.424096671554683</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.488455144935846</v>
+        <v>1.50005120721351</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F257">
-        <v>1.655620011278567</v>
+        <v>1.216304569027291</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/12_localizer.xlsx
+++ b/sequences/12_localizer.xlsx
@@ -34,781 +34,781 @@
     <t>flower</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>dog</t>
-  </si>
-  <si>
     <t>face</t>
   </si>
   <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
     <t>flower/flower038.jpg</t>
   </si>
   <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
     <t>house/house033.jpg</t>
   </si>
   <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
     <t>house/house039.jpg</t>
   </si>
   <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
     <t>house/house041.jpg</t>
   </si>
   <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower033.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
   </si>
   <si>
     <t>flower/flower063.jpg</t>
   </si>
   <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
     <t>dog/dog062.jpg</t>
   </si>
   <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
     <t>face/face054.jpg</t>
   </si>
   <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
   </si>
   <si>
     <t>house/house072.jpg</t>
   </si>
   <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
     <t>face/face078.jpg</t>
   </si>
   <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
   </si>
   <si>
     <t>dog/dog069.jpg</t>
   </si>
   <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
     <t>house/house078.jpg</t>
   </si>
   <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
   </si>
   <si>
     <t>dog/dog084.jpg</t>
   </si>
   <si>
-    <t>flower/flower089.jpg</t>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
   </si>
   <si>
     <t>house/house095.jpg</t>
   </si>
   <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
     <t>house/house094.jpg</t>
   </si>
   <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
+    <t>dog/dog083.jpg</t>
   </si>
   <si>
     <t>face/face093.jpg</t>
   </si>
   <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
     <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.539237575421959</v>
+        <v>1.408406124320718</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.428130231264607</v>
+        <v>1.466306213591863</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1234,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.581013543226836</v>
+        <v>1.271212995248638</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.527135400419377</v>
+        <v>1.388749973971664</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="F6">
-        <v>1.34718699667028</v>
+        <v>1.441481886418275</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.380583007983104</v>
+        <v>1.201228838767592</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.188902327355841</v>
+        <v>1.535111053295364</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.3925570525196</v>
+        <v>1.373813739770618</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1354,7 +1354,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>17</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.574912535914593</v>
+        <v>1.340572107605994</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.44229309405173</v>
+        <v>1.411537934835056</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.484337687661464</v>
+        <v>1.554546041449855</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.382844205664842</v>
+        <v>1.524426818658115</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1443,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>1.345669978873144</v>
+        <v>1.711077026849837</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.501548561792098</v>
+        <v>1.448961613722015</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1483,10 +1483,10 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>1.555969431667986</v>
+        <v>1.658980935956049</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.425394872413454</v>
+        <v>1.220808290718959</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1523,10 +1523,10 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>1.567573313863194</v>
+        <v>1.390765535009755</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1.594681975159414</v>
+        <v>1.698319636121754</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.6307014917486</v>
+        <v>1.462060637259465</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.385757202655926</v>
+        <v>1.342058058439878</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.314097927150553</v>
+        <v>1.524114647377856</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>1.21411260153265</v>
+        <v>1.591468389400446</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.805679935491596</v>
+        <v>1.467326341866878</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.671519724143205</v>
+        <v>1.341709832162805</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.523474788312439</v>
+        <v>1.399738845949434</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.519168290850156</v>
+        <v>1.511980688029869</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1.36581778374899</v>
+        <v>1.24302540106963</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.411831706653836</v>
+        <v>1.548220737456966</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.565687287144819</v>
+        <v>1.563951874753593</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.424577923858311</v>
+        <v>1.466464868669188</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.466170307546984</v>
+        <v>1.647817746158395</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.594742825690061</v>
+        <v>1.609312692140948</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.790577332667347</v>
+        <v>1.462952490404069</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.52550487982488</v>
+        <v>1.446284301144017</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.519265240427696</v>
+        <v>1.402811716872232</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.455362151744415</v>
+        <v>1.403680485127532</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.489125625184567</v>
+        <v>1.544363309231742</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.584698611473472</v>
+        <v>1.772178680573949</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.315045661445504</v>
+        <v>1.599040557264653</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.324569353908967</v>
+        <v>1.627328855527058</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.425926936873787</v>
+        <v>1.800573413932138</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.827362640171843</v>
+        <v>1.484655275208604</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.364939803520555</v>
+        <v>1.336053298569517</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.525846998674223</v>
+        <v>1.467905787629085</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.672613632203571</v>
+        <v>1.502235112221758</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2103,10 +2103,10 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>1.689189020448766</v>
+        <v>1.686417163101481</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.537409063697127</v>
+        <v>1.58029102170758</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.481822267712481</v>
+        <v>1.269035566805717</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.801128790312395</v>
+        <v>1.2683156983333</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F51">
-        <v>1.49622708542723</v>
+        <v>1.564005862881548</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.68398646491289</v>
+        <v>1.470704063327516</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.582558055254021</v>
+        <v>1.758832030637974</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.472354613146463</v>
+        <v>1.607109226163119</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F55">
-        <v>1.475568866899533</v>
+        <v>1.39595637948905</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.426552752920061</v>
+        <v>1.537272117951109</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.619659395012661</v>
+        <v>1.545364844327442</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.309362983014582</v>
+        <v>1.394671634418222</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F59">
-        <v>1.343021797696356</v>
+        <v>1.639798390751742</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.665796451372613</v>
+        <v>1.631488226191574</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.557556455058868</v>
+        <v>1.47643581656115</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.429591157918436</v>
+        <v>1.361121765671897</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.274101108526704</v>
+        <v>1.482490417421237</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>1.481183882516569</v>
+        <v>1.416265394546618</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.435218957808155</v>
+        <v>1.573422810887033</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.414653714890494</v>
+        <v>1.593167723662929</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.282479000075782</v>
+        <v>1.751284583719376</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.55100737442756</v>
+        <v>1.608977645379706</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.312516961249797</v>
+        <v>1.513119915700576</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.386716151760123</v>
+        <v>1.226851264736869</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.384261275799905</v>
+        <v>1.702842473593245</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.510974824857308</v>
+        <v>1.535214524878719</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.575692528810748</v>
+        <v>1.61236928874086</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.37774989979763</v>
+        <v>1.457265674296528</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.568990318650745</v>
+        <v>1.422272214047837</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.495199046821317</v>
+        <v>1.598558338485415</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.546626660028378</v>
+        <v>1.507094035617987</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.57545486484109</v>
+        <v>1.485557827525003</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.291000316259284</v>
+        <v>1.550457106595562</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.533404416461973</v>
+        <v>1.717867743600426</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.326640942671372</v>
+        <v>1.467141080353894</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.394388604708782</v>
+        <v>1.201411550296377</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.376015607789091</v>
+        <v>1.697622222686824</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F84">
-        <v>1.556321069649268</v>
+        <v>1.466969778021037</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.304857160052112</v>
+        <v>1.405350911035773</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
-        <v>1.27867652156161</v>
+        <v>1.282135138508108</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2903,10 +2903,10 @@
         <v>1</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F87">
-        <v>1.332600489225215</v>
+        <v>1.530156765093787</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.714308249668717</v>
+        <v>1.492511819186567</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.273248042818373</v>
+        <v>1.538845907523266</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.581063990134268</v>
+        <v>1.592092183985115</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.939742987633609</v>
+        <v>1.491036952279015</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.792483565604763</v>
+        <v>1.515932759405305</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.537713298348886</v>
+        <v>1.15927895990562</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F94">
-        <v>1.363875187183787</v>
+        <v>1.605576849200551</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F95">
-        <v>1.33245399605763</v>
+        <v>1.580278592675453</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.431172109122678</v>
+        <v>1.48107797364529</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.511622506023814</v>
+        <v>1.559451269475689</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.398457659792919</v>
+        <v>1.91173848558005</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3146,7 +3146,7 @@
         <v>1</v>
       </c>
       <c r="F99">
-        <v>1.501283468027325</v>
+        <v>1.404154296696265</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.373448432652371</v>
+        <v>1.478844119081925</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3183,10 +3183,10 @@
         <v>1</v>
       </c>
       <c r="E101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F101">
-        <v>1.389117682759815</v>
+        <v>1.45788067862022</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F102">
-        <v>1.526981666978874</v>
+        <v>1.511363592176823</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103">
-        <v>1.350582548412996</v>
+        <v>1.230099168993636</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.33080551576344</v>
+        <v>1.544095054740867</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.453677915683543</v>
+        <v>1.648997268390995</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="F106">
-        <v>1.649109307399322</v>
+        <v>1.447708632749632</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.449399576569608</v>
+        <v>1.360154772632768</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.442229733817622</v>
+        <v>1.222118621733212</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.361414341305717</v>
+        <v>1.844453718705193</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.475145236079188</v>
+        <v>1.672598292209062</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.531555772523242</v>
+        <v>1.616002326594705</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.4969624539678</v>
+        <v>1.633012060842326</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.667050179467429</v>
+        <v>1.20068101961843</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.696812311063137</v>
+        <v>1.378107748033001</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.348560717114661</v>
+        <v>1.282759139463272</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.527950664159781</v>
+        <v>1.647114269651497</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.785183250125798</v>
+        <v>1.405263821925296</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.178838146074</v>
+        <v>1.555010167741546</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F119">
-        <v>1.708458494867018</v>
+        <v>1.357931421334945</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.477234528735868</v>
+        <v>1.459989601725247</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.371327006476727</v>
+        <v>1.559827708713491</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.398273743355067</v>
+        <v>1.499698037830916</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.599614589989303</v>
+        <v>1.680090252750051</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.486003472141813</v>
+        <v>1.509504848172925</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3663,10 +3663,10 @@
         <v>1</v>
       </c>
       <c r="E125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F125">
-        <v>1.611972014621668</v>
+        <v>1.567200001608245</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.533823564334265</v>
+        <v>1.402865527815177</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.51263459841164</v>
+        <v>1.648577346526129</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.532644990933214</v>
+        <v>1.451013648705999</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F129">
-        <v>1.504390328639616</v>
+        <v>1.307400367752994</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.546360971901039</v>
+        <v>1.582937337046144</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.563303425489782</v>
+        <v>1.501441519549926</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.474348522946619</v>
+        <v>1.579622823729965</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>1.390225661914572</v>
+        <v>1.518871197925768</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.334871092190365</v>
+        <v>1.534034931228184</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1.776440753551775</v>
+        <v>1.754612950443885</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.557813513717881</v>
+        <v>1.786156496760528</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.762825815779078</v>
+        <v>1.474653293732688</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138">
-        <v>1.414058842991462</v>
+        <v>1.568466171822883</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.717364489054854</v>
+        <v>1.120945895330968</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.859046101761274</v>
+        <v>1.823969456191443</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.308144494787328</v>
+        <v>1.551072473424948</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.241374486481102</v>
+        <v>1.328433123676892</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.509385872301452</v>
+        <v>1.358334955379611</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.542437415348334</v>
+        <v>1.299512177928563</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.593768025248167</v>
+        <v>1.579672327354308</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.471852588671227</v>
+        <v>1.358302430263354</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.514615927490146</v>
+        <v>1.166369880199209</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.672530500467033</v>
+        <v>1.545458712870605</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.723009361984362</v>
+        <v>1.270761479092905</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.216834395808001</v>
+        <v>1.707189598246286</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4183,10 +4183,10 @@
         <v>2</v>
       </c>
       <c r="E151">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F151">
-        <v>1.49162178211396</v>
+        <v>1.350100945953182</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.521857326004072</v>
+        <v>1.546487276943021</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.493568239511786</v>
+        <v>1.67322162934402</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4246,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <v>1.486529550862647</v>
+        <v>1.606511624064228</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.431562397268862</v>
+        <v>1.419666504385032</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.629384867514542</v>
+        <v>1.411191968398355</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.487239884188557</v>
+        <v>1.60739282963552</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4323,10 +4323,10 @@
         <v>2</v>
       </c>
       <c r="E158">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F158">
-        <v>1.614180735330807</v>
+        <v>1.594065427833485</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.424518155056651</v>
+        <v>1.306760915361124</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4363,10 +4363,10 @@
         <v>2</v>
       </c>
       <c r="E160">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F160">
-        <v>1.303831089063762</v>
+        <v>1.606807911820901</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.454442640317066</v>
+        <v>1.800437523859469</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.293383213644066</v>
+        <v>1.80314544550061</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.3828341804383</v>
+        <v>1.681312444063217</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.568465989155931</v>
+        <v>1.704206188876265</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.736405627194639</v>
+        <v>1.56704751177456</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.250140174779139</v>
+        <v>1.723996712305358</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.459015805232867</v>
+        <v>1.492218224766053</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.680243384915304</v>
+        <v>1.519045153043944</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.482512617771152</v>
+        <v>1.562362540391181</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F170">
-        <v>1.353264986346882</v>
+        <v>1.385620367221161</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.373873542197722</v>
+        <v>1.52849011999888</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.313685915575494</v>
+        <v>1.559985055949988</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.658493213961263</v>
+        <v>1.810859934087767</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4643,10 +4643,10 @@
         <v>2</v>
       </c>
       <c r="E174">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F174">
-        <v>1.225283376382485</v>
+        <v>1.178793273384245</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.400560534193734</v>
+        <v>1.592751985603343</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.498008056607959</v>
+        <v>1.680672388110251</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.639244609811749</v>
+        <v>1.29452935167735</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F178">
-        <v>1.317754164024111</v>
+        <v>1.249300434867703</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F179">
-        <v>1.623986525150258</v>
+        <v>1.361444879001823</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.600617646821701</v>
+        <v>1.344547612035123</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.727771389159896</v>
+        <v>1.388490011175092</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4803,10 +4803,10 @@
         <v>2</v>
       </c>
       <c r="E182">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F182">
-        <v>1.330951163595237</v>
+        <v>1.553955337149768</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.417951268544607</v>
+        <v>1.693656541994266</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.539922680633302</v>
+        <v>1.39649714044921</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.643495682659443</v>
+        <v>1.64276247519984</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.288915401213352</v>
+        <v>1.346752821300688</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.310921794963514</v>
+        <v>1.53601592645435</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.551047715644236</v>
+        <v>1.245767692786099</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.284039211314693</v>
+        <v>1.44955712464859</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.404354183206319</v>
+        <v>1.617417556346975</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.517965208888837</v>
+        <v>1.419499512667833</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.480817907600525</v>
+        <v>1.472008731416313</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.481104078832215</v>
+        <v>1.633957546663016</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5046,7 +5046,7 @@
         <v>0</v>
       </c>
       <c r="F194">
-        <v>1.441856462630371</v>
+        <v>1.424688209422647</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.668540975072857</v>
+        <v>1.32879637005586</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.781537546786216</v>
+        <v>1.583465579001422</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="F197">
-        <v>1.708881371857684</v>
+        <v>1.460366345258615</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.234406913515953</v>
+        <v>1.519366494772256</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.522280810113602</v>
+        <v>1.639731532901195</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5163,10 +5163,10 @@
         <v>3</v>
       </c>
       <c r="E200">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200">
-        <v>1.352313705027783</v>
+        <v>1.537590152944082</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F201">
-        <v>1.460270297348061</v>
+        <v>1.604650160553381</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5203,10 +5203,10 @@
         <v>3</v>
       </c>
       <c r="E202">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F202">
-        <v>1.457784510912566</v>
+        <v>1.299645171251961</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.366771964615907</v>
+        <v>1.580232075641643</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.526657462947707</v>
+        <v>1.587595280936457</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.360263967022921</v>
+        <v>1.460003088388728</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.40532322904318</v>
+        <v>1.516955683207253</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.283481453660633</v>
+        <v>1.57494165704544</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>0</v>
       </c>
       <c r="F208">
-        <v>1.653451975459091</v>
+        <v>1.579606699135139</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.371707659102951</v>
+        <v>1.383162900050235</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.646052262921875</v>
+        <v>1.681237880618976</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5383,10 +5383,10 @@
         <v>3</v>
       </c>
       <c r="E211">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F211">
-        <v>1.725943320785577</v>
+        <v>1.643488246182166</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.412307224877959</v>
+        <v>1.678256737878188</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.36760085958085</v>
+        <v>1.797816275438304</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.490779982870667</v>
+        <v>1.467226386086996</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.550708125849799</v>
+        <v>1.394385975538934</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.563179402834681</v>
+        <v>1.689333711946546</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.470851743758197</v>
+        <v>1.643822533602141</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.292205107834391</v>
+        <v>1.348758039923482</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.332807014775478</v>
+        <v>1.717185664430934</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.550818446071433</v>
+        <v>1.465284235201538</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.78330424785183</v>
+        <v>1.399001568057731</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5603,10 +5603,10 @@
         <v>3</v>
       </c>
       <c r="E222">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F222">
-        <v>1.400302101231207</v>
+        <v>1.55243340928541</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.450065874663968</v>
+        <v>1.772123220227275</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.610408513387537</v>
+        <v>1.541703400865141</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.48981110587157</v>
+        <v>1.731793941627453</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.558868753490898</v>
+        <v>1.350819128495348</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.619435709680527</v>
+        <v>1.457959310039334</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.37448270255055</v>
+        <v>1.507944475088369</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.397056718329249</v>
+        <v>1.653450283936949</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.619095208366423</v>
+        <v>1.32143715740776</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.320390355145707</v>
+        <v>1.553482054744433</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.598898102774383</v>
+        <v>1.565556414427083</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.617692516101496</v>
+        <v>1.485717402149206</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.334167531283767</v>
+        <v>1.402333790326613</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F235">
-        <v>1.449198314935286</v>
+        <v>1.601203293711812</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.578689213821053</v>
+        <v>1.453630439708278</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.555617762618017</v>
+        <v>1.429738029260806</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.620162183528599</v>
+        <v>1.606758093243235</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F239">
-        <v>1.760721890193744</v>
+        <v>1.309708620580855</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>1.562832019330474</v>
+        <v>1.1861976446786</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.527970195219052</v>
+        <v>1.435967977243111</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.677936625622997</v>
+        <v>1.522443614125968</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6026,7 +6026,7 @@
         <v>0</v>
       </c>
       <c r="F243">
-        <v>1.535470492268034</v>
+        <v>1.628692215673291</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.533938258748536</v>
+        <v>1.528229510848495</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.49298447856247</v>
+        <v>1.438560327269166</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.606422437108382</v>
+        <v>1.681885688611976</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6094,7 +6094,7 @@
         <v>53</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C247" t="s">
         <v>254</v>
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.435039212143318</v>
+        <v>1.453280972343148</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.43443057600786</v>
+        <v>1.407093939075528</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.54507634497511</v>
+        <v>1.58928842566817</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.364369774455711</v>
+        <v>1.55426242934212</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.407421046439294</v>
+        <v>1.488302251355968</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F252">
-        <v>1.536072749894493</v>
+        <v>1.291821297956389</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.347349547715112</v>
+        <v>1.626504324622711</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.213457997944877</v>
+        <v>1.544262628772016</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F255">
-        <v>1.424096671554683</v>
+        <v>1.369802979622989</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.50005120721351</v>
+        <v>1.683433273739595</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6303,10 +6303,10 @@
         <v>3</v>
       </c>
       <c r="E257">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F257">
-        <v>1.216304569027291</v>
+        <v>1.490046800113303</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/12_localizer.xlsx
+++ b/sequences/12_localizer.xlsx
@@ -31,208 +31,340 @@
     <t>iti</t>
   </si>
   <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
     <t>dog</t>
   </si>
   <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>face</t>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
   </si>
   <si>
     <t>flower/flower048.jpg</t>
   </si>
   <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
     <t>dog/dog032.jpg</t>
   </si>
   <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
   </si>
   <si>
     <t>flower/flower041.jpg</t>
   </si>
   <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
   </si>
   <si>
     <t>face/face044.jpg</t>
   </si>
   <si>
-    <t>flower/flower035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
+    <t>face/face060.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
   </si>
   <si>
     <t>house/house058.jpg</t>
@@ -241,574 +373,442 @@
     <t>dog/dog052.jpg</t>
   </si>
   <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
     <t>flower/flower065.jpg</t>
   </si>
   <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
   </si>
   <si>
     <t>face/face053.jpg</t>
   </si>
   <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
   </si>
   <si>
     <t>flower/flower074.jpg</t>
   </si>
   <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
   </si>
   <si>
     <t>dog/dog072.jpg</t>
   </si>
   <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
     <t>house/house065.jpg</t>
   </si>
   <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
     <t>house/house071.jpg</t>
   </si>
   <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
     <t>house/house067.jpg</t>
   </si>
   <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
   </si>
   <si>
     <t>flower/flower066.jpg</t>
   </si>
   <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
+    <t>house/house078.jpg</t>
   </si>
   <si>
     <t>face/face077.jpg</t>
   </si>
   <si>
-    <t>face/face068.jpg</t>
+    <t>dog/dog074.jpg</t>
   </si>
   <si>
     <t>face/face079.jpg</t>
   </si>
   <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
   </si>
   <si>
     <t>dog/dog089.jpg</t>
   </si>
   <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
     <t>flower/flower084.jpg</t>
   </si>
   <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
   </si>
   <si>
     <t>house/house084.jpg</t>
   </si>
   <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
   </si>
   <si>
     <t>house/house087.jpg</t>
   </si>
   <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
     <t>flower/flower091.jpg</t>
   </si>
   <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
   </si>
   <si>
     <t>dog/dog094.jpg</t>
   </si>
   <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
   </si>
   <si>
     <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.408406124320718</v>
+        <v>1.467070212015336</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.466306213591863</v>
+        <v>1.499789097425248</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.271212995248638</v>
+        <v>1.415216453612766</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.388749973971664</v>
+        <v>1.105708350647066</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>1.441481886418275</v>
+        <v>1.656982073145421</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.201228838767592</v>
+        <v>1.201591383764254</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>1.535111053295364</v>
+        <v>1.698266351364627</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.373813739770618</v>
+        <v>1.56847721563779</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.340572107605994</v>
+        <v>1.632043021042446</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1374,7 +1374,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
         <v>18</v>
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.411537934835056</v>
+        <v>1.451789296357097</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.554546041449855</v>
+        <v>1.433833820845106</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.524426818658115</v>
+        <v>1.372851697604995</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.711077026849837</v>
+        <v>1.670259248816606</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1.448961613722015</v>
+        <v>1.596465921209202</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.658980935956049</v>
+        <v>1.600406737281237</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.220808290718959</v>
+        <v>1.546100674278855</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.390765535009755</v>
+        <v>1.632996771333005</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1546,7 +1546,7 @@
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1.698319636121754</v>
+        <v>1.733192328461879</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.462060637259465</v>
+        <v>1.523503350539835</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1586,7 +1586,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1.342058058439878</v>
+        <v>1.451291196658506</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>1.524114647377856</v>
+        <v>1.462812529494618</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>1.591468389400446</v>
+        <v>1.578144783159722</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.467326341866878</v>
+        <v>1.35760619371388</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.341709832162805</v>
+        <v>1.43995539057035</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <v>1.399738845949434</v>
+        <v>1.397646666231035</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.511980688029869</v>
+        <v>1.490866658242392</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1723,10 +1723,10 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
-        <v>1.24302540106963</v>
+        <v>1.483119346738233</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1.548220737456966</v>
+        <v>1.464114570580059</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.563951874753593</v>
+        <v>1.360805797740946</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.466464868669188</v>
+        <v>1.364219158345888</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1794,7 +1794,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C32" t="s">
         <v>39</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>1.647817746158395</v>
+        <v>1.886750892778544</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.609312692140948</v>
+        <v>1.536305249284675</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.462952490404069</v>
+        <v>1.702982048124778</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.446284301144017</v>
+        <v>1.511428548308406</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.402811716872232</v>
+        <v>1.323817597630351</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.403680485127532</v>
+        <v>1.273303816584935</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.544363309231742</v>
+        <v>1.424816156489318</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.772178680573949</v>
+        <v>1.283091925871158</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.599040557264653</v>
+        <v>1.785881567078013</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.627328855527058</v>
+        <v>1.710719972122652</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.800573413932138</v>
+        <v>1.348811130368459</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.484655275208604</v>
+        <v>1.616455774034956</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2046,7 +2046,7 @@
         <v>1</v>
       </c>
       <c r="F44">
-        <v>1.336053298569517</v>
+        <v>1.695024888477592</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.467905787629085</v>
+        <v>1.256704241554904</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>1.502235112221758</v>
+        <v>1.477782503939235</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.686417163101481</v>
+        <v>1.245888038061794</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.58029102170758</v>
+        <v>1.723631271650352</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.269035566805717</v>
+        <v>1.559017662190094</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.2683156983333</v>
+        <v>1.690996512918286</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2183,10 +2183,10 @@
         <v>0</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51">
-        <v>1.564005862881548</v>
+        <v>1.482239492168794</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.470704063327516</v>
+        <v>1.508865257262032</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2226,7 +2226,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1.758832030637974</v>
+        <v>1.827543062610697</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2246,7 +2246,7 @@
         <v>0</v>
       </c>
       <c r="F54">
-        <v>1.607109226163119</v>
+        <v>1.667077679985012</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2263,10 +2263,10 @@
         <v>0</v>
       </c>
       <c r="E55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F55">
-        <v>1.39595637948905</v>
+        <v>1.568720438832306</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.537272117951109</v>
+        <v>1.427114913549255</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.545364844327442</v>
+        <v>1.613791150590235</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.394671634418222</v>
+        <v>1.737111047850791</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.639798390751742</v>
+        <v>1.517869594752669</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
-        <v>1.631488226191574</v>
+        <v>1.807923940495515</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2374,7 +2374,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.47643581656115</v>
+        <v>1.549549315888045</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.361121765671897</v>
+        <v>1.558795181661128</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.482490417421237</v>
+        <v>1.516318756855997</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2443,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F64">
-        <v>1.416265394546618</v>
+        <v>1.602205921035581</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.573422810887033</v>
+        <v>1.584377637877831</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.593167723662929</v>
+        <v>1.412586452480895</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.751284583719376</v>
+        <v>1.545136841187116</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.608977645379706</v>
+        <v>1.642984180035376</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.513119915700576</v>
+        <v>1.354871461288067</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2554,7 +2554,7 @@
         <v>4</v>
       </c>
       <c r="B70" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
         <v>77</v>
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.226851264736869</v>
+        <v>1.511789890597498</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2574,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C71" t="s">
         <v>78</v>
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.702842473593245</v>
+        <v>1.646159522621971</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.535214524878719</v>
+        <v>1.702960689943979</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.61236928874086</v>
+        <v>1.527847640077171</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.457265674296528</v>
+        <v>1.348198444941052</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.422272214047837</v>
+        <v>1.400719877731462</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.598558338485415</v>
+        <v>1.60510988386493</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.507094035617987</v>
+        <v>1.550286624346333</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.485557827525003</v>
+        <v>1.405997898848452</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.550457106595562</v>
+        <v>1.577869238337685</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F80">
-        <v>1.717867743600426</v>
+        <v>1.424980302844383</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F81">
-        <v>1.467141080353894</v>
+        <v>1.574197693382242</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.201411550296377</v>
+        <v>1.403424914608415</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F83">
-        <v>1.697622222686824</v>
+        <v>1.59054748559113</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2843,10 +2843,10 @@
         <v>1</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84">
-        <v>1.466969778021037</v>
+        <v>1.297154164267988</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.405350911035773</v>
+        <v>1.547969863598962</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2883,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="E86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F86">
-        <v>1.282135138508108</v>
+        <v>1.624346155958231</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.530156765093787</v>
+        <v>1.694830636209306</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>1.492511819186567</v>
+        <v>1.379643471554936</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.538845907523266</v>
+        <v>1.403937627957132</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2966,7 +2966,7 @@
         <v>0</v>
       </c>
       <c r="F90">
-        <v>1.592092183985115</v>
+        <v>1.411539780831608</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.491036952279015</v>
+        <v>1.335045053878963</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.515932759405305</v>
+        <v>1.412655989912966</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.15927895990562</v>
+        <v>1.342885537993277</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3043,10 +3043,10 @@
         <v>1</v>
       </c>
       <c r="E94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F94">
-        <v>1.605576849200551</v>
+        <v>1.367600240925394</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3063,10 +3063,10 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F95">
-        <v>1.580278592675453</v>
+        <v>1.782010480489168</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F96">
-        <v>1.48107797364529</v>
+        <v>1.496499736575315</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.559451269475689</v>
+        <v>1.657363366348942</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.91173848558005</v>
+        <v>1.794739796818541</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3143,10 +3143,10 @@
         <v>1</v>
       </c>
       <c r="E99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F99">
-        <v>1.404154296696265</v>
+        <v>1.75490043058138</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.478844119081925</v>
+        <v>1.552905872663777</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.45788067862022</v>
+        <v>1.526513514997001</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3203,10 +3203,10 @@
         <v>1</v>
       </c>
       <c r="E102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F102">
-        <v>1.511363592176823</v>
+        <v>1.524237027512289</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3226,7 +3226,7 @@
         <v>1</v>
       </c>
       <c r="F103">
-        <v>1.230099168993636</v>
+        <v>1.461869447746137</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.544095054740867</v>
+        <v>1.382018201019548</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.648997268390995</v>
+        <v>1.431412583729602</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F106">
-        <v>1.447708632749632</v>
+        <v>1.543753285445809</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3306,7 +3306,7 @@
         <v>0</v>
       </c>
       <c r="F107">
-        <v>1.360154772632768</v>
+        <v>1.699088422911721</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.222118621733212</v>
+        <v>1.305200841306342</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3334,7 +3334,7 @@
         <v>43</v>
       </c>
       <c r="B109" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C109" t="s">
         <v>116</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.844453718705193</v>
+        <v>1.486433089406486</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.672598292209062</v>
+        <v>1.311128909126437</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.616002326594705</v>
+        <v>1.512612020399948</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.633012060842326</v>
+        <v>1.542949344882458</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113">
-        <v>1.20068101961843</v>
+        <v>1.475445000524373</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.378107748033001</v>
+        <v>1.375485433465867</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3466,7 +3466,7 @@
         <v>0</v>
       </c>
       <c r="F115">
-        <v>1.282759139463272</v>
+        <v>1.449835739516961</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F116">
-        <v>1.647114269651497</v>
+        <v>1.477160904789738</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.405263821925296</v>
+        <v>1.561840931651617</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3526,7 +3526,7 @@
         <v>0</v>
       </c>
       <c r="F118">
-        <v>1.555010167741546</v>
+        <v>1.42741648130527</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>1</v>
       </c>
       <c r="F119">
-        <v>1.357931421334945</v>
+        <v>1.557108105764064</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.459989601725247</v>
+        <v>1.323542041240108</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.559827708713491</v>
+        <v>1.654425558809736</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.499698037830916</v>
+        <v>1.609329797915002</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3626,7 +3626,7 @@
         <v>0</v>
       </c>
       <c r="F123">
-        <v>1.680090252750051</v>
+        <v>1.226465629085168</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.509504848172925</v>
+        <v>1.663161698283682</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.567200001608245</v>
+        <v>1.572924031341224</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.402865527815177</v>
+        <v>1.658701068046451</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.648577346526129</v>
+        <v>1.495986531709482</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.451013648705999</v>
+        <v>1.605681796363091</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.307400367752994</v>
+        <v>1.508054750273853</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.582937337046144</v>
+        <v>1.299561372571471</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.501441519549926</v>
+        <v>1.366628846878485</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.579622823729965</v>
+        <v>1.429281898459982</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3823,10 +3823,10 @@
         <v>2</v>
       </c>
       <c r="E133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F133">
-        <v>1.518871197925768</v>
+        <v>1.450098755758437</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.534034931228184</v>
+        <v>1.866631593326399</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3863,10 +3863,10 @@
         <v>2</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F135">
-        <v>1.754612950443885</v>
+        <v>1.244576470972618</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.786156496760528</v>
+        <v>1.785529649284867</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.474653293732688</v>
+        <v>1.359136683025003</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3923,10 +3923,10 @@
         <v>2</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F138">
-        <v>1.568466171822883</v>
+        <v>1.484864338005252</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F139">
-        <v>1.120945895330968</v>
+        <v>1.508556234736964</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.823969456191443</v>
+        <v>1.720338807448431</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.551072473424948</v>
+        <v>1.092344298639872</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.328433123676892</v>
+        <v>1.363780665882308</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.358334955379611</v>
+        <v>1.567723508406705</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.299512177928563</v>
+        <v>1.376858664409072</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F145">
-        <v>1.579672327354308</v>
+        <v>1.68737142248237</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.358302430263354</v>
+        <v>1.645861276579402</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.166369880199209</v>
+        <v>1.142843106208095</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.545458712870605</v>
+        <v>1.423941054153854</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F149">
-        <v>1.270761479092905</v>
+        <v>1.716837019314815</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4166,7 +4166,7 @@
         <v>0</v>
       </c>
       <c r="F150">
-        <v>1.707189598246286</v>
+        <v>1.402211089008194</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.350100945953182</v>
+        <v>1.397945910952155</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4206,7 +4206,7 @@
         <v>0</v>
       </c>
       <c r="F152">
-        <v>1.546487276943021</v>
+        <v>1.83422162148018</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.67322162934402</v>
+        <v>1.571352710997021</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4246,7 +4246,7 @@
         <v>1</v>
       </c>
       <c r="F154">
-        <v>1.606511624064228</v>
+        <v>1.499286173212056</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.419666504385032</v>
+        <v>1.480750904679674</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.411191968398355</v>
+        <v>1.622166720626421</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F157">
-        <v>1.60739282963552</v>
+        <v>1.260275997076897</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.594065427833485</v>
+        <v>1.439945885522036</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.306760915361124</v>
+        <v>1.478674692313318</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.606807911820901</v>
+        <v>1.512784982295975</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4386,7 +4386,7 @@
         <v>0</v>
       </c>
       <c r="F161">
-        <v>1.800437523859469</v>
+        <v>1.443208958446687</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4406,7 +4406,7 @@
         <v>0</v>
       </c>
       <c r="F162">
-        <v>1.80314544550061</v>
+        <v>1.30121560353652</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.681312444063217</v>
+        <v>1.381237614850936</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.704206188876265</v>
+        <v>1.725451988262267</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.56704751177456</v>
+        <v>1.414657263359096</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.723996712305358</v>
+        <v>1.426819211298851</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.492218224766053</v>
+        <v>1.536611736170355</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.519045153043944</v>
+        <v>1.82756464645876</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.562362540391181</v>
+        <v>1.62713661155225</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4563,10 +4563,10 @@
         <v>2</v>
       </c>
       <c r="E170">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F170">
-        <v>1.385620367221161</v>
+        <v>1.40363049948419</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4586,7 +4586,7 @@
         <v>0</v>
       </c>
       <c r="F171">
-        <v>1.52849011999888</v>
+        <v>1.767805129209677</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.559985055949988</v>
+        <v>1.264448349094665</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F173">
-        <v>1.810859934087767</v>
+        <v>1.692225702288117</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.178793273384245</v>
+        <v>1.613425916072063</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.592751985603343</v>
+        <v>1.346059679249147</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4686,7 +4686,7 @@
         <v>0</v>
       </c>
       <c r="F176">
-        <v>1.680672388110251</v>
+        <v>1.538487330071882</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.29452935167735</v>
+        <v>1.226844606654266</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4723,10 +4723,10 @@
         <v>2</v>
       </c>
       <c r="E178">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F178">
-        <v>1.249300434867703</v>
+        <v>1.306426143490855</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4743,10 +4743,10 @@
         <v>2</v>
       </c>
       <c r="E179">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F179">
-        <v>1.361444879001823</v>
+        <v>1.300531726647321</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.344547612035123</v>
+        <v>1.326240416698646</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4774,7 +4774,7 @@
         <v>51</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C181" t="s">
         <v>188</v>
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.388490011175092</v>
+        <v>1.506703321405088</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.553955337149768</v>
+        <v>1.404499607321159</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.693656541994266</v>
+        <v>1.46674618170318</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.39649714044921</v>
+        <v>1.530195474049356</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F185">
-        <v>1.64276247519984</v>
+        <v>1.523335285415951</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.346752821300688</v>
+        <v>1.743600265525307</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.53601592645435</v>
+        <v>1.47209757138554</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F188">
-        <v>1.245767692786099</v>
+        <v>1.627524807342245</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4946,7 +4946,7 @@
         <v>0</v>
       </c>
       <c r="F189">
-        <v>1.44955712464859</v>
+        <v>1.466480198111223</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.617417556346975</v>
+        <v>1.760935617706878</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F191">
-        <v>1.419499512667833</v>
+        <v>1.363114639986778</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.472008731416313</v>
+        <v>1.520879716241008</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5026,7 +5026,7 @@
         <v>0</v>
       </c>
       <c r="F193">
-        <v>1.633957546663016</v>
+        <v>1.642960246637859</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.424688209422647</v>
+        <v>1.652433691688793</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.32879637005586</v>
+        <v>1.514508877163292</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.583465579001422</v>
+        <v>1.531244185081131</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F197">
-        <v>1.460366345258615</v>
+        <v>1.773483421352057</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.519366494772256</v>
+        <v>1.497997280658992</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F199">
-        <v>1.639731532901195</v>
+        <v>1.38422210279774</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.537590152944082</v>
+        <v>1.593407761748189</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5174,7 +5174,7 @@
         <v>7</v>
       </c>
       <c r="B201" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C201" t="s">
         <v>208</v>
@@ -5183,10 +5183,10 @@
         <v>3</v>
       </c>
       <c r="E201">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F201">
-        <v>1.604650160553381</v>
+        <v>1.578196642241461</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.299645171251961</v>
+        <v>1.385100987992211</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.580232075641643</v>
+        <v>1.261983445759518</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.587595280936457</v>
+        <v>1.659273890527872</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.460003088388728</v>
+        <v>1.530993371434162</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.516955683207253</v>
+        <v>1.616646614086253</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.57494165704544</v>
+        <v>1.602630003300101</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F208">
-        <v>1.579606699135139</v>
+        <v>1.551434598113915</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.383162900050235</v>
+        <v>1.534306801685311</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.681237880618976</v>
+        <v>1.508435560607333</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.643488246182166</v>
+        <v>1.293825022450027</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.678256737878188</v>
+        <v>1.399590814501352</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5426,7 +5426,7 @@
         <v>0</v>
       </c>
       <c r="F213">
-        <v>1.797816275438304</v>
+        <v>1.751632981858534</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.467226386086996</v>
+        <v>1.657724976576654</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F215">
-        <v>1.394385975538934</v>
+        <v>1.434602898297778</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.689333711946546</v>
+        <v>1.535796965026378</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.643822533602141</v>
+        <v>1.333633773017796</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.348758039923482</v>
+        <v>1.455150844951265</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5546,7 +5546,7 @@
         <v>0</v>
       </c>
       <c r="F219">
-        <v>1.717185664430934</v>
+        <v>1.676314383282966</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.465284235201538</v>
+        <v>1.579623305662358</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.399001568057731</v>
+        <v>1.571937315315976</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.55243340928541</v>
+        <v>1.161052315629006</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.772123220227275</v>
+        <v>1.433520291477718</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.541703400865141</v>
+        <v>1.63981171574264</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.731793941627453</v>
+        <v>1.591745896251587</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.350819128495348</v>
+        <v>1.67446177703566</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5694,7 +5694,7 @@
         <v>33</v>
       </c>
       <c r="B227" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C227" t="s">
         <v>234</v>
@@ -5706,7 +5706,7 @@
         <v>0</v>
       </c>
       <c r="F227">
-        <v>1.457959310039334</v>
+        <v>1.667834973263171</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.507944475088369</v>
+        <v>1.764921800230312</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.653450283936949</v>
+        <v>1.475976414401929</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.32143715740776</v>
+        <v>1.567136151628982</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.553482054744433</v>
+        <v>1.309807404351238</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.565556414427083</v>
+        <v>1.587343641699699</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5826,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="F233">
-        <v>1.485717402149206</v>
+        <v>1.504842330959059</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.402333790326613</v>
+        <v>1.72766820517705</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5863,10 +5863,10 @@
         <v>3</v>
       </c>
       <c r="E235">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F235">
-        <v>1.601203293711812</v>
+        <v>1.377990543877291</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.453630439708278</v>
+        <v>1.498571319831978</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.429738029260806</v>
+        <v>1.517558299025176</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.606758093243235</v>
+        <v>1.630017838179111</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5943,10 +5943,10 @@
         <v>3</v>
       </c>
       <c r="E239">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F239">
-        <v>1.309708620580855</v>
+        <v>1.500101422648619</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F240">
-        <v>1.1861976446786</v>
+        <v>1.535919722821451</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F241">
-        <v>1.435967977243111</v>
+        <v>1.302858462571749</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.522443614125968</v>
+        <v>1.197049208869823</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.628692215673291</v>
+        <v>1.566736508215874</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.528229510848495</v>
+        <v>1.620384174178645</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F245">
-        <v>1.438560327269166</v>
+        <v>1.296838049217865</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.681885688611976</v>
+        <v>1.661168897181736</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6106,7 +6106,7 @@
         <v>0</v>
       </c>
       <c r="F247">
-        <v>1.453280972343148</v>
+        <v>1.396353573798163</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.407093939075528</v>
+        <v>1.556251176759598</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.58928842566817</v>
+        <v>1.448331130667286</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.55426242934212</v>
+        <v>1.353664832503245</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.488302251355968</v>
+        <v>1.479104825392035</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6203,10 +6203,10 @@
         <v>3</v>
       </c>
       <c r="E252">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F252">
-        <v>1.291821297956389</v>
+        <v>1.435726431483484</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F253">
-        <v>1.626504324622711</v>
+        <v>1.332994329752271</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.544262628772016</v>
+        <v>1.550395993316216</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6263,10 +6263,10 @@
         <v>3</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
-        <v>1.369802979622989</v>
+        <v>1.531575347595663</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6286,7 +6286,7 @@
         <v>0</v>
       </c>
       <c r="F256">
-        <v>1.683433273739595</v>
+        <v>1.259300327443747</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.490046800113303</v>
+        <v>1.792165060347941</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/12_localizer.xlsx
+++ b/sequences/12_localizer.xlsx
@@ -37,778 +37,778 @@
     <t>face</t>
   </si>
   <si>
+    <t>dog</t>
+  </si>
+  <si>
     <t>flower</t>
   </si>
   <si>
-    <t>dog</t>
+    <t>house/house042.jpg</t>
+  </si>
+  <si>
+    <t>face/face032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog037.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>face/face042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog035.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>face/face041.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>house/house037.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>face/face044.jpg</t>
   </si>
   <si>
     <t>house/house043.jpg</t>
   </si>
   <si>
-    <t>face/face042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
-  </si>
-  <si>
-    <t>house/house042.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog042.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog035.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
     <t>house/house044.jpg</t>
   </si>
   <si>
     <t>house/house041.jpg</t>
   </si>
   <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>face/face032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house037.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>face/face041.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
     <t>flower/flower035.jpg</t>
   </si>
   <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
+    <t>house/house049.jpg</t>
+  </si>
+  <si>
+    <t>face/face054.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
   </si>
   <si>
     <t>face/face060.jpg</t>
   </si>
   <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>face/face057.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>house/house055.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>house/house059.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
     <t>flower/flower060.jpg</t>
   </si>
   <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>face/face057.jpg</t>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
   </si>
   <si>
     <t>dog/dog060.jpg</t>
   </si>
   <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house055.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower058.jpg</t>
   </si>
   <si>
     <t>flower/flower061.jpg</t>
   </si>
   <si>
-    <t>face/face056.jpg</t>
-  </si>
-  <si>
-    <t>house/house061.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
     <t>dog/dog063.jpg</t>
   </si>
   <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>house/house049.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face054.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
+    <t>flower/flower070.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>house/house068.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower071.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
   </si>
   <si>
     <t>dog/dog077.jpg</t>
   </si>
   <si>
-    <t>dog/dog071.jpg</t>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
   </si>
   <si>
     <t>flower/flower078.jpg</t>
   </si>
   <si>
-    <t>dog/dog068.jpg</t>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
   </si>
   <si>
     <t>dog/dog066.jpg</t>
   </si>
   <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
     <t>face/face071.jpg</t>
   </si>
   <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower077.jpg</t>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
   </si>
   <si>
     <t>house/house066.jpg</t>
   </si>
   <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
   </si>
   <si>
     <t>dog/dog067.jpg</t>
   </si>
   <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
     <t>flower/flower081.jpg</t>
   </si>
   <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
     <t>flower/flower072.jpg</t>
   </si>
   <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>house/house068.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower071.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>face/face079.jpg</t>
+    <t>flower/flower093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face093.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
   </si>
   <si>
     <t>face/face095.jpg</t>
   </si>
   <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
   </si>
   <si>
     <t>dog/dog093.jpg</t>
   </si>
   <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
   </si>
   <si>
     <t>flower/flower088.jpg</t>
   </si>
   <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
   </si>
   <si>
     <t>dog/dog092.jpg</t>
   </si>
   <si>
-    <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
     <t>flower/flower095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.467070212015336</v>
+        <v>1.614441486368713</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.499789097425248</v>
+        <v>1.388395693963546</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.415216453612766</v>
+        <v>1.413115467183178</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.105708350647066</v>
+        <v>1.457635243576428</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1274,7 +1274,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1.656982073145421</v>
+        <v>1.505726561789891</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.201591383764254</v>
+        <v>1.486422997823879</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1323,10 +1323,10 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>1.698266351364627</v>
+        <v>1.401680606470209</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.56847721563779</v>
+        <v>1.327451611442167</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.632043021042446</v>
+        <v>1.470067240338088</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.451789296357097</v>
+        <v>1.456951697773656</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.433833820845106</v>
+        <v>1.394548247310236</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.372851697604995</v>
+        <v>1.788661634332018</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.670259248816606</v>
+        <v>1.405699756435311</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1454,7 +1454,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
         <v>22</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>1.596465921209202</v>
+        <v>1.522851011314966</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1474,7 +1474,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
         <v>23</v>
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.600406737281237</v>
+        <v>1.584769774991834</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.546100674278855</v>
+        <v>1.606880858343171</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.632996771333005</v>
+        <v>1.614613481825937</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1534,7 +1534,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
         <v>26</v>
@@ -1543,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>1.733192328461879</v>
+        <v>1.49548709326267</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1554,7 +1554,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.523503350539835</v>
+        <v>1.249427194936916</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1574,7 +1574,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
         <v>28</v>
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>1.451291196658506</v>
+        <v>1.669156950729677</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1603,10 +1603,10 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>1.462812529494618</v>
+        <v>1.616070995302559</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.578144783159722</v>
+        <v>1.238304709771445</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.35760619371388</v>
+        <v>1.656958007746993</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1.43995539057035</v>
+        <v>1.467089870598235</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1683,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1.397646666231035</v>
+        <v>1.547410787479897</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.490866658242392</v>
+        <v>1.573600487271466</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.483119346738233</v>
+        <v>1.668457572107658</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1.464114570580059</v>
+        <v>1.516080260247772</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1766,7 +1766,7 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>1.360805797740946</v>
+        <v>1.609291762467418</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1774,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C31" t="s">
         <v>38</v>
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.364219158345888</v>
+        <v>1.378086626726646</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>1.886750892778544</v>
+        <v>1.645145968040182</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.536305249284675</v>
+        <v>1.458444730223947</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.702982048124778</v>
+        <v>1.295672505662391</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.511428548308406</v>
+        <v>1.403846331086189</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1874,7 +1874,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
         <v>43</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.323817597630351</v>
+        <v>1.732437721603987</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1894,7 +1894,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C37" t="s">
         <v>44</v>
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.273303816584935</v>
+        <v>1.600335090973735</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.424816156489318</v>
+        <v>1.695308311776047</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.283091925871158</v>
+        <v>1.502891702961601</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1954,7 +1954,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" t="s">
         <v>47</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.785881567078013</v>
+        <v>1.386779855112779</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.710719972122652</v>
+        <v>1.538938987579735</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.348811130368459</v>
+        <v>1.550431395445685</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2014,7 +2014,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C43" t="s">
         <v>50</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.616455774034956</v>
+        <v>1.455075488357793</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F44">
-        <v>1.695024888477592</v>
+        <v>1.368797715266006</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>1.256704241554904</v>
+        <v>1.611718932482944</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2074,7 +2074,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C46" t="s">
         <v>53</v>
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F46">
-        <v>1.477782503939235</v>
+        <v>1.283991855896417</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.245888038061794</v>
+        <v>1.648770302885889</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.723631271650352</v>
+        <v>1.660589079991138</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>1.559017662190094</v>
+        <v>1.48374075514086</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.690996512918286</v>
+        <v>1.342305097349161</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.482239492168794</v>
+        <v>1.681820008311908</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.508865257262032</v>
+        <v>1.416899947076738</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2214,7 +2214,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
         <v>60</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F53">
-        <v>1.827543062610697</v>
+        <v>1.682532958576597</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C54" t="s">
         <v>61</v>
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54">
-        <v>1.667077679985012</v>
+        <v>1.356378352979496</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2254,7 +2254,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
         <v>62</v>
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.568720438832306</v>
+        <v>1.377292033451907</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.427114913549255</v>
+        <v>1.307476996007094</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2306,7 +2306,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>1.613791150590235</v>
+        <v>1.504040846001816</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.737111047850791</v>
+        <v>1.300186908669414</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2346,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="F59">
-        <v>1.517869594752669</v>
+        <v>1.466448850441867</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2354,7 +2354,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C60" t="s">
         <v>67</v>
@@ -2363,10 +2363,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60">
-        <v>1.807923940495515</v>
+        <v>1.447736239402407</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.549549315888045</v>
+        <v>1.627746134420973</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.558795181661128</v>
+        <v>1.663203301894173</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.516318756855997</v>
+        <v>1.514743395510264</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.602205921035581</v>
+        <v>1.194857936972282</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2454,7 +2454,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
         <v>72</v>
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.584377637877831</v>
+        <v>1.48617714350601</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2474,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C66" t="s">
         <v>73</v>
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.412586452480895</v>
+        <v>1.712846326662667</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.545136841187116</v>
+        <v>1.444581015316871</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.642984180035376</v>
+        <v>1.413553891349071</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.354871461288067</v>
+        <v>1.662801674807151</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2566,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="F70">
-        <v>1.511789890597498</v>
+        <v>1.200103871896937</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.646159522621971</v>
+        <v>1.772566096215055</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2594,7 +2594,7 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C72" t="s">
         <v>79</v>
@@ -2606,7 +2606,7 @@
         <v>0</v>
       </c>
       <c r="F72">
-        <v>1.702960689943979</v>
+        <v>1.549140400263301</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.527847640077171</v>
+        <v>1.194588614374178</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.348198444941052</v>
+        <v>1.601682513833347</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.400719877731462</v>
+        <v>1.693969170335833</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2674,7 +2674,7 @@
         <v>10</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
         <v>83</v>
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.60510988386493</v>
+        <v>1.404373226609291</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.550286624346333</v>
+        <v>1.326819850851875</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.405997898848452</v>
+        <v>1.470920619194056</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2734,7 +2734,7 @@
         <v>13</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C79" t="s">
         <v>86</v>
@@ -2746,7 +2746,7 @@
         <v>0</v>
       </c>
       <c r="F79">
-        <v>1.577869238337685</v>
+        <v>1.857860250861048</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2763,10 +2763,10 @@
         <v>1</v>
       </c>
       <c r="E80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F80">
-        <v>1.424980302844383</v>
+        <v>1.303848716596507</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2774,7 +2774,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C81" t="s">
         <v>88</v>
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F81">
-        <v>1.574197693382242</v>
+        <v>1.44916762528584</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.403424914608415</v>
+        <v>1.338234287620851</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2823,10 +2823,10 @@
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
-        <v>1.59054748559113</v>
+        <v>1.245702131576275</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.297154164267988</v>
+        <v>1.456476012540843</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.547969863598962</v>
+        <v>1.302073738794433</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.624346155958231</v>
+        <v>1.463101767871616</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.694830636209306</v>
+        <v>1.556241262539282</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2923,10 +2923,10 @@
         <v>1</v>
       </c>
       <c r="E88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>1.379643471554936</v>
+        <v>1.447552171769859</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.403937627957132</v>
+        <v>1.526027256269877</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F90">
-        <v>1.411539780831608</v>
+        <v>1.443181631804188</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.335045053878963</v>
+        <v>1.57549493386593</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.412655989912966</v>
+        <v>1.551774873303956</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.342885537993277</v>
+        <v>1.585619029192636</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.367600240925394</v>
+        <v>1.40893206997171</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.782010480489168</v>
+        <v>1.529545975402981</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F96">
-        <v>1.496499736575315</v>
+        <v>1.45790028300446</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.657363366348942</v>
+        <v>1.819914317874506</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3126,7 +3126,7 @@
         <v>0</v>
       </c>
       <c r="F98">
-        <v>1.794739796818541</v>
+        <v>1.578792259828006</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.75490043058138</v>
+        <v>1.544921553734394</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.552905872663777</v>
+        <v>1.383319637360174</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.526513514997001</v>
+        <v>1.317046940649074</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.524237027512289</v>
+        <v>1.351845794728339</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3223,10 +3223,10 @@
         <v>1</v>
       </c>
       <c r="E103">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F103">
-        <v>1.461869447746137</v>
+        <v>1.489684767034244</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3234,7 +3234,7 @@
         <v>38</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
         <v>111</v>
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.382018201019548</v>
+        <v>1.325382242864166</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.431412583729602</v>
+        <v>1.677005351293741</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3274,7 +3274,7 @@
         <v>40</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C106" t="s">
         <v>113</v>
@@ -3286,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="F106">
-        <v>1.543753285445809</v>
+        <v>1.502890318752993</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F107">
-        <v>1.699088422911721</v>
+        <v>1.263455262866521</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="F108">
-        <v>1.305200841306342</v>
+        <v>1.26319243761531</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.486433089406486</v>
+        <v>1.461580676175755</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3354,7 +3354,7 @@
         <v>44</v>
       </c>
       <c r="B110" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C110" t="s">
         <v>117</v>
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.311128909126437</v>
+        <v>1.466070964211999</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.512612020399948</v>
+        <v>1.499670854073112</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.542949344882458</v>
+        <v>1.524984268563603</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3423,10 +3423,10 @@
         <v>1</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F113">
-        <v>1.475445000524373</v>
+        <v>1.601358041274378</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.375485433465867</v>
+        <v>1.594543476520851</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F115">
-        <v>1.449835739516961</v>
+        <v>1.460996160559377</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3483,10 +3483,10 @@
         <v>1</v>
       </c>
       <c r="E116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116">
-        <v>1.477160904789738</v>
+        <v>1.426466402637467</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.561840931651617</v>
+        <v>1.476040755192711</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118">
-        <v>1.42741648130527</v>
+        <v>1.60939743690929</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3543,10 +3543,10 @@
         <v>1</v>
       </c>
       <c r="E119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F119">
-        <v>1.557108105764064</v>
+        <v>1.529104130737104</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3554,7 +3554,7 @@
         <v>54</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C120" t="s">
         <v>127</v>
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.323542041240108</v>
+        <v>1.416452679265233</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3586,7 +3586,7 @@
         <v>0</v>
       </c>
       <c r="F121">
-        <v>1.654425558809736</v>
+        <v>1.563865332344276</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3606,7 +3606,7 @@
         <v>0</v>
       </c>
       <c r="F122">
-        <v>1.609329797915002</v>
+        <v>1.321785240714974</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F123">
-        <v>1.226465629085168</v>
+        <v>1.564598632010795</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.663161698283682</v>
+        <v>1.302851013298009</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.572924031341224</v>
+        <v>1.633586816661559</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.658701068046451</v>
+        <v>1.55104107136364</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3694,7 +3694,7 @@
         <v>61</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
         <v>134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.495986531709482</v>
+        <v>1.260962906988178</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3714,7 +3714,7 @@
         <v>62</v>
       </c>
       <c r="B128" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
         <v>135</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.605681796363091</v>
+        <v>1.621375901969975</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3746,7 +3746,7 @@
         <v>0</v>
       </c>
       <c r="F129">
-        <v>1.508054750273853</v>
+        <v>1.574415170165695</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.299561372571471</v>
+        <v>1.486352980658535</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3786,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="F131">
-        <v>1.366628846878485</v>
+        <v>1.390394664367621</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.429281898459982</v>
+        <v>1.439194968569734</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.450098755758437</v>
+        <v>1.516988445482778</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3846,7 +3846,7 @@
         <v>0</v>
       </c>
       <c r="F134">
-        <v>1.866631593326399</v>
+        <v>1.57230239371533</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.244576470972618</v>
+        <v>1.539555871765751</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.785529649284867</v>
+        <v>1.402616661269096</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3906,7 +3906,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>1.359136683025003</v>
+        <v>1.514616689910193</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.484864338005252</v>
+        <v>1.608749687834625</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3943,10 +3943,10 @@
         <v>2</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F139">
-        <v>1.508556234736964</v>
+        <v>1.640311727242507</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3954,7 +3954,7 @@
         <v>10</v>
       </c>
       <c r="B140" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C140" t="s">
         <v>147</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.720338807448431</v>
+        <v>1.509183872501532</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.092344298639872</v>
+        <v>1.661332748340437</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3994,7 +3994,7 @@
         <v>12</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C142" t="s">
         <v>149</v>
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.363780665882308</v>
+        <v>1.383666431339982</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.567723508406705</v>
+        <v>1.613261536299585</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.376858664409072</v>
+        <v>1.112692387216821</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4063,10 +4063,10 @@
         <v>2</v>
       </c>
       <c r="E145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F145">
-        <v>1.68737142248237</v>
+        <v>1.572816397052251</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.645861276579402</v>
+        <v>1.504010248293635</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.142843106208095</v>
+        <v>1.530911139735698</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.423941054153854</v>
+        <v>1.424889426043386</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4146,7 +4146,7 @@
         <v>0</v>
       </c>
       <c r="F149">
-        <v>1.716837019314815</v>
+        <v>1.529018413293844</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F150">
-        <v>1.402211089008194</v>
+        <v>1.612659953250004</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4174,7 +4174,7 @@
         <v>21</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C151" t="s">
         <v>158</v>
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.397945910952155</v>
+        <v>1.584215537976522</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F152">
-        <v>1.83422162148018</v>
+        <v>1.818032755898006</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.571352710997021</v>
+        <v>1.5328207187767</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F154">
-        <v>1.499286173212056</v>
+        <v>1.627760603103338</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.480750904679674</v>
+        <v>1.641004202270101</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4274,7 +4274,7 @@
         <v>26</v>
       </c>
       <c r="B156" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C156" t="s">
         <v>163</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="F156">
-        <v>1.622166720626421</v>
+        <v>1.420339870580651</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4294,7 +4294,7 @@
         <v>27</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C157" t="s">
         <v>164</v>
@@ -4303,10 +4303,10 @@
         <v>2</v>
       </c>
       <c r="E157">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F157">
-        <v>1.260275997076897</v>
+        <v>1.509104114138803</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.439945885522036</v>
+        <v>1.688949006928571</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4334,7 +4334,7 @@
         <v>29</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
         <v>166</v>
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.478674692313318</v>
+        <v>1.412952045446683</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4354,7 +4354,7 @@
         <v>30</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C160" t="s">
         <v>167</v>
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.512784982295975</v>
+        <v>1.712560259205354</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F161">
-        <v>1.443208958446687</v>
+        <v>1.478063096671849</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F162">
-        <v>1.30121560353652</v>
+        <v>1.42676301225769</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.381237614850936</v>
+        <v>1.404015603809025</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.725451988262267</v>
+        <v>1.757518067582723</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
         <v>172</v>
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.414657263359096</v>
+        <v>1.420597931026452</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.426819211298851</v>
+        <v>1.644184026472664</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4506,7 +4506,7 @@
         <v>0</v>
       </c>
       <c r="F167">
-        <v>1.536611736170355</v>
+        <v>1.55882283430512</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4526,7 +4526,7 @@
         <v>0</v>
       </c>
       <c r="F168">
-        <v>1.82756464645876</v>
+        <v>1.352929695023206</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.62713661155225</v>
+        <v>1.466226996111843</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.40363049948419</v>
+        <v>1.645865331088754</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F171">
-        <v>1.767805129209677</v>
+        <v>1.720064365964875</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.264448349094665</v>
+        <v>1.582379614529722</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4614,7 +4614,7 @@
         <v>43</v>
       </c>
       <c r="B173" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
         <v>180</v>
@@ -4623,10 +4623,10 @@
         <v>2</v>
       </c>
       <c r="E173">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F173">
-        <v>1.692225702288117</v>
+        <v>1.462770132792751</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.613425916072063</v>
+        <v>1.572684750683421</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.346059679249147</v>
+        <v>1.645782155359265</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F176">
-        <v>1.538487330071882</v>
+        <v>1.378476962085435</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.226844606654266</v>
+        <v>1.737742286167012</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.306426143490855</v>
+        <v>1.508492242658651</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4734,7 +4734,7 @@
         <v>49</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C179" t="s">
         <v>186</v>
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.300531726647321</v>
+        <v>1.244911977457868</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.326240416698646</v>
+        <v>1.696269563331534</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.506703321405088</v>
+        <v>1.444010439513486</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4794,7 +4794,7 @@
         <v>52</v>
       </c>
       <c r="B182" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C182" t="s">
         <v>189</v>
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.404499607321159</v>
+        <v>1.481619428615677</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.46674618170318</v>
+        <v>1.65584845892288</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.530195474049356</v>
+        <v>1.514770861047699</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4854,7 +4854,7 @@
         <v>55</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C185" t="s">
         <v>192</v>
@@ -4863,10 +4863,10 @@
         <v>2</v>
       </c>
       <c r="E185">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185">
-        <v>1.523335285415951</v>
+        <v>1.304587234819202</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4874,7 +4874,7 @@
         <v>56</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
         <v>193</v>
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.743600265525307</v>
+        <v>1.40577632859492</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.47209757138554</v>
+        <v>1.314127729442792</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4923,10 +4923,10 @@
         <v>2</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>1.627524807342245</v>
+        <v>1.335916308789595</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4934,7 +4934,7 @@
         <v>59</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C189" t="s">
         <v>196</v>
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F189">
-        <v>1.466480198111223</v>
+        <v>1.696123498401698</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.760935617706878</v>
+        <v>1.643161740496207</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4983,10 +4983,10 @@
         <v>2</v>
       </c>
       <c r="E191">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191">
-        <v>1.363114639986778</v>
+        <v>1.584796998424841</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.520879716241008</v>
+        <v>1.352125375325431</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F193">
-        <v>1.642960246637859</v>
+        <v>1.396578797048215</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5034,7 +5034,7 @@
         <v>0</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
         <v>201</v>
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F194">
-        <v>1.652433691688793</v>
+        <v>1.209243868816119</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.514508877163292</v>
+        <v>1.505064782435531</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5074,7 +5074,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C196" t="s">
         <v>203</v>
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.531244185081131</v>
+        <v>1.562179203529144</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5106,7 +5106,7 @@
         <v>0</v>
       </c>
       <c r="F197">
-        <v>1.773483421352057</v>
+        <v>1.259276280786136</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5114,7 +5114,7 @@
         <v>4</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C198" t="s">
         <v>205</v>
@@ -5126,7 +5126,7 @@
         <v>0</v>
       </c>
       <c r="F198">
-        <v>1.497997280658992</v>
+        <v>1.365631596888332</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5143,10 +5143,10 @@
         <v>3</v>
       </c>
       <c r="E199">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199">
-        <v>1.38422210279774</v>
+        <v>1.270100729469689</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.593407761748189</v>
+        <v>1.280523626728221</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.578196642241461</v>
+        <v>1.64105225242326</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.385100987992211</v>
+        <v>1.403039963772077</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.261983445759518</v>
+        <v>1.553331272726339</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5246,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="F204">
-        <v>1.659273890527872</v>
+        <v>1.307492075463349</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.530993371434162</v>
+        <v>1.430162329550088</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5274,7 +5274,7 @@
         <v>12</v>
       </c>
       <c r="B206" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C206" t="s">
         <v>213</v>
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.616646614086253</v>
+        <v>1.512596421829294</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.602630003300101</v>
+        <v>1.397093693299156</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5326,7 +5326,7 @@
         <v>1</v>
       </c>
       <c r="F208">
-        <v>1.551434598113915</v>
+        <v>1.246153545136729</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.534306801685311</v>
+        <v>1.655753692251227</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.508435560607333</v>
+        <v>1.360921029714657</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.293825022450027</v>
+        <v>1.690412174427648</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.399590814501352</v>
+        <v>1.271995783195157</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5423,10 +5423,10 @@
         <v>3</v>
       </c>
       <c r="E213">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F213">
-        <v>1.751632981858534</v>
+        <v>1.320454468792815</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F214">
-        <v>1.657724976576654</v>
+        <v>1.523681414452017</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5463,10 +5463,10 @@
         <v>3</v>
       </c>
       <c r="E215">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F215">
-        <v>1.434602898297778</v>
+        <v>1.566612561310716</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.535796965026378</v>
+        <v>1.229057519880266</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5506,7 +5506,7 @@
         <v>0</v>
       </c>
       <c r="F217">
-        <v>1.333633773017796</v>
+        <v>1.401964344740014</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.455150844951265</v>
+        <v>1.34044827926384</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F219">
-        <v>1.676314383282966</v>
+        <v>1.50679602409002</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.579623305662358</v>
+        <v>1.694760745330472</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.571937315315976</v>
+        <v>1.506165035785681</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.161052315629006</v>
+        <v>1.438901767883445</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.433520291477718</v>
+        <v>1.489900358228795</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.63981171574264</v>
+        <v>1.507313554750755</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.591745896251587</v>
+        <v>1.663093427751559</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.67446177703566</v>
+        <v>1.624141024484852</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F227">
-        <v>1.667834973263171</v>
+        <v>1.466247418466602</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.764921800230312</v>
+        <v>1.323578340205882</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.475976414401929</v>
+        <v>1.561243205885245</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5754,7 +5754,7 @@
         <v>36</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230" t="s">
         <v>237</v>
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.567136151628982</v>
+        <v>1.641039114013026</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.309807404351238</v>
+        <v>1.398400271919516</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.587343641699699</v>
+        <v>1.505397257492333</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F233">
-        <v>1.504842330959059</v>
+        <v>1.500243548883247</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.72766820517705</v>
+        <v>1.543353166073732</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.377990543877291</v>
+        <v>1.701697831739248</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5874,7 +5874,7 @@
         <v>42</v>
       </c>
       <c r="B236" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C236" t="s">
         <v>243</v>
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.498571319831978</v>
+        <v>1.347655802340174</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.517558299025176</v>
+        <v>1.548078624230249</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.630017838179111</v>
+        <v>1.311820772472275</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5934,7 +5934,7 @@
         <v>45</v>
       </c>
       <c r="B239" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C239" t="s">
         <v>246</v>
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.500101422648619</v>
+        <v>1.338799145936994</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5966,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="F240">
-        <v>1.535919722821451</v>
+        <v>1.498832823169401</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5983,10 +5983,10 @@
         <v>3</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F241">
-        <v>1.302858462571749</v>
+        <v>1.375072141933328</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.197049208869823</v>
+        <v>1.43624548927783</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F243">
-        <v>1.566736508215874</v>
+        <v>1.443166916617781</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.620384174178645</v>
+        <v>1.534562961259037</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6063,10 +6063,10 @@
         <v>3</v>
       </c>
       <c r="E245">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F245">
-        <v>1.296838049217865</v>
+        <v>1.525155693527643</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.661168897181736</v>
+        <v>1.512003225293548</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F247">
-        <v>1.396353573798163</v>
+        <v>1.70587320795822</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.556251176759598</v>
+        <v>1.620576522384791</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.448331130667286</v>
+        <v>1.745288825973445</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.353664832503245</v>
+        <v>1.32795885516749</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6174,7 +6174,7 @@
         <v>57</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C251" t="s">
         <v>258</v>
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.479104825392035</v>
+        <v>1.515306509488619</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.435726431483484</v>
+        <v>1.433964131375697</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6223,10 +6223,10 @@
         <v>3</v>
       </c>
       <c r="E253">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F253">
-        <v>1.332994329752271</v>
+        <v>1.423282760844033</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.550395993316216</v>
+        <v>1.392147459807453</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6254,7 +6254,7 @@
         <v>61</v>
       </c>
       <c r="B255" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C255" t="s">
         <v>262</v>
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.531575347595663</v>
+        <v>1.343051293110087</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F256">
-        <v>1.259300327443747</v>
+        <v>1.551763410235188</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.792165060347941</v>
+        <v>1.562384779403509</v>
       </c>
     </row>
   </sheetData>

--- a/sequences/12_localizer.xlsx
+++ b/sequences/12_localizer.xlsx
@@ -31,784 +31,784 @@
     <t>iti</t>
   </si>
   <si>
+    <t>flower</t>
+  </si>
+  <si>
+    <t>dog</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
     <t>house</t>
   </si>
   <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>dog</t>
-  </si>
-  <si>
-    <t>flower</t>
+    <t>flower/flower038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog047.jpg</t>
+  </si>
+  <si>
+    <t>face/face039.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog034.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower035.jpg</t>
+  </si>
+  <si>
+    <t>house/house039.jpg</t>
+  </si>
+  <si>
+    <t>face/face037.jpg</t>
+  </si>
+  <si>
+    <t>face/face036.jpg</t>
+  </si>
+  <si>
+    <t>house/house033.jpg</t>
+  </si>
+  <si>
+    <t>house/house046.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower042.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower037.jpg</t>
+  </si>
+  <si>
+    <t>face/face043.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog041.jpg</t>
+  </si>
+  <si>
+    <t>house/house044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower046.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower047.jpg</t>
+  </si>
+  <si>
+    <t>house/house035.jpg</t>
   </si>
   <si>
     <t>house/house042.jpg</t>
   </si>
   <si>
+    <t>face/face035.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower039.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower049.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower044.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog043.jpg</t>
+  </si>
+  <si>
+    <t>house/house038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog040.jpg</t>
+  </si>
+  <si>
     <t>face/face032.jpg</t>
   </si>
   <si>
-    <t>dog/dog042.jpg</t>
+    <t>face/face034.jpg</t>
+  </si>
+  <si>
+    <t>face/face047.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower036.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog036.jpg</t>
   </si>
   <si>
     <t>dog/dog037.jpg</t>
   </si>
   <si>
-    <t>house/house046.jpg</t>
-  </si>
-  <si>
-    <t>face/face047.jpg</t>
+    <t>face/face044.jpg</t>
+  </si>
+  <si>
+    <t>house/house041.jpg</t>
   </si>
   <si>
     <t>face/face042.jpg</t>
   </si>
   <si>
-    <t>flower/flower046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower042.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower037.jpg</t>
+    <t>dog/dog039.jpg</t>
+  </si>
+  <si>
+    <t>face/face045.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower045.jpg</t>
+  </si>
+  <si>
+    <t>house/house043.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower041.jpg</t>
+  </si>
+  <si>
+    <t>face/face040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower043.jpg</t>
+  </si>
+  <si>
+    <t>face/face038.jpg</t>
+  </si>
+  <si>
+    <t>face/face033.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog044.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower040.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog033.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower034.jpg</t>
+  </si>
+  <si>
+    <t>face/face046.jpg</t>
+  </si>
+  <si>
+    <t>house/house032.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog045.jpg</t>
+  </si>
+  <si>
+    <t>house/house036.jpg</t>
+  </si>
+  <si>
+    <t>house/house047.jpg</t>
+  </si>
+  <si>
+    <t>house/house040.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower048.jpg</t>
+  </si>
+  <si>
+    <t>house/house034.jpg</t>
   </si>
   <si>
     <t>dog/dog035.jpg</t>
   </si>
   <si>
-    <t>dog/dog041.jpg</t>
-  </si>
-  <si>
-    <t>face/face034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog039.jpg</t>
-  </si>
-  <si>
-    <t>face/face043.jpg</t>
-  </si>
-  <si>
-    <t>house/house040.jpg</t>
-  </si>
-  <si>
-    <t>face/face035.jpg</t>
-  </si>
-  <si>
-    <t>house/house047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower034.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower039.jpg</t>
+    <t>dog/dog038.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog046.jpg</t>
+  </si>
+  <si>
+    <t>house/house045.jpg</t>
   </si>
   <si>
     <t>face/face041.jpg</t>
   </si>
   <si>
-    <t>face/face039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog047.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower040.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog044.jpg</t>
-  </si>
-  <si>
-    <t>house/house035.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower036.jpg</t>
-  </si>
-  <si>
-    <t>face/face033.jpg</t>
-  </si>
-  <si>
-    <t>house/house039.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog045.jpg</t>
-  </si>
-  <si>
-    <t>house/house036.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog032.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower038.jpg</t>
-  </si>
-  <si>
-    <t>house/house045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower047.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog046.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower045.jpg</t>
-  </si>
-  <si>
-    <t>house/house032.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog034.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog036.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower048.jpg</t>
-  </si>
-  <si>
-    <t>face/face038.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog040.jpg</t>
-  </si>
-  <si>
-    <t>house/house038.jpg</t>
-  </si>
-  <si>
-    <t>house/house034.jpg</t>
-  </si>
-  <si>
-    <t>face/face040.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower043.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog038.jpg</t>
-  </si>
-  <si>
-    <t>face/face037.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower044.jpg</t>
-  </si>
-  <si>
-    <t>face/face045.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower049.jpg</t>
-  </si>
-  <si>
     <t>house/house037.jpg</t>
   </si>
   <si>
-    <t>house/house033.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog043.jpg</t>
-  </si>
-  <si>
-    <t>face/face036.jpg</t>
-  </si>
-  <si>
-    <t>face/face046.jpg</t>
-  </si>
-  <si>
-    <t>face/face044.jpg</t>
-  </si>
-  <si>
-    <t>house/house043.jpg</t>
-  </si>
-  <si>
-    <t>house/house044.jpg</t>
-  </si>
-  <si>
-    <t>house/house041.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower035.jpg</t>
+    <t>flower/flower054.jpg</t>
+  </si>
+  <si>
+    <t>house/house060.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog057.jpg</t>
+  </si>
+  <si>
+    <t>house/house058.jpg</t>
+  </si>
+  <si>
+    <t>house/house054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog054.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog050.jpg</t>
+  </si>
+  <si>
+    <t>house/house050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower050.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower063.jpg</t>
+  </si>
+  <si>
+    <t>house/house051.jpg</t>
+  </si>
+  <si>
+    <t>house/house063.jpg</t>
+  </si>
+  <si>
+    <t>face/face055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog063.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog058.jpg</t>
+  </si>
+  <si>
+    <t>house/house056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog051.jpg</t>
+  </si>
+  <si>
+    <t>face/face048.jpg</t>
+  </si>
+  <si>
+    <t>house/house057.jpg</t>
+  </si>
+  <si>
+    <t>face/face063.jpg</t>
+  </si>
+  <si>
+    <t>face/face059.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower059.jpg</t>
+  </si>
+  <si>
+    <t>house/house048.jpg</t>
+  </si>
+  <si>
+    <t>face/face051.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog049.jpg</t>
+  </si>
+  <si>
+    <t>house/house062.jpg</t>
+  </si>
+  <si>
+    <t>face/face056.jpg</t>
+  </si>
+  <si>
+    <t>house/house052.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower060.jpg</t>
+  </si>
+  <si>
+    <t>face/face053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower057.jpg</t>
+  </si>
+  <si>
+    <t>face/face060.jpg</t>
   </si>
   <si>
     <t>house/house049.jpg</t>
   </si>
   <si>
+    <t>dog/dog055.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower055.jpg</t>
+  </si>
+  <si>
+    <t>house/house053.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower064.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog059.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog048.jpg</t>
+  </si>
+  <si>
+    <t>face/face052.jpg</t>
+  </si>
+  <si>
+    <t>face/face061.jpg</t>
+  </si>
+  <si>
+    <t>face/face050.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog060.jpg</t>
+  </si>
+  <si>
+    <t>face/face049.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog056.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog053.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower061.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower052.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog052.jpg</t>
+  </si>
+  <si>
+    <t>face/face062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower065.jpg</t>
+  </si>
+  <si>
     <t>face/face054.jpg</t>
   </si>
   <si>
-    <t>flower/flower052.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower059.jpg</t>
-  </si>
-  <si>
-    <t>face/face052.jpg</t>
-  </si>
-  <si>
-    <t>face/face060.jpg</t>
-  </si>
-  <si>
-    <t>face/face051.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower063.jpg</t>
+    <t>flower/flower058.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower062.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower056.jpg</t>
+  </si>
+  <si>
+    <t>face/face058.jpg</t>
   </si>
   <si>
     <t>face/face057.jpg</t>
   </si>
   <si>
-    <t>flower/flower050.jpg</t>
-  </si>
-  <si>
-    <t>house/house058.jpg</t>
-  </si>
-  <si>
-    <t>face/face053.jpg</t>
-  </si>
-  <si>
-    <t>house/house060.jpg</t>
-  </si>
-  <si>
     <t>house/house055.jpg</t>
   </si>
   <si>
-    <t>house/house056.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog057.jpg</t>
-  </si>
-  <si>
-    <t>house/house063.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower065.jpg</t>
-  </si>
-  <si>
-    <t>face/face062.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog048.jpg</t>
-  </si>
-  <si>
-    <t>house/house048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog061.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog059.jpg</t>
-  </si>
-  <si>
-    <t>face/face048.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog062.jpg</t>
-  </si>
-  <si>
-    <t>face/face059.jpg</t>
-  </si>
-  <si>
-    <t>house/house050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog054.jpg</t>
-  </si>
-  <si>
-    <t>face/face055.jpg</t>
-  </si>
-  <si>
-    <t>face/face061.jpg</t>
-  </si>
-  <si>
-    <t>house/house051.jpg</t>
-  </si>
-  <si>
-    <t>face/face049.jpg</t>
-  </si>
-  <si>
-    <t>face/face058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog051.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog055.jpg</t>
-  </si>
-  <si>
-    <t>face/face050.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower064.jpg</t>
-  </si>
-  <si>
-    <t>face/face056.jpg</t>
+    <t>house/house059.jpg</t>
   </si>
   <si>
     <t>house/house061.jpg</t>
   </si>
   <si>
-    <t>flower/flower054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog058.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog056.jpg</t>
-  </si>
-  <si>
-    <t>house/house059.jpg</t>
-  </si>
-  <si>
-    <t>house/house057.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower060.jpg</t>
-  </si>
-  <si>
-    <t>house/house054.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog050.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog049.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog053.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower056.jpg</t>
-  </si>
-  <si>
-    <t>house/house053.jpg</t>
-  </si>
-  <si>
-    <t>house/house062.jpg</t>
-  </si>
-  <si>
-    <t>face/face063.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog060.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower062.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower055.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower057.jpg</t>
-  </si>
-  <si>
-    <t>house/house052.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower058.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower061.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog063.jpg</t>
+    <t>face/face077.jpg</t>
+  </si>
+  <si>
+    <t>house/house072.jpg</t>
+  </si>
+  <si>
+    <t>face/face070.jpg</t>
+  </si>
+  <si>
+    <t>face/face074.jpg</t>
+  </si>
+  <si>
+    <t>face/face078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower069.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower077.jpg</t>
+  </si>
+  <si>
+    <t>house/house079.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog074.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog066.jpg</t>
+  </si>
+  <si>
+    <t>face/face075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower079.jpg</t>
+  </si>
+  <si>
+    <t>face/face073.jpg</t>
+  </si>
+  <si>
+    <t>face/face072.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog078.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog072.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog079.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower068.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog070.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower066.jpg</t>
+  </si>
+  <si>
+    <t>house/house078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower075.jpg</t>
+  </si>
+  <si>
+    <t>house/house070.jpg</t>
+  </si>
+  <si>
+    <t>face/face064.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower081.jpg</t>
+  </si>
+  <si>
+    <t>house/house064.jpg</t>
+  </si>
+  <si>
+    <t>house/house074.jpg</t>
+  </si>
+  <si>
+    <t>face/face069.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog067.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog076.jpg</t>
+  </si>
+  <si>
+    <t>house/house077.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog073.jpg</t>
+  </si>
+  <si>
+    <t>house/house067.jpg</t>
+  </si>
+  <si>
+    <t>face/face067.jpg</t>
+  </si>
+  <si>
+    <t>house/house071.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog064.jpg</t>
+  </si>
+  <si>
+    <t>face/face076.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog068.jpg</t>
+  </si>
+  <si>
+    <t>face/face071.jpg</t>
+  </si>
+  <si>
+    <t>house/house069.jpg</t>
+  </si>
+  <si>
+    <t>house/house065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog077.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower067.jpg</t>
+  </si>
+  <si>
+    <t>face/face066.jpg</t>
   </si>
   <si>
     <t>flower/flower070.jpg</t>
   </si>
   <si>
-    <t>face/face066.jpg</t>
-  </si>
-  <si>
-    <t>house/house072.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower079.jpg</t>
-  </si>
-  <si>
-    <t>house/house065.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog074.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog073.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog076.jpg</t>
-  </si>
-  <si>
-    <t>face/face064.jpg</t>
-  </si>
-  <si>
-    <t>house/house078.jpg</t>
-  </si>
-  <si>
-    <t>face/face075.jpg</t>
-  </si>
-  <si>
-    <t>house/house079.jpg</t>
-  </si>
-  <si>
-    <t>house/house077.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog079.jpg</t>
+    <t>face/face065.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog065.jpg</t>
+  </si>
+  <si>
+    <t>house/house075.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower074.jpg</t>
+  </si>
+  <si>
+    <t>face/face068.jpg</t>
+  </si>
+  <si>
+    <t>house/house076.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog075.jpg</t>
+  </si>
+  <si>
+    <t>house/house073.jpg</t>
   </si>
   <si>
     <t>house/house068.jpg</t>
   </si>
   <si>
-    <t>flower/flower076.jpg</t>
-  </si>
-  <si>
-    <t>face/face067.jpg</t>
+    <t>house/house066.jpg</t>
   </si>
   <si>
     <t>flower/flower071.jpg</t>
   </si>
   <si>
-    <t>flower/flower077.jpg</t>
-  </si>
-  <si>
-    <t>house/house076.jpg</t>
-  </si>
-  <si>
-    <t>face/face074.jpg</t>
+    <t>flower/flower078.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower073.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog071.jpg</t>
   </si>
   <si>
     <t>face/face079.jpg</t>
   </si>
   <si>
-    <t>dog/dog071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower067.jpg</t>
-  </si>
-  <si>
-    <t>face/face078.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog064.jpg</t>
-  </si>
-  <si>
-    <t>house/house070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog077.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower066.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog070.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog068.jpg</t>
-  </si>
-  <si>
-    <t>house/house075.jpg</t>
-  </si>
-  <si>
-    <t>face/face072.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog075.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower074.jpg</t>
-  </si>
-  <si>
-    <t>house/house067.jpg</t>
-  </si>
-  <si>
-    <t>house/house069.jpg</t>
-  </si>
-  <si>
-    <t>house/house073.jpg</t>
-  </si>
-  <si>
-    <t>face/face069.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower080.jpg</t>
-  </si>
-  <si>
-    <t>face/face065.jpg</t>
-  </si>
-  <si>
-    <t>face/face076.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower073.jpg</t>
-  </si>
-  <si>
-    <t>house/house074.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower078.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower069.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog072.jpg</t>
-  </si>
-  <si>
-    <t>face/face077.jpg</t>
-  </si>
-  <si>
-    <t>face/face070.jpg</t>
-  </si>
-  <si>
-    <t>face/face068.jpg</t>
-  </si>
-  <si>
-    <t>house/house071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog066.jpg</t>
-  </si>
-  <si>
-    <t>face/face071.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog078.jpg</t>
-  </si>
-  <si>
-    <t>face/face073.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower075.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog065.jpg</t>
-  </si>
-  <si>
-    <t>house/house066.jpg</t>
-  </si>
-  <si>
-    <t>house/house064.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower068.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog067.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower081.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower072.jpg</t>
+    <t>house/house090.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower094.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower092.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog083.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog086.jpg</t>
+  </si>
+  <si>
+    <t>face/face081.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog088.jpg</t>
+  </si>
+  <si>
+    <t>face/face092.jpg</t>
+  </si>
+  <si>
+    <t>face/face082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog092.jpg</t>
+  </si>
+  <si>
+    <t>house/house088.jpg</t>
+  </si>
+  <si>
+    <t>face/face083.jpg</t>
+  </si>
+  <si>
+    <t>house/house095.jpg</t>
+  </si>
+  <si>
+    <t>house/house093.jpg</t>
+  </si>
+  <si>
+    <t>face/face089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower089.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog093.jpg</t>
+  </si>
+  <si>
+    <t>face/face080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower085.jpg</t>
+  </si>
+  <si>
+    <t>face/face087.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower084.jpg</t>
+  </si>
+  <si>
+    <t>house/house081.jpg</t>
+  </si>
+  <si>
+    <t>face/face086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog095.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower090.jpg</t>
+  </si>
+  <si>
+    <t>house/house087.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog089.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower087.jpg</t>
+  </si>
+  <si>
+    <t>face/face095.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog085.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog080.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower086.jpg</t>
+  </si>
+  <si>
+    <t>house/house084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower082.jpg</t>
+  </si>
+  <si>
+    <t>house/house085.jpg</t>
+  </si>
+  <si>
+    <t>house/house089.jpg</t>
+  </si>
+  <si>
+    <t>house/house091.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower096.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog084.jpg</t>
+  </si>
+  <si>
+    <t>house/house094.jpg</t>
+  </si>
+  <si>
+    <t>house/house086.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog082.jpg</t>
+  </si>
+  <si>
+    <t>face/face085.jpg</t>
+  </si>
+  <si>
+    <t>house/house082.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog087.jpg</t>
+  </si>
+  <si>
+    <t>house/house080.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog094.jpg</t>
+  </si>
+  <si>
+    <t>dog/dog090.jpg</t>
+  </si>
+  <si>
+    <t>house/house083.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower083.jpg</t>
+  </si>
+  <si>
+    <t>face/face090.jpg</t>
+  </si>
+  <si>
+    <t>face/face088.jpg</t>
+  </si>
+  <si>
+    <t>house/house092.jpg</t>
+  </si>
+  <si>
+    <t>face/face094.jpg</t>
+  </si>
+  <si>
+    <t>face/face091.jpg</t>
+  </si>
+  <si>
+    <t>face/face084.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower088.jpg</t>
+  </si>
+  <si>
+    <t>flower/flower097.jpg</t>
   </si>
   <si>
     <t>flower/flower093.jpg</t>
   </si>
   <si>
-    <t>flower/flower097.jpg</t>
-  </si>
-  <si>
-    <t>house/house092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower085.jpg</t>
-  </si>
-  <si>
-    <t>house/house089.jpg</t>
-  </si>
-  <si>
-    <t>house/house094.jpg</t>
-  </si>
-  <si>
-    <t>house/house082.jpg</t>
-  </si>
-  <si>
-    <t>face/face085.jpg</t>
-  </si>
-  <si>
-    <t>face/face094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog089.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower091.jpg</t>
-  </si>
-  <si>
-    <t>face/face088.jpg</t>
-  </si>
-  <si>
-    <t>face/face080.jpg</t>
-  </si>
-  <si>
-    <t>face/face090.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower094.jpg</t>
-  </si>
-  <si>
-    <t>house/house084.jpg</t>
-  </si>
-  <si>
-    <t>face/face084.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower083.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog086.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower092.jpg</t>
-  </si>
-  <si>
-    <t>house/house090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog082.jpg</t>
-  </si>
-  <si>
     <t>face/face093.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog080.jpg</t>
-  </si>
-  <si>
-    <t>house/house081.jpg</t>
-  </si>
-  <si>
-    <t>face/face081.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog087.jpg</t>
-  </si>
-  <si>
-    <t>face/face095.jpg</t>
-  </si>
-  <si>
-    <t>house/house095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog094.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog083.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog085.jpg</t>
-  </si>
-  <si>
-    <t>face/face091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower084.jpg</t>
-  </si>
-  <si>
-    <t>face/face082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower087.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower096.jpg</t>
-  </si>
-  <si>
-    <t>face/face089.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog095.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog091.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog081.jpg</t>
-  </si>
-  <si>
-    <t>face/face086.jpg</t>
-  </si>
-  <si>
-    <t>face/face087.jpg</t>
-  </si>
-  <si>
-    <t>house/house083.jpg</t>
-  </si>
-  <si>
-    <t>face/face083.jpg</t>
-  </si>
-  <si>
-    <t>house/house086.jpg</t>
-  </si>
-  <si>
-    <t>house/house085.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog093.jpg</t>
-  </si>
-  <si>
-    <t>house/house088.jpg</t>
-  </si>
-  <si>
-    <t>house/house080.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower089.jpg</t>
-  </si>
-  <si>
-    <t>face/face092.jpg</t>
-  </si>
-  <si>
-    <t>house/house093.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower082.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower088.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog090.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog084.jpg</t>
-  </si>
-  <si>
-    <t>house/house091.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower086.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog088.jpg</t>
-  </si>
-  <si>
-    <t>house/house087.jpg</t>
-  </si>
-  <si>
-    <t>dog/dog092.jpg</t>
-  </si>
-  <si>
-    <t>flower/flower095.jpg</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="F2">
-        <v>1.614441486368713</v>
+        <v>1.436861807516358</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1.388395693963546</v>
+        <v>1.379835899014897</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>1.413115467183178</v>
+        <v>1.520164597939823</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1254,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>12</v>
@@ -1266,7 +1266,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>1.457635243576428</v>
+        <v>1.599322766779818</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1283,10 +1283,10 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>1.505726561789891</v>
+        <v>1.671174181177847</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1294,7 +1294,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>14</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>1.486422997823879</v>
+        <v>1.706375884800676</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1314,7 +1314,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>1.401680606470209</v>
+        <v>1.467798530599254</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1334,7 +1334,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>16</v>
@@ -1346,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1.327451611442167</v>
+        <v>1.473258103245988</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1.470067240338088</v>
+        <v>1.309811794342802</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1386,7 +1386,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>1.456951697773656</v>
+        <v>1.55472152550701</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1394,7 +1394,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>19</v>
@@ -1406,7 +1406,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>1.394548247310236</v>
+        <v>1.812167353924794</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1414,7 +1414,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C13" t="s">
         <v>20</v>
@@ -1426,7 +1426,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>1.788661634332018</v>
+        <v>1.655715432955707</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1434,7 +1434,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -1446,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>1.405699756435311</v>
+        <v>1.426316137841076</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>1.522851011314966</v>
+        <v>1.249993126147316</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1486,7 +1486,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>1.584769774991834</v>
+        <v>1.615464985266171</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1494,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
         <v>24</v>
@@ -1506,7 +1506,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>1.606880858343171</v>
+        <v>1.441398311743784</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1514,7 +1514,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" t="s">
         <v>25</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>1.614613481825937</v>
+        <v>1.478334993594735</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>1.49548709326267</v>
+        <v>1.509793965966275</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1566,7 +1566,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1.249427194936916</v>
+        <v>1.52104801677055</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1583,10 +1583,10 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>1.669156950729677</v>
+        <v>1.368716555404233</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1594,7 +1594,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
         <v>29</v>
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>1.616070995302559</v>
+        <v>1.763290278947669</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1614,7 +1614,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>1.238304709771445</v>
+        <v>1.532802860048015</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1634,7 +1634,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
@@ -1646,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>1.656958007746993</v>
+        <v>1.495490526331627</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1654,7 +1654,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25" t="s">
         <v>32</v>
@@ -1663,10 +1663,10 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>1.467089870598235</v>
+        <v>1.590189328163794</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1674,7 +1674,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
         <v>33</v>
@@ -1686,7 +1686,7 @@
         <v>1</v>
       </c>
       <c r="F26">
-        <v>1.547410787479897</v>
+        <v>1.314102967007011</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1694,7 +1694,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
         <v>34</v>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>1.573600487271466</v>
+        <v>1.652415067333981</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1714,7 +1714,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C28" t="s">
         <v>35</v>
@@ -1726,7 +1726,7 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>1.668457572107658</v>
+        <v>1.297041593144157</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1734,7 +1734,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29" t="s">
         <v>36</v>
@@ -1746,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <v>1.516080260247772</v>
+        <v>1.822821163431751</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1754,7 +1754,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C30" t="s">
         <v>37</v>
@@ -1763,10 +1763,10 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1.609291762467418</v>
+        <v>1.45767987014751</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1786,7 +1786,7 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>1.378086626726646</v>
+        <v>1.566117512644352</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1803,10 +1803,10 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>1.645145968040182</v>
+        <v>1.520381854174035</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1814,7 +1814,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C33" t="s">
         <v>40</v>
@@ -1823,10 +1823,10 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F33">
-        <v>1.458444730223947</v>
+        <v>1.477056418463973</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1834,7 +1834,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
         <v>41</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>1.295672505662391</v>
+        <v>1.627102363684233</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1854,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35" t="s">
         <v>42</v>
@@ -1866,7 +1866,7 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>1.403846331086189</v>
+        <v>1.541225356738587</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>1.732437721603987</v>
+        <v>1.714330569786866</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1906,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>1.600335090973735</v>
+        <v>1.547366145357046</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C38" t="s">
         <v>45</v>
@@ -1926,7 +1926,7 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>1.695308311776047</v>
+        <v>1.613420055735221</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1934,7 +1934,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C39" t="s">
         <v>46</v>
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>1.502891702961601</v>
+        <v>1.67584555699078</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1.386779855112779</v>
+        <v>1.399211669090012</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1974,7 +1974,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>48</v>
@@ -1986,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>1.538938987579735</v>
+        <v>1.666259494045394</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1994,7 +1994,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <v>1.550431395445685</v>
+        <v>1.291118686071262</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>1.455075488357793</v>
+        <v>1.482303890457189</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2034,7 +2034,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
@@ -2043,10 +2043,10 @@
         <v>0</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
-        <v>1.368797715266006</v>
+        <v>1.52875716830987</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2054,7 +2054,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C45" t="s">
         <v>52</v>
@@ -2063,10 +2063,10 @@
         <v>0</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F45">
-        <v>1.611718932482944</v>
+        <v>1.257558997423252</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2083,10 +2083,10 @@
         <v>0</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F46">
-        <v>1.283991855896417</v>
+        <v>1.633361967776765</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2094,7 +2094,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C47" t="s">
         <v>54</v>
@@ -2106,7 +2106,7 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <v>1.648770302885889</v>
+        <v>1.497329481206439</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2114,7 +2114,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C48" t="s">
         <v>55</v>
@@ -2126,7 +2126,7 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>1.660589079991138</v>
+        <v>1.520096473811875</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2134,7 +2134,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C49" t="s">
         <v>56</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="E49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F49">
-        <v>1.48374075514086</v>
+        <v>1.341491265230569</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2154,7 +2154,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C50" t="s">
         <v>57</v>
@@ -2166,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1.342305097349161</v>
+        <v>1.357811665718404</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2174,7 +2174,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C51" t="s">
         <v>58</v>
@@ -2186,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="F51">
-        <v>1.681820008311908</v>
+        <v>1.304142589463015</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2194,7 +2194,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C52" t="s">
         <v>59</v>
@@ -2206,7 +2206,7 @@
         <v>0</v>
       </c>
       <c r="F52">
-        <v>1.416899947076738</v>
+        <v>1.766327454632962</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
-        <v>1.682532958576597</v>
+        <v>1.642260587461183</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2243,10 +2243,10 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>1.356378352979496</v>
+        <v>1.420509174625466</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2266,7 +2266,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>1.377292033451907</v>
+        <v>1.296538877450597</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2274,7 +2274,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
         <v>63</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1.307476996007094</v>
+        <v>1.272334149480905</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2294,7 +2294,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
         <v>64</v>
@@ -2303,10 +2303,10 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>1.504040846001816</v>
+        <v>1.542125641684667</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2314,7 +2314,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C58" t="s">
         <v>65</v>
@@ -2326,7 +2326,7 @@
         <v>0</v>
       </c>
       <c r="F58">
-        <v>1.300186908669414</v>
+        <v>1.648323579715855</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
         <v>66</v>
@@ -2343,10 +2343,10 @@
         <v>0</v>
       </c>
       <c r="E59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F59">
-        <v>1.466448850441867</v>
+        <v>1.535948018269194</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="F60">
-        <v>1.447736239402407</v>
+        <v>1.334203678810389</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -2386,7 +2386,7 @@
         <v>0</v>
       </c>
       <c r="F61">
-        <v>1.627746134420973</v>
+        <v>1.629216203004126</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -2394,7 +2394,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C62" t="s">
         <v>69</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F62">
-        <v>1.663203301894173</v>
+        <v>1.277279425917526</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2414,7 +2414,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
         <v>70</v>
@@ -2426,7 +2426,7 @@
         <v>0</v>
       </c>
       <c r="F63">
-        <v>1.514743395510264</v>
+        <v>1.604567535094921</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2434,7 +2434,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C64" t="s">
         <v>71</v>
@@ -2446,7 +2446,7 @@
         <v>0</v>
       </c>
       <c r="F64">
-        <v>1.194857936972282</v>
+        <v>1.664898060473214</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2466,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>1.48617714350601</v>
+        <v>1.616071196504645</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2486,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="F66">
-        <v>1.712846326662667</v>
+        <v>1.403730406015908</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2494,7 +2494,7 @@
         <v>1</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
         <v>74</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="F67">
-        <v>1.444581015316871</v>
+        <v>1.659959652356858</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2514,7 +2514,7 @@
         <v>2</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C68" t="s">
         <v>75</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>1.413553891349071</v>
+        <v>1.766951422445749</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2534,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
         <v>76</v>
@@ -2546,7 +2546,7 @@
         <v>0</v>
       </c>
       <c r="F69">
-        <v>1.662801674807151</v>
+        <v>1.555281667655434</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2563,10 +2563,10 @@
         <v>1</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70">
-        <v>1.200103871896937</v>
+        <v>1.492839806479257</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>1.772566096215055</v>
+        <v>1.36624136525677</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2603,10 +2603,10 @@
         <v>1</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F72">
-        <v>1.549140400263301</v>
+        <v>1.64001380479023</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2614,7 +2614,7 @@
         <v>7</v>
       </c>
       <c r="B73" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>80</v>
@@ -2626,7 +2626,7 @@
         <v>0</v>
       </c>
       <c r="F73">
-        <v>1.194588614374178</v>
+        <v>1.775118837803126</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2634,7 +2634,7 @@
         <v>8</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C74" t="s">
         <v>81</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="F74">
-        <v>1.601682513833347</v>
+        <v>1.5051204499621</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2654,7 +2654,7 @@
         <v>9</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C75" t="s">
         <v>82</v>
@@ -2666,7 +2666,7 @@
         <v>0</v>
       </c>
       <c r="F75">
-        <v>1.693969170335833</v>
+        <v>1.565074852585247</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2686,7 +2686,7 @@
         <v>0</v>
       </c>
       <c r="F76">
-        <v>1.404373226609291</v>
+        <v>1.262169150497856</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2694,7 +2694,7 @@
         <v>11</v>
       </c>
       <c r="B77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
         <v>84</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="F77">
-        <v>1.326819850851875</v>
+        <v>1.342788197137391</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2714,7 +2714,7 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C78" t="s">
         <v>85</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="F78">
-        <v>1.470920619194056</v>
+        <v>1.427288803185778</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2743,10 +2743,10 @@
         <v>1</v>
       </c>
       <c r="E79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79">
-        <v>1.857860250861048</v>
+        <v>1.471059964754072</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2754,7 +2754,7 @@
         <v>14</v>
       </c>
       <c r="B80" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C80" t="s">
         <v>87</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="F80">
-        <v>1.303848716596507</v>
+        <v>1.78378117945342</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2783,10 +2783,10 @@
         <v>1</v>
       </c>
       <c r="E81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F81">
-        <v>1.44916762528584</v>
+        <v>1.760638263616798</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2794,7 +2794,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C82" t="s">
         <v>89</v>
@@ -2806,7 +2806,7 @@
         <v>0</v>
       </c>
       <c r="F82">
-        <v>1.338234287620851</v>
+        <v>1.481875751379551</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2814,7 +2814,7 @@
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
         <v>90</v>
@@ -2826,7 +2826,7 @@
         <v>0</v>
       </c>
       <c r="F83">
-        <v>1.245702131576275</v>
+        <v>1.430900278694666</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2834,7 +2834,7 @@
         <v>18</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C84" t="s">
         <v>91</v>
@@ -2846,7 +2846,7 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1.456476012540843</v>
+        <v>1.747254450945595</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2854,7 +2854,7 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C85" t="s">
         <v>92</v>
@@ -2866,7 +2866,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1.302073738794433</v>
+        <v>1.46629526812385</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2874,7 +2874,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
         <v>93</v>
@@ -2886,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="F86">
-        <v>1.463101767871616</v>
+        <v>1.512842937025704</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2894,7 +2894,7 @@
         <v>21</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C87" t="s">
         <v>94</v>
@@ -2906,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="F87">
-        <v>1.556241262539282</v>
+        <v>1.705194227849498</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2926,7 +2926,7 @@
         <v>0</v>
       </c>
       <c r="F88">
-        <v>1.447552171769859</v>
+        <v>1.631764262096465</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2934,7 +2934,7 @@
         <v>23</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C89" t="s">
         <v>96</v>
@@ -2946,7 +2946,7 @@
         <v>0</v>
       </c>
       <c r="F89">
-        <v>1.526027256269877</v>
+        <v>1.6330506413898</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2954,7 +2954,7 @@
         <v>24</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
         <v>97</v>
@@ -2963,10 +2963,10 @@
         <v>1</v>
       </c>
       <c r="E90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F90">
-        <v>1.443181631804188</v>
+        <v>1.393066680987791</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2974,7 +2974,7 @@
         <v>25</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C91" t="s">
         <v>98</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="F91">
-        <v>1.57549493386593</v>
+        <v>1.435774875147763</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2994,7 +2994,7 @@
         <v>26</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C92" t="s">
         <v>99</v>
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F92">
-        <v>1.551774873303956</v>
+        <v>1.65917744730264</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3014,7 +3014,7 @@
         <v>27</v>
       </c>
       <c r="B93" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
         <v>100</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="F93">
-        <v>1.585619029192636</v>
+        <v>1.490570229304732</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3034,7 +3034,7 @@
         <v>28</v>
       </c>
       <c r="B94" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C94" t="s">
         <v>101</v>
@@ -3046,7 +3046,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>1.40893206997171</v>
+        <v>1.686253946602828</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3054,7 +3054,7 @@
         <v>29</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
         <v>102</v>
@@ -3066,7 +3066,7 @@
         <v>0</v>
       </c>
       <c r="F95">
-        <v>1.529545975402981</v>
+        <v>1.422989791857029</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -3074,7 +3074,7 @@
         <v>30</v>
       </c>
       <c r="B96" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C96" t="s">
         <v>103</v>
@@ -3083,10 +3083,10 @@
         <v>1</v>
       </c>
       <c r="E96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F96">
-        <v>1.45790028300446</v>
+        <v>1.386741527635075</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -3094,7 +3094,7 @@
         <v>31</v>
       </c>
       <c r="B97" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C97" t="s">
         <v>104</v>
@@ -3106,7 +3106,7 @@
         <v>0</v>
       </c>
       <c r="F97">
-        <v>1.819914317874506</v>
+        <v>1.702162740409165</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -3114,7 +3114,7 @@
         <v>32</v>
       </c>
       <c r="B98" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C98" t="s">
         <v>105</v>
@@ -3123,10 +3123,10 @@
         <v>1</v>
       </c>
       <c r="E98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F98">
-        <v>1.578792259828006</v>
+        <v>1.80710601622092</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -3134,7 +3134,7 @@
         <v>33</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" t="s">
         <v>106</v>
@@ -3146,7 +3146,7 @@
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1.544921553734394</v>
+        <v>1.60129905939886</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -3154,7 +3154,7 @@
         <v>34</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C100" t="s">
         <v>107</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="F100">
-        <v>1.383319637360174</v>
+        <v>1.444508693151463</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -3174,7 +3174,7 @@
         <v>35</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
         <v>108</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="F101">
-        <v>1.317046940649074</v>
+        <v>1.401463347169888</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -3194,7 +3194,7 @@
         <v>36</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C102" t="s">
         <v>109</v>
@@ -3206,7 +3206,7 @@
         <v>0</v>
       </c>
       <c r="F102">
-        <v>1.351845794728339</v>
+        <v>1.361834155291586</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -3214,7 +3214,7 @@
         <v>37</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" t="s">
         <v>110</v>
@@ -3226,7 +3226,7 @@
         <v>0</v>
       </c>
       <c r="F103">
-        <v>1.489684767034244</v>
+        <v>1.581606607519794</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -3246,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="F104">
-        <v>1.325382242864166</v>
+        <v>1.21549122469715</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -3254,7 +3254,7 @@
         <v>39</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C105" t="s">
         <v>112</v>
@@ -3266,7 +3266,7 @@
         <v>0</v>
       </c>
       <c r="F105">
-        <v>1.677005351293741</v>
+        <v>1.431352405133138</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3283,10 +3283,10 @@
         <v>1</v>
       </c>
       <c r="E106">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F106">
-        <v>1.502890318752993</v>
+        <v>1.978225598172405</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -3294,7 +3294,7 @@
         <v>41</v>
       </c>
       <c r="B107" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C107" t="s">
         <v>114</v>
@@ -3303,10 +3303,10 @@
         <v>1</v>
       </c>
       <c r="E107">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F107">
-        <v>1.263455262866521</v>
+        <v>1.34488614600502</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3314,7 +3314,7 @@
         <v>42</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C108" t="s">
         <v>115</v>
@@ -3323,10 +3323,10 @@
         <v>1</v>
       </c>
       <c r="E108">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F108">
-        <v>1.26319243761531</v>
+        <v>1.399397774249104</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="F109">
-        <v>1.461580676175755</v>
+        <v>1.433213553321118</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -3366,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="F110">
-        <v>1.466070964211999</v>
+        <v>1.490580959061284</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -3374,7 +3374,7 @@
         <v>45</v>
       </c>
       <c r="B111" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C111" t="s">
         <v>118</v>
@@ -3386,7 +3386,7 @@
         <v>0</v>
       </c>
       <c r="F111">
-        <v>1.499670854073112</v>
+        <v>1.515843002525335</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3394,7 +3394,7 @@
         <v>46</v>
       </c>
       <c r="B112" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C112" t="s">
         <v>119</v>
@@ -3406,7 +3406,7 @@
         <v>0</v>
       </c>
       <c r="F112">
-        <v>1.524984268563603</v>
+        <v>1.605737593515842</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -3414,7 +3414,7 @@
         <v>47</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C113" t="s">
         <v>120</v>
@@ -3426,7 +3426,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>1.601358041274378</v>
+        <v>1.461866906872413</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -3434,7 +3434,7 @@
         <v>48</v>
       </c>
       <c r="B114" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C114" t="s">
         <v>121</v>
@@ -3446,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="F114">
-        <v>1.594543476520851</v>
+        <v>1.749965736616753</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -3454,7 +3454,7 @@
         <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C115" t="s">
         <v>122</v>
@@ -3463,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F115">
-        <v>1.460996160559377</v>
+        <v>1.549018150717795</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -3474,7 +3474,7 @@
         <v>50</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C116" t="s">
         <v>123</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="F116">
-        <v>1.426466402637467</v>
+        <v>1.759885493669384</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -3494,7 +3494,7 @@
         <v>51</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C117" t="s">
         <v>124</v>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="F117">
-        <v>1.476040755192711</v>
+        <v>1.449341832633801</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -3514,7 +3514,7 @@
         <v>52</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C118" t="s">
         <v>125</v>
@@ -3523,10 +3523,10 @@
         <v>1</v>
       </c>
       <c r="E118">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F118">
-        <v>1.60939743690929</v>
+        <v>1.477838810949831</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -3534,7 +3534,7 @@
         <v>53</v>
       </c>
       <c r="B119" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C119" t="s">
         <v>126</v>
@@ -3546,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="F119">
-        <v>1.529104130737104</v>
+        <v>1.619584689247637</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -3566,7 +3566,7 @@
         <v>0</v>
       </c>
       <c r="F120">
-        <v>1.416452679265233</v>
+        <v>1.719073828790642</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -3574,7 +3574,7 @@
         <v>55</v>
       </c>
       <c r="B121" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C121" t="s">
         <v>128</v>
@@ -3583,10 +3583,10 @@
         <v>1</v>
       </c>
       <c r="E121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F121">
-        <v>1.563865332344276</v>
+        <v>1.507730701860403</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -3594,7 +3594,7 @@
         <v>56</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C122" t="s">
         <v>129</v>
@@ -3603,10 +3603,10 @@
         <v>1</v>
       </c>
       <c r="E122">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F122">
-        <v>1.321785240714974</v>
+        <v>1.70188845433283</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -3614,7 +3614,7 @@
         <v>57</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C123" t="s">
         <v>130</v>
@@ -3623,10 +3623,10 @@
         <v>1</v>
       </c>
       <c r="E123">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F123">
-        <v>1.564598632010795</v>
+        <v>1.363976713189277</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -3634,7 +3634,7 @@
         <v>58</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C124" t="s">
         <v>131</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="F124">
-        <v>1.302851013298009</v>
+        <v>1.537827779414392</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3654,7 +3654,7 @@
         <v>59</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C125" t="s">
         <v>132</v>
@@ -3666,7 +3666,7 @@
         <v>0</v>
       </c>
       <c r="F125">
-        <v>1.633586816661559</v>
+        <v>1.601512343422581</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3674,7 +3674,7 @@
         <v>60</v>
       </c>
       <c r="B126" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C126" t="s">
         <v>133</v>
@@ -3686,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="F126">
-        <v>1.55104107136364</v>
+        <v>1.315699176126198</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="F127">
-        <v>1.260962906988178</v>
+        <v>1.695077066541379</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="F128">
-        <v>1.621375901969975</v>
+        <v>1.329662813028631</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3734,7 +3734,7 @@
         <v>63</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
         <v>136</v>
@@ -3743,10 +3743,10 @@
         <v>1</v>
       </c>
       <c r="E129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F129">
-        <v>1.574415170165695</v>
+        <v>1.619122878029797</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C130" t="s">
         <v>137</v>
@@ -3766,7 +3766,7 @@
         <v>0</v>
       </c>
       <c r="F130">
-        <v>1.486352980658535</v>
+        <v>1.345181361736761</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3774,7 +3774,7 @@
         <v>1</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
         <v>138</v>
@@ -3783,10 +3783,10 @@
         <v>2</v>
       </c>
       <c r="E131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F131">
-        <v>1.390394664367621</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3794,7 +3794,7 @@
         <v>2</v>
       </c>
       <c r="B132" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C132" t="s">
         <v>139</v>
@@ -3806,7 +3806,7 @@
         <v>0</v>
       </c>
       <c r="F132">
-        <v>1.439194968569734</v>
+        <v>1.725551386246728</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3814,7 +3814,7 @@
         <v>3</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C133" t="s">
         <v>140</v>
@@ -3826,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="F133">
-        <v>1.516988445482778</v>
+        <v>1.410669511659898</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -3834,7 +3834,7 @@
         <v>4</v>
       </c>
       <c r="B134" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C134" t="s">
         <v>141</v>
@@ -3843,10 +3843,10 @@
         <v>2</v>
       </c>
       <c r="E134">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F134">
-        <v>1.57230239371533</v>
+        <v>1.437958072083998</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3854,7 +3854,7 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C135" t="s">
         <v>142</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="F135">
-        <v>1.539555871765751</v>
+        <v>1.637188338638787</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3874,7 +3874,7 @@
         <v>6</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C136" t="s">
         <v>143</v>
@@ -3886,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="F136">
-        <v>1.402616661269096</v>
+        <v>1.292559361567714</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3894,7 +3894,7 @@
         <v>7</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C137" t="s">
         <v>144</v>
@@ -3903,10 +3903,10 @@
         <v>2</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>1.514616689910193</v>
+        <v>1.60332018445557</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3914,7 +3914,7 @@
         <v>8</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
         <v>145</v>
@@ -3926,7 +3926,7 @@
         <v>0</v>
       </c>
       <c r="F138">
-        <v>1.608749687834625</v>
+        <v>1.438940411536831</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3934,7 +3934,7 @@
         <v>9</v>
       </c>
       <c r="B139" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C139" t="s">
         <v>146</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>1.640311727242507</v>
+        <v>1.400964007147042</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="F140">
-        <v>1.509183872501532</v>
+        <v>1.499927953697108</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3974,7 +3974,7 @@
         <v>11</v>
       </c>
       <c r="B141" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C141" t="s">
         <v>148</v>
@@ -3986,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="F141">
-        <v>1.661332748340437</v>
+        <v>1.719565087770028</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -4006,7 +4006,7 @@
         <v>0</v>
       </c>
       <c r="F142">
-        <v>1.383666431339982</v>
+        <v>1.705618099108365</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -4014,7 +4014,7 @@
         <v>13</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C143" t="s">
         <v>150</v>
@@ -4026,7 +4026,7 @@
         <v>0</v>
       </c>
       <c r="F143">
-        <v>1.613261536299585</v>
+        <v>1.582711895728254</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -4034,7 +4034,7 @@
         <v>14</v>
       </c>
       <c r="B144" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C144" t="s">
         <v>151</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="F144">
-        <v>1.112692387216821</v>
+        <v>1.332292830944524</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -4054,7 +4054,7 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C145" t="s">
         <v>152</v>
@@ -4066,7 +4066,7 @@
         <v>0</v>
       </c>
       <c r="F145">
-        <v>1.572816397052251</v>
+        <v>1.18554039902047</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4074,7 +4074,7 @@
         <v>16</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C146" t="s">
         <v>153</v>
@@ -4086,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="F146">
-        <v>1.504010248293635</v>
+        <v>1.498120296789801</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -4094,7 +4094,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C147" t="s">
         <v>154</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="F147">
-        <v>1.530911139735698</v>
+        <v>1.607567174532103</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -4114,7 +4114,7 @@
         <v>18</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C148" t="s">
         <v>155</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="F148">
-        <v>1.424889426043386</v>
+        <v>1.440174842710401</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -4134,7 +4134,7 @@
         <v>19</v>
       </c>
       <c r="B149" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C149" t="s">
         <v>156</v>
@@ -4143,10 +4143,10 @@
         <v>2</v>
       </c>
       <c r="E149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F149">
-        <v>1.529018413293844</v>
+        <v>1.534044858463915</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -4154,7 +4154,7 @@
         <v>20</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C150" t="s">
         <v>157</v>
@@ -4163,10 +4163,10 @@
         <v>2</v>
       </c>
       <c r="E150">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150">
-        <v>1.612659953250004</v>
+        <v>1.539741531047242</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F151">
-        <v>1.584215537976522</v>
+        <v>1.46943759536732</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -4194,7 +4194,7 @@
         <v>22</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C152" t="s">
         <v>159</v>
@@ -4203,10 +4203,10 @@
         <v>2</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F152">
-        <v>1.818032755898006</v>
+        <v>1.362349264595589</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -4214,7 +4214,7 @@
         <v>23</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
         <v>160</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="F153">
-        <v>1.5328207187767</v>
+        <v>1.385848384955994</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -4234,7 +4234,7 @@
         <v>24</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C154" t="s">
         <v>161</v>
@@ -4243,10 +4243,10 @@
         <v>2</v>
       </c>
       <c r="E154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F154">
-        <v>1.627760603103338</v>
+        <v>1.344993179404485</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -4254,7 +4254,7 @@
         <v>25</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
         <v>162</v>
@@ -4266,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="F155">
-        <v>1.641004202270101</v>
+        <v>1.66816165514685</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -4283,10 +4283,10 @@
         <v>2</v>
       </c>
       <c r="E156">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F156">
-        <v>1.420339870580651</v>
+        <v>1.315612316499477</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4306,7 +4306,7 @@
         <v>0</v>
       </c>
       <c r="F157">
-        <v>1.509104114138803</v>
+        <v>1.685584231017016</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4314,7 +4314,7 @@
         <v>28</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -4326,7 +4326,7 @@
         <v>0</v>
       </c>
       <c r="F158">
-        <v>1.688949006928571</v>
+        <v>1.398078218933271</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -4346,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="F159">
-        <v>1.412952045446683</v>
+        <v>1.437493533491667</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -4366,7 +4366,7 @@
         <v>0</v>
       </c>
       <c r="F160">
-        <v>1.712560259205354</v>
+        <v>1.50896209306942</v>
       </c>
     </row>
     <row r="161" spans="1:6">
@@ -4374,7 +4374,7 @@
         <v>31</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
         <v>168</v>
@@ -4383,10 +4383,10 @@
         <v>2</v>
       </c>
       <c r="E161">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161">
-        <v>1.478063096671849</v>
+        <v>1.462443547517141</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -4394,7 +4394,7 @@
         <v>32</v>
       </c>
       <c r="B162" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C162" t="s">
         <v>169</v>
@@ -4403,10 +4403,10 @@
         <v>2</v>
       </c>
       <c r="E162">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F162">
-        <v>1.42676301225769</v>
+        <v>1.612659811825167</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -4414,7 +4414,7 @@
         <v>33</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
         <v>170</v>
@@ -4426,7 +4426,7 @@
         <v>0</v>
       </c>
       <c r="F163">
-        <v>1.404015603809025</v>
+        <v>1.411647057400891</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -4434,7 +4434,7 @@
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C164" t="s">
         <v>171</v>
@@ -4446,7 +4446,7 @@
         <v>0</v>
       </c>
       <c r="F164">
-        <v>1.757518067582723</v>
+        <v>1.354175298257206</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -4466,7 +4466,7 @@
         <v>0</v>
       </c>
       <c r="F165">
-        <v>1.420597931026452</v>
+        <v>1.60873913215909</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -4474,7 +4474,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C166" t="s">
         <v>173</v>
@@ -4486,7 +4486,7 @@
         <v>0</v>
       </c>
       <c r="F166">
-        <v>1.644184026472664</v>
+        <v>1.602206395708512</v>
       </c>
     </row>
     <row r="167" spans="1:6">
@@ -4494,7 +4494,7 @@
         <v>37</v>
       </c>
       <c r="B167" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
         <v>174</v>
@@ -4503,10 +4503,10 @@
         <v>2</v>
       </c>
       <c r="E167">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F167">
-        <v>1.55882283430512</v>
+        <v>1.542629612840369</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -4514,7 +4514,7 @@
         <v>38</v>
       </c>
       <c r="B168" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C168" t="s">
         <v>175</v>
@@ -4523,10 +4523,10 @@
         <v>2</v>
       </c>
       <c r="E168">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F168">
-        <v>1.352929695023206</v>
+        <v>1.696139971331313</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -4534,7 +4534,7 @@
         <v>39</v>
       </c>
       <c r="B169" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C169" t="s">
         <v>176</v>
@@ -4546,7 +4546,7 @@
         <v>0</v>
       </c>
       <c r="F169">
-        <v>1.466226996111843</v>
+        <v>1.855628084842123</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C170" t="s">
         <v>177</v>
@@ -4566,7 +4566,7 @@
         <v>0</v>
       </c>
       <c r="F170">
-        <v>1.645865331088754</v>
+        <v>1.395307966359225</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -4574,7 +4574,7 @@
         <v>41</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C171" t="s">
         <v>178</v>
@@ -4583,10 +4583,10 @@
         <v>2</v>
       </c>
       <c r="E171">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F171">
-        <v>1.720064365964875</v>
+        <v>1.383555343621623</v>
       </c>
     </row>
     <row r="172" spans="1:6">
@@ -4594,7 +4594,7 @@
         <v>42</v>
       </c>
       <c r="B172" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
         <v>179</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="F172">
-        <v>1.582379614529722</v>
+        <v>1.307672728675743</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -4626,7 +4626,7 @@
         <v>0</v>
       </c>
       <c r="F173">
-        <v>1.462770132792751</v>
+        <v>1.689952176470844</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4634,7 +4634,7 @@
         <v>44</v>
       </c>
       <c r="B174" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C174" t="s">
         <v>181</v>
@@ -4646,7 +4646,7 @@
         <v>0</v>
       </c>
       <c r="F174">
-        <v>1.572684750683421</v>
+        <v>1.657576742042972</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -4654,7 +4654,7 @@
         <v>45</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C175" t="s">
         <v>182</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="F175">
-        <v>1.645782155359265</v>
+        <v>1.478472060531205</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -4674,7 +4674,7 @@
         <v>46</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C176" t="s">
         <v>183</v>
@@ -4683,10 +4683,10 @@
         <v>2</v>
       </c>
       <c r="E176">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F176">
-        <v>1.378476962085435</v>
+        <v>1.535477175632144</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4694,7 +4694,7 @@
         <v>47</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C177" t="s">
         <v>184</v>
@@ -4706,7 +4706,7 @@
         <v>0</v>
       </c>
       <c r="F177">
-        <v>1.737742286167012</v>
+        <v>1.742763163384699</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -4714,7 +4714,7 @@
         <v>48</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C178" t="s">
         <v>185</v>
@@ -4726,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="F178">
-        <v>1.508492242658651</v>
+        <v>1.603743596731669</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -4746,7 +4746,7 @@
         <v>0</v>
       </c>
       <c r="F179">
-        <v>1.244911977457868</v>
+        <v>1.305974562838786</v>
       </c>
     </row>
     <row r="180" spans="1:6">
@@ -4754,7 +4754,7 @@
         <v>50</v>
       </c>
       <c r="B180" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
         <v>187</v>
@@ -4766,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="F180">
-        <v>1.696269563331534</v>
+        <v>1.471445941789371</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -4786,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="F181">
-        <v>1.444010439513486</v>
+        <v>1.579696649276009</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -4806,7 +4806,7 @@
         <v>0</v>
       </c>
       <c r="F182">
-        <v>1.481619428615677</v>
+        <v>1.337610953489735</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -4814,7 +4814,7 @@
         <v>53</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
         <v>190</v>
@@ -4826,7 +4826,7 @@
         <v>0</v>
       </c>
       <c r="F183">
-        <v>1.65584845892288</v>
+        <v>1.797315908493233</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -4834,7 +4834,7 @@
         <v>54</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C184" t="s">
         <v>191</v>
@@ -4846,7 +4846,7 @@
         <v>0</v>
       </c>
       <c r="F184">
-        <v>1.514770861047699</v>
+        <v>1.350333908779748</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="F185">
-        <v>1.304587234819202</v>
+        <v>1.561597915544218</v>
       </c>
     </row>
     <row r="186" spans="1:6">
@@ -4886,7 +4886,7 @@
         <v>0</v>
       </c>
       <c r="F186">
-        <v>1.40577632859492</v>
+        <v>1.388155206274044</v>
       </c>
     </row>
     <row r="187" spans="1:6">
@@ -4894,7 +4894,7 @@
         <v>57</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
         <v>194</v>
@@ -4906,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="F187">
-        <v>1.314127729442792</v>
+        <v>1.536410474326677</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -4914,7 +4914,7 @@
         <v>58</v>
       </c>
       <c r="B188" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
         <v>195</v>
@@ -4926,7 +4926,7 @@
         <v>0</v>
       </c>
       <c r="F188">
-        <v>1.335916308789595</v>
+        <v>1.473070490499539</v>
       </c>
     </row>
     <row r="189" spans="1:6">
@@ -4943,10 +4943,10 @@
         <v>2</v>
       </c>
       <c r="E189">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F189">
-        <v>1.696123498401698</v>
+        <v>1.383601216142382</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -4954,7 +4954,7 @@
         <v>60</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C190" t="s">
         <v>197</v>
@@ -4966,7 +4966,7 @@
         <v>0</v>
       </c>
       <c r="F190">
-        <v>1.643161740496207</v>
+        <v>1.17274066518889</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -4974,7 +4974,7 @@
         <v>61</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C191" t="s">
         <v>198</v>
@@ -4986,7 +4986,7 @@
         <v>0</v>
       </c>
       <c r="F191">
-        <v>1.584796998424841</v>
+        <v>1.439085913175554</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -4994,7 +4994,7 @@
         <v>62</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C192" t="s">
         <v>199</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="F192">
-        <v>1.352125375325431</v>
+        <v>1.583291036101304</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -5014,7 +5014,7 @@
         <v>63</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C193" t="s">
         <v>200</v>
@@ -5023,10 +5023,10 @@
         <v>2</v>
       </c>
       <c r="E193">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F193">
-        <v>1.396578797048215</v>
+        <v>1.658114097284935</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -5043,10 +5043,10 @@
         <v>3</v>
       </c>
       <c r="E194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F194">
-        <v>1.209243868816119</v>
+        <v>1.619728862414112</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C195" t="s">
         <v>202</v>
@@ -5066,7 +5066,7 @@
         <v>0</v>
       </c>
       <c r="F195">
-        <v>1.505064782435531</v>
+        <v>1.444225246810701</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5086,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="F196">
-        <v>1.562179203529144</v>
+        <v>1.585573247296805</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5094,7 +5094,7 @@
         <v>3</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C197" t="s">
         <v>204</v>
@@ -5103,10 +5103,10 @@
         <v>3</v>
       </c>
       <c r="E197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F197">
-        <v>1.259276280786136</v>
+        <v>1.390997156168609</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5123,10 +5123,10 @@
         <v>3</v>
       </c>
       <c r="E198">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F198">
-        <v>1.365631596888332</v>
+        <v>1.343056659136131</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5134,7 +5134,7 @@
         <v>5</v>
       </c>
       <c r="B199" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C199" t="s">
         <v>206</v>
@@ -5146,7 +5146,7 @@
         <v>0</v>
       </c>
       <c r="F199">
-        <v>1.270100729469689</v>
+        <v>1.701196697692664</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -5154,7 +5154,7 @@
         <v>6</v>
       </c>
       <c r="B200" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C200" t="s">
         <v>207</v>
@@ -5166,7 +5166,7 @@
         <v>0</v>
       </c>
       <c r="F200">
-        <v>1.280523626728221</v>
+        <v>1.370460078766142</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -5186,7 +5186,7 @@
         <v>0</v>
       </c>
       <c r="F201">
-        <v>1.64105225242326</v>
+        <v>1.399686864704601</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C202" t="s">
         <v>209</v>
@@ -5206,7 +5206,7 @@
         <v>0</v>
       </c>
       <c r="F202">
-        <v>1.403039963772077</v>
+        <v>1.441006720548332</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -5214,7 +5214,7 @@
         <v>9</v>
       </c>
       <c r="B203" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C203" t="s">
         <v>210</v>
@@ -5226,7 +5226,7 @@
         <v>0</v>
       </c>
       <c r="F203">
-        <v>1.553331272726339</v>
+        <v>1.505332393139506</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -5234,7 +5234,7 @@
         <v>10</v>
       </c>
       <c r="B204" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C204" t="s">
         <v>211</v>
@@ -5243,10 +5243,10 @@
         <v>3</v>
       </c>
       <c r="E204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F204">
-        <v>1.307492075463349</v>
+        <v>1.552833218854674</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -5254,7 +5254,7 @@
         <v>11</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C205" t="s">
         <v>212</v>
@@ -5266,7 +5266,7 @@
         <v>0</v>
       </c>
       <c r="F205">
-        <v>1.430162329550088</v>
+        <v>1.462930412995319</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -5286,7 +5286,7 @@
         <v>0</v>
       </c>
       <c r="F206">
-        <v>1.512596421829294</v>
+        <v>1.53386891075729</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -5294,7 +5294,7 @@
         <v>13</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C207" t="s">
         <v>214</v>
@@ -5306,7 +5306,7 @@
         <v>0</v>
       </c>
       <c r="F207">
-        <v>1.397093693299156</v>
+        <v>1.291922255086119</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -5314,7 +5314,7 @@
         <v>14</v>
       </c>
       <c r="B208" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C208" t="s">
         <v>215</v>
@@ -5323,10 +5323,10 @@
         <v>3</v>
       </c>
       <c r="E208">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F208">
-        <v>1.246153545136729</v>
+        <v>1.499341469441626</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -5334,7 +5334,7 @@
         <v>15</v>
       </c>
       <c r="B209" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C209" t="s">
         <v>216</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="F209">
-        <v>1.655753692251227</v>
+        <v>1.342200590431929</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -5354,7 +5354,7 @@
         <v>16</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C210" t="s">
         <v>217</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="F210">
-        <v>1.360921029714657</v>
+        <v>1.563634492149402</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -5374,7 +5374,7 @@
         <v>17</v>
       </c>
       <c r="B211" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C211" t="s">
         <v>218</v>
@@ -5386,7 +5386,7 @@
         <v>0</v>
       </c>
       <c r="F211">
-        <v>1.690412174427648</v>
+        <v>1.548128895039942</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -5394,7 +5394,7 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C212" t="s">
         <v>219</v>
@@ -5406,7 +5406,7 @@
         <v>0</v>
       </c>
       <c r="F212">
-        <v>1.271995783195157</v>
+        <v>1.510586804114217</v>
       </c>
     </row>
     <row r="213" spans="1:6">
@@ -5414,7 +5414,7 @@
         <v>19</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C213" t="s">
         <v>220</v>
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="F213">
-        <v>1.320454468792815</v>
+        <v>1.468544864374169</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -5434,7 +5434,7 @@
         <v>20</v>
       </c>
       <c r="B214" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C214" t="s">
         <v>221</v>
@@ -5443,10 +5443,10 @@
         <v>3</v>
       </c>
       <c r="E214">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F214">
-        <v>1.523681414452017</v>
+        <v>1.567698667871947</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -5454,7 +5454,7 @@
         <v>21</v>
       </c>
       <c r="B215" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C215" t="s">
         <v>222</v>
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F215">
-        <v>1.566612561310716</v>
+        <v>1.677069292886255</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -5474,7 +5474,7 @@
         <v>22</v>
       </c>
       <c r="B216" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C216" t="s">
         <v>223</v>
@@ -5486,7 +5486,7 @@
         <v>0</v>
       </c>
       <c r="F216">
-        <v>1.229057519880266</v>
+        <v>1.480013652783357</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -5494,7 +5494,7 @@
         <v>23</v>
       </c>
       <c r="B217" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C217" t="s">
         <v>224</v>
@@ -5503,10 +5503,10 @@
         <v>3</v>
       </c>
       <c r="E217">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F217">
-        <v>1.401964344740014</v>
+        <v>1.632591248274781</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -5514,7 +5514,7 @@
         <v>24</v>
       </c>
       <c r="B218" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C218" t="s">
         <v>225</v>
@@ -5526,7 +5526,7 @@
         <v>0</v>
       </c>
       <c r="F218">
-        <v>1.34044827926384</v>
+        <v>1.623222210067885</v>
       </c>
     </row>
     <row r="219" spans="1:6">
@@ -5534,7 +5534,7 @@
         <v>25</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C219" t="s">
         <v>226</v>
@@ -5543,10 +5543,10 @@
         <v>3</v>
       </c>
       <c r="E219">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F219">
-        <v>1.50679602409002</v>
+        <v>1.332065986467964</v>
       </c>
     </row>
     <row r="220" spans="1:6">
@@ -5554,7 +5554,7 @@
         <v>26</v>
       </c>
       <c r="B220" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C220" t="s">
         <v>227</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="F220">
-        <v>1.694760745330472</v>
+        <v>1.582933935052128</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -5574,7 +5574,7 @@
         <v>27</v>
       </c>
       <c r="B221" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C221" t="s">
         <v>228</v>
@@ -5586,7 +5586,7 @@
         <v>0</v>
       </c>
       <c r="F221">
-        <v>1.506165035785681</v>
+        <v>1.445005703255234</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -5594,7 +5594,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C222" t="s">
         <v>229</v>
@@ -5606,7 +5606,7 @@
         <v>0</v>
       </c>
       <c r="F222">
-        <v>1.438901767883445</v>
+        <v>1.780247057411381</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -5614,7 +5614,7 @@
         <v>29</v>
       </c>
       <c r="B223" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C223" t="s">
         <v>230</v>
@@ -5626,7 +5626,7 @@
         <v>0</v>
       </c>
       <c r="F223">
-        <v>1.489900358228795</v>
+        <v>1.661758761000458</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -5634,7 +5634,7 @@
         <v>30</v>
       </c>
       <c r="B224" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C224" t="s">
         <v>231</v>
@@ -5646,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="F224">
-        <v>1.507313554750755</v>
+        <v>1.628373603937565</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -5654,7 +5654,7 @@
         <v>31</v>
       </c>
       <c r="B225" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C225" t="s">
         <v>232</v>
@@ -5666,7 +5666,7 @@
         <v>0</v>
       </c>
       <c r="F225">
-        <v>1.663093427751559</v>
+        <v>1.680888872374279</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -5674,7 +5674,7 @@
         <v>32</v>
       </c>
       <c r="B226" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C226" t="s">
         <v>233</v>
@@ -5686,7 +5686,7 @@
         <v>0</v>
       </c>
       <c r="F226">
-        <v>1.624141024484852</v>
+        <v>1.485812734435207</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -5703,10 +5703,10 @@
         <v>3</v>
       </c>
       <c r="E227">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F227">
-        <v>1.466247418466602</v>
+        <v>1.602806960993157</v>
       </c>
     </row>
     <row r="228" spans="1:6">
@@ -5714,7 +5714,7 @@
         <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C228" t="s">
         <v>235</v>
@@ -5726,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="F228">
-        <v>1.323578340205882</v>
+        <v>1.738666558892367</v>
       </c>
     </row>
     <row r="229" spans="1:6">
@@ -5734,7 +5734,7 @@
         <v>35</v>
       </c>
       <c r="B229" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C229" t="s">
         <v>236</v>
@@ -5746,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="F229">
-        <v>1.561243205885245</v>
+        <v>1.587477452373985</v>
       </c>
     </row>
     <row r="230" spans="1:6">
@@ -5766,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="F230">
-        <v>1.641039114013026</v>
+        <v>1.248102484512871</v>
       </c>
     </row>
     <row r="231" spans="1:6">
@@ -5774,7 +5774,7 @@
         <v>37</v>
       </c>
       <c r="B231" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C231" t="s">
         <v>238</v>
@@ -5786,7 +5786,7 @@
         <v>0</v>
       </c>
       <c r="F231">
-        <v>1.398400271919516</v>
+        <v>1.513055997710312</v>
       </c>
     </row>
     <row r="232" spans="1:6">
@@ -5794,7 +5794,7 @@
         <v>38</v>
       </c>
       <c r="B232" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C232" t="s">
         <v>239</v>
@@ -5806,7 +5806,7 @@
         <v>0</v>
       </c>
       <c r="F232">
-        <v>1.505397257492333</v>
+        <v>1.701135979821821</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -5814,7 +5814,7 @@
         <v>39</v>
       </c>
       <c r="B233" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C233" t="s">
         <v>240</v>
@@ -5823,10 +5823,10 @@
         <v>3</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F233">
-        <v>1.500243548883247</v>
+        <v>1.388497224571484</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -5834,7 +5834,7 @@
         <v>40</v>
       </c>
       <c r="B234" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C234" t="s">
         <v>241</v>
@@ -5846,7 +5846,7 @@
         <v>0</v>
       </c>
       <c r="F234">
-        <v>1.543353166073732</v>
+        <v>1.365053571884219</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -5854,7 +5854,7 @@
         <v>41</v>
       </c>
       <c r="B235" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C235" t="s">
         <v>242</v>
@@ -5866,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="F235">
-        <v>1.701697831739248</v>
+        <v>1.643391877513022</v>
       </c>
     </row>
     <row r="236" spans="1:6">
@@ -5886,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="F236">
-        <v>1.347655802340174</v>
+        <v>1.418749572060117</v>
       </c>
     </row>
     <row r="237" spans="1:6">
@@ -5894,7 +5894,7 @@
         <v>43</v>
       </c>
       <c r="B237" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C237" t="s">
         <v>244</v>
@@ -5906,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="F237">
-        <v>1.548078624230249</v>
+        <v>1.242711415889723</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -5914,7 +5914,7 @@
         <v>44</v>
       </c>
       <c r="B238" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C238" t="s">
         <v>245</v>
@@ -5926,7 +5926,7 @@
         <v>0</v>
       </c>
       <c r="F238">
-        <v>1.311820772472275</v>
+        <v>1.535892688880107</v>
       </c>
     </row>
     <row r="239" spans="1:6">
@@ -5946,7 +5946,7 @@
         <v>0</v>
       </c>
       <c r="F239">
-        <v>1.338799145936994</v>
+        <v>1.536286531253981</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -5954,7 +5954,7 @@
         <v>46</v>
       </c>
       <c r="B240" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C240" t="s">
         <v>247</v>
@@ -5963,10 +5963,10 @@
         <v>3</v>
       </c>
       <c r="E240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F240">
-        <v>1.498832823169401</v>
+        <v>1.305900480252824</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -5974,7 +5974,7 @@
         <v>47</v>
       </c>
       <c r="B241" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C241" t="s">
         <v>248</v>
@@ -5986,7 +5986,7 @@
         <v>0</v>
       </c>
       <c r="F241">
-        <v>1.375072141933328</v>
+        <v>1.477127216790242</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -5994,7 +5994,7 @@
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C242" t="s">
         <v>249</v>
@@ -6006,7 +6006,7 @@
         <v>0</v>
       </c>
       <c r="F242">
-        <v>1.43624548927783</v>
+        <v>1.471218684305713</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6014,7 +6014,7 @@
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C243" t="s">
         <v>250</v>
@@ -6023,10 +6023,10 @@
         <v>3</v>
       </c>
       <c r="E243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F243">
-        <v>1.443166916617781</v>
+        <v>1.445769651113741</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -6034,7 +6034,7 @@
         <v>50</v>
       </c>
       <c r="B244" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C244" t="s">
         <v>251</v>
@@ -6046,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="F244">
-        <v>1.534562961259037</v>
+        <v>1.496156371584146</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -6054,7 +6054,7 @@
         <v>51</v>
       </c>
       <c r="B245" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C245" t="s">
         <v>252</v>
@@ -6066,7 +6066,7 @@
         <v>0</v>
       </c>
       <c r="F245">
-        <v>1.525155693527643</v>
+        <v>1.432338690334495</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -6074,7 +6074,7 @@
         <v>52</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C246" t="s">
         <v>253</v>
@@ -6086,7 +6086,7 @@
         <v>0</v>
       </c>
       <c r="F246">
-        <v>1.512003225293548</v>
+        <v>1.491294874775174</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -6103,10 +6103,10 @@
         <v>3</v>
       </c>
       <c r="E247">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F247">
-        <v>1.70587320795822</v>
+        <v>1.484643486235054</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -6114,7 +6114,7 @@
         <v>54</v>
       </c>
       <c r="B248" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C248" t="s">
         <v>255</v>
@@ -6126,7 +6126,7 @@
         <v>0</v>
       </c>
       <c r="F248">
-        <v>1.620576522384791</v>
+        <v>1.486540114336153</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -6134,7 +6134,7 @@
         <v>55</v>
       </c>
       <c r="B249" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C249" t="s">
         <v>256</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="F249">
-        <v>1.745288825973445</v>
+        <v>1.838232567590588</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -6154,7 +6154,7 @@
         <v>56</v>
       </c>
       <c r="B250" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C250" t="s">
         <v>257</v>
@@ -6166,7 +6166,7 @@
         <v>0</v>
       </c>
       <c r="F250">
-        <v>1.32795885516749</v>
+        <v>1.461925619127075</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -6186,7 +6186,7 @@
         <v>0</v>
       </c>
       <c r="F251">
-        <v>1.515306509488619</v>
+        <v>1.534765249512842</v>
       </c>
     </row>
     <row r="252" spans="1:6">
@@ -6194,7 +6194,7 @@
         <v>58</v>
       </c>
       <c r="B252" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C252" t="s">
         <v>259</v>
@@ -6206,7 +6206,7 @@
         <v>0</v>
       </c>
       <c r="F252">
-        <v>1.433964131375697</v>
+        <v>1.179683951731431</v>
       </c>
     </row>
     <row r="253" spans="1:6">
@@ -6214,7 +6214,7 @@
         <v>59</v>
       </c>
       <c r="B253" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C253" t="s">
         <v>260</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="F253">
-        <v>1.423282760844033</v>
+        <v>1.237825863481925</v>
       </c>
     </row>
     <row r="254" spans="1:6">
@@ -6234,7 +6234,7 @@
         <v>60</v>
       </c>
       <c r="B254" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C254" t="s">
         <v>261</v>
@@ -6246,7 +6246,7 @@
         <v>0</v>
       </c>
       <c r="F254">
-        <v>1.392147459807453</v>
+        <v>1.232982038755281</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -6266,7 +6266,7 @@
         <v>0</v>
       </c>
       <c r="F255">
-        <v>1.343051293110087</v>
+        <v>1.71295750415956</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -6274,7 +6274,7 @@
         <v>62</v>
       </c>
       <c r="B256" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C256" t="s">
         <v>263</v>
@@ -6283,10 +6283,10 @@
         <v>3</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F256">
-        <v>1.551763410235188</v>
+        <v>1.301177478140664</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -6294,7 +6294,7 @@
         <v>63</v>
       </c>
       <c r="B257" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C257" t="s">
         <v>264</v>
@@ -6306,7 +6306,7 @@
         <v>0</v>
       </c>
       <c r="F257">
-        <v>1.562384779403509</v>
+        <v>1.516811138151395</v>
       </c>
     </row>
   </sheetData>
